--- a/Database/Norbert/Cazuri.xlsx
+++ b/Database/Norbert/Cazuri.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai\Desktop\repository_licenta\Licenta_covid19_UTCN\Database\Norbert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Facultate\Licenta\Baza date liceta\Licenta_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9259606-69B1-433D-AFB4-77637CB2CA23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9292BB-0EE1-4655-887F-B5BF41CCE28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3D40AD38-2117-48DA-BB6F-ACACFA23F30F}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3D40AD38-2117-48DA-BB6F-ACACFA23F30F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>Data (zile)</t>
   </si>
@@ -278,6 +269,18 @@
   <si>
     <t>noi</t>
   </si>
+  <si>
+    <t>3-9-mai</t>
+  </si>
+  <si>
+    <t>10-16-mai</t>
+  </si>
+  <si>
+    <t>17-23-mai</t>
+  </si>
+  <si>
+    <t>24-30 mai</t>
+  </si>
 </sst>
 </file>
 
@@ -499,6 +502,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -512,12 +521,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -834,10 +837,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7C75F8-1448-4344-BF9C-C0D44A9031E9}">
-  <dimension ref="A1:N446"/>
+  <dimension ref="A1:N473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,28 +866,28 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="35"/>
+      <c r="H1" s="37"/>
       <c r="I1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="37" t="s">
+      <c r="K1" s="38"/>
+      <c r="L1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="38"/>
+      <c r="M1" s="40"/>
       <c r="N1" s="33" t="s">
         <v>79</v>
       </c>
@@ -923,7 +929,7 @@
       <c r="L2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="34" t="s">
         <v>40</v>
       </c>
       <c r="N2" s="33" t="s">
@@ -967,7 +973,7 @@
       <c r="L3" s="22">
         <v>3</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="M3" s="35" t="s">
         <v>16</v>
       </c>
       <c r="N3" s="31">
@@ -1011,7 +1017,7 @@
       <c r="L4" s="21">
         <v>12</v>
       </c>
-      <c r="M4" s="40" t="s">
+      <c r="M4" s="35" t="s">
         <v>17</v>
       </c>
       <c r="N4" s="31">
@@ -1056,7 +1062,7 @@
       <c r="L5" s="22">
         <v>124</v>
       </c>
-      <c r="M5" s="40" t="s">
+      <c r="M5" s="35" t="s">
         <v>18</v>
       </c>
       <c r="N5" s="31">
@@ -1101,7 +1107,7 @@
       <c r="L6" s="21">
         <v>294</v>
       </c>
-      <c r="M6" s="40" t="s">
+      <c r="M6" s="35" t="s">
         <v>19</v>
       </c>
       <c r="N6" s="31">
@@ -1146,7 +1152,7 @@
       <c r="L7" s="22">
         <v>1327</v>
       </c>
-      <c r="M7" s="40" t="s">
+      <c r="M7" s="35" t="s">
         <v>20</v>
       </c>
       <c r="N7" s="31">
@@ -1191,7 +1197,7 @@
       <c r="L8" s="21">
         <v>2104</v>
       </c>
-      <c r="M8" s="40" t="s">
+      <c r="M8" s="35" t="s">
         <v>21</v>
       </c>
       <c r="N8" s="31">
@@ -1236,7 +1242,7 @@
       <c r="L9" s="22">
         <v>2436</v>
       </c>
-      <c r="M9" s="40" t="s">
+      <c r="M9" s="35" t="s">
         <v>22</v>
       </c>
       <c r="N9" s="31">
@@ -1281,7 +1287,7 @@
       <c r="L10" s="21">
         <v>2446</v>
       </c>
-      <c r="M10" s="40" t="s">
+      <c r="M10" s="35" t="s">
         <v>23</v>
       </c>
       <c r="N10" s="31">
@@ -1326,7 +1332,7 @@
       <c r="L11" s="22">
         <v>2290</v>
       </c>
-      <c r="M11" s="40" t="s">
+      <c r="M11" s="35" t="s">
         <v>24</v>
       </c>
       <c r="N11" s="31">
@@ -1367,7 +1373,7 @@
       <c r="L12" s="21">
         <v>2127</v>
       </c>
-      <c r="M12" s="40" t="s">
+      <c r="M12" s="35" t="s">
         <v>25</v>
       </c>
       <c r="N12" s="31">
@@ -1408,7 +1414,7 @@
       <c r="L13" s="22">
         <v>2199</v>
       </c>
-      <c r="M13" s="40" t="s">
+      <c r="M13" s="35" t="s">
         <v>26</v>
       </c>
       <c r="N13" s="31">
@@ -1449,7 +1455,7 @@
       <c r="L14" s="21">
         <v>1509</v>
       </c>
-      <c r="M14" s="40" t="s">
+      <c r="M14" s="35" t="s">
         <v>27</v>
       </c>
       <c r="N14" s="31">
@@ -1490,7 +1496,7 @@
       <c r="L15" s="22">
         <v>1199</v>
       </c>
-      <c r="M15" s="40" t="s">
+      <c r="M15" s="35" t="s">
         <v>28</v>
       </c>
       <c r="N15" s="31">
@@ -1509,7 +1515,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="10">
         <v>0</v>
@@ -1531,7 +1537,7 @@
       <c r="L16" s="21">
         <v>1187</v>
       </c>
-      <c r="M16" s="40" t="s">
+      <c r="M16" s="35" t="s">
         <v>29</v>
       </c>
       <c r="N16" s="31">
@@ -1550,7 +1556,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="10">
         <v>0</v>
@@ -1572,7 +1578,7 @@
       <c r="L17" s="22">
         <v>1222</v>
       </c>
-      <c r="M17" s="40" t="s">
+      <c r="M17" s="35" t="s">
         <v>30</v>
       </c>
       <c r="N17" s="31">
@@ -1591,7 +1597,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="10">
         <v>0</v>
@@ -1613,7 +1619,7 @@
       <c r="L18" s="21">
         <v>1520</v>
       </c>
-      <c r="M18" s="40" t="s">
+      <c r="M18" s="35" t="s">
         <v>31</v>
       </c>
       <c r="N18" s="31">
@@ -1632,7 +1638,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="10">
         <v>0</v>
@@ -1654,7 +1660,7 @@
       <c r="L19" s="22">
         <v>2046</v>
       </c>
-      <c r="M19" s="40" t="s">
+      <c r="M19" s="35" t="s">
         <v>32</v>
       </c>
       <c r="N19" s="31">
@@ -1673,7 +1679,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20" s="10">
         <v>0</v>
@@ -1695,7 +1701,7 @@
       <c r="L20" s="21">
         <v>2268</v>
       </c>
-      <c r="M20" s="40" t="s">
+      <c r="M20" s="35" t="s">
         <v>33</v>
       </c>
       <c r="N20" s="31">
@@ -1714,7 +1720,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E21" s="10">
         <v>0</v>
@@ -1736,7 +1742,7 @@
       <c r="L21" s="22">
         <v>2660</v>
       </c>
-      <c r="M21" s="40" t="s">
+      <c r="M21" s="35" t="s">
         <v>34</v>
       </c>
       <c r="N21" s="31">
@@ -1752,10 +1758,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22" s="10">
         <v>0</v>
@@ -1777,12 +1783,12 @@
       <c r="L22" s="21">
         <v>3562</v>
       </c>
-      <c r="M22" s="40" t="s">
+      <c r="M22" s="35" t="s">
         <v>35</v>
       </c>
       <c r="N22" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1818,12 +1824,12 @@
       <c r="L23" s="22">
         <v>4923</v>
       </c>
-      <c r="M23" s="40" t="s">
+      <c r="M23" s="35" t="s">
         <v>36</v>
       </c>
       <c r="N23" s="31">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1859,7 +1865,7 @@
       <c r="L24" s="21">
         <v>7340</v>
       </c>
-      <c r="M24" s="40" t="s">
+      <c r="M24" s="35" t="s">
         <v>37</v>
       </c>
       <c r="N24" s="31">
@@ -1900,7 +1906,7 @@
       <c r="L25" s="22">
         <v>8388</v>
       </c>
-      <c r="M25" s="40" t="s">
+      <c r="M25" s="35" t="s">
         <v>38</v>
       </c>
       <c r="N25" s="31">
@@ -1941,7 +1947,7 @@
       <c r="L26" s="21">
         <v>8582</v>
       </c>
-      <c r="M26" s="40" t="s">
+      <c r="M26" s="35" t="s">
         <v>39</v>
       </c>
       <c r="N26" s="31">
@@ -1982,7 +1988,7 @@
       <c r="L27" s="22">
         <v>8693</v>
       </c>
-      <c r="M27" s="40" t="s">
+      <c r="M27" s="35" t="s">
         <v>41</v>
       </c>
       <c r="N27" s="31">
@@ -2001,7 +2007,7 @@
         <v>47</v>
       </c>
       <c r="D28" s="6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E28" s="10">
         <v>0</v>
@@ -2023,7 +2029,7 @@
       <c r="L28" s="21">
         <v>8804</v>
       </c>
-      <c r="M28" s="40" t="s">
+      <c r="M28" s="35" t="s">
         <v>42</v>
       </c>
       <c r="N28" s="31">
@@ -2042,7 +2048,7 @@
         <v>59</v>
       </c>
       <c r="D29" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E29" s="10">
         <v>0</v>
@@ -2064,7 +2070,7 @@
       <c r="L29" s="21">
         <v>8280</v>
       </c>
-      <c r="M29" s="39" t="s">
+      <c r="M29" s="34" t="s">
         <v>43</v>
       </c>
       <c r="N29" s="31">
@@ -2083,7 +2089,7 @@
         <v>95</v>
       </c>
       <c r="D30" s="6">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E30" s="10">
         <v>0</v>
@@ -2105,7 +2111,7 @@
       <c r="L30" s="21">
         <v>8229</v>
       </c>
-      <c r="M30" s="39" t="s">
+      <c r="M30" s="34" t="s">
         <v>44</v>
       </c>
       <c r="N30" s="31">
@@ -2124,7 +2130,7 @@
         <v>123</v>
       </c>
       <c r="D31" s="6">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E31" s="10">
         <v>0</v>
@@ -2146,7 +2152,7 @@
       <c r="L31" s="21">
         <v>8484</v>
       </c>
-      <c r="M31" s="39" t="s">
+      <c r="M31" s="34" t="s">
         <v>45</v>
       </c>
       <c r="N31" s="31">
@@ -2187,7 +2193,7 @@
       <c r="L32" s="21">
         <v>9286</v>
       </c>
-      <c r="M32" s="39" t="s">
+      <c r="M32" s="34" t="s">
         <v>46</v>
       </c>
       <c r="N32" s="31">
@@ -2228,7 +2234,7 @@
       <c r="L33" s="21">
         <v>9892</v>
       </c>
-      <c r="M33" s="39" t="s">
+      <c r="M33" s="34" t="s">
         <v>47</v>
       </c>
       <c r="N33" s="31">
@@ -2269,7 +2275,7 @@
       <c r="L34" s="21">
         <v>13227</v>
       </c>
-      <c r="M34" s="39" t="s">
+      <c r="M34" s="34" t="s">
         <v>48</v>
       </c>
       <c r="N34" s="31">
@@ -2310,7 +2316,7 @@
       <c r="L35" s="21">
         <v>19383</v>
       </c>
-      <c r="M35" s="39" t="s">
+      <c r="M35" s="34" t="s">
         <v>49</v>
       </c>
       <c r="N35" s="31">
@@ -2351,7 +2357,7 @@
       <c r="L36" s="21">
         <v>25105</v>
       </c>
-      <c r="M36" s="39" t="s">
+      <c r="M36" s="34" t="s">
         <v>50</v>
       </c>
       <c r="N36" s="31">
@@ -2392,7 +2398,7 @@
       <c r="L37" s="21">
         <v>29260</v>
       </c>
-      <c r="M37" s="39" t="s">
+      <c r="M37" s="34" t="s">
         <v>51</v>
       </c>
       <c r="N37" s="31">
@@ -2433,7 +2439,7 @@
       <c r="L38" s="21">
         <v>37015</v>
       </c>
-      <c r="M38" s="39" t="s">
+      <c r="M38" s="34" t="s">
         <v>52</v>
       </c>
       <c r="N38" s="31">
@@ -2452,10 +2458,10 @@
         <v>433</v>
       </c>
       <c r="D39" s="6">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E39" s="10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F39" s="6">
         <v>64</v>
@@ -2474,7 +2480,7 @@
       <c r="L39" s="21">
         <v>57088</v>
       </c>
-      <c r="M39" s="39" t="s">
+      <c r="M39" s="34" t="s">
         <v>53</v>
       </c>
       <c r="N39" s="31">
@@ -2493,10 +2499,10 @@
         <v>576</v>
       </c>
       <c r="D40" s="6">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="E40" s="10">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F40" s="6">
         <v>73</v>
@@ -2515,7 +2521,7 @@
       <c r="L40" s="21">
         <v>56530</v>
       </c>
-      <c r="M40" s="39" t="s">
+      <c r="M40" s="34" t="s">
         <v>54</v>
       </c>
       <c r="N40" s="31">
@@ -2531,13 +2537,13 @@
         <v>39</v>
       </c>
       <c r="C41" s="10">
-        <v>794</v>
+        <v>762</v>
       </c>
       <c r="D41" s="6">
-        <v>703</v>
+        <v>664</v>
       </c>
       <c r="E41" s="10">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F41" s="6">
         <v>79</v>
@@ -2556,12 +2562,12 @@
       <c r="L41" s="21">
         <v>58364</v>
       </c>
-      <c r="M41" s="39" t="s">
+      <c r="M41" s="34" t="s">
         <v>55</v>
       </c>
       <c r="N41" s="31">
         <f t="shared" si="0"/>
-        <v>218</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -2575,10 +2581,10 @@
         <v>906</v>
       </c>
       <c r="D42" s="6">
-        <v>803</v>
+        <v>786</v>
       </c>
       <c r="E42" s="10">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F42" s="6">
         <v>84</v>
@@ -2597,12 +2603,12 @@
       <c r="L42" s="21">
         <v>52891</v>
       </c>
-      <c r="M42" s="39" t="s">
+      <c r="M42" s="34" t="s">
         <v>56</v>
       </c>
       <c r="N42" s="31">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -2616,10 +2622,10 @@
         <v>1029</v>
       </c>
       <c r="D43" s="6">
-        <v>912</v>
+        <v>883</v>
       </c>
       <c r="E43" s="10">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F43" s="6">
         <v>94</v>
@@ -2638,7 +2644,7 @@
       <c r="L43" s="21">
         <v>42040</v>
       </c>
-      <c r="M43" s="39" t="s">
+      <c r="M43" s="34" t="s">
         <v>57</v>
       </c>
       <c r="N43" s="31">
@@ -2657,10 +2663,10 @@
         <v>1292</v>
       </c>
       <c r="D44" s="6">
-        <v>1151</v>
+        <v>1118</v>
       </c>
       <c r="E44" s="10">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F44" s="6">
         <v>115</v>
@@ -2679,7 +2685,7 @@
       <c r="L44" s="21">
         <v>42759</v>
       </c>
-      <c r="M44" s="39" t="s">
+      <c r="M44" s="34" t="s">
         <v>58</v>
       </c>
       <c r="N44" s="31">
@@ -2698,10 +2704,10 @@
         <v>1452</v>
       </c>
       <c r="D45" s="6">
-        <v>1276</v>
+        <v>1242</v>
       </c>
       <c r="E45" s="10">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F45" s="6">
         <v>139</v>
@@ -2720,7 +2726,7 @@
       <c r="L45" s="21">
         <v>34959</v>
       </c>
-      <c r="M45" s="39" t="s">
+      <c r="M45" s="34" t="s">
         <v>59</v>
       </c>
       <c r="N45" s="31">
@@ -2736,13 +2742,13 @@
         <v>44</v>
       </c>
       <c r="C46" s="10">
-        <v>1815</v>
+        <v>1760</v>
       </c>
       <c r="D46" s="6">
-        <v>1566</v>
+        <v>1507</v>
       </c>
       <c r="E46" s="10">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="F46" s="6">
         <v>169</v>
@@ -2761,12 +2767,12 @@
       <c r="L46" s="21">
         <v>24515</v>
       </c>
-      <c r="M46" s="39" t="s">
+      <c r="M46" s="34" t="s">
         <v>60</v>
       </c>
       <c r="N46" s="31">
         <f t="shared" si="0"/>
-        <v>363</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -2777,13 +2783,13 @@
         <v>45</v>
       </c>
       <c r="C47" s="10">
-        <v>2109</v>
+        <v>1952</v>
       </c>
       <c r="D47" s="6">
-        <v>1835</v>
+        <v>1670</v>
       </c>
       <c r="E47" s="10">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="F47" s="6">
         <v>180</v>
@@ -2802,12 +2808,12 @@
       <c r="L47" s="21">
         <v>24620</v>
       </c>
-      <c r="M47" s="39" t="s">
+      <c r="M47" s="34" t="s">
         <v>61</v>
       </c>
       <c r="N47" s="31">
         <f t="shared" si="0"/>
-        <v>294</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -2821,10 +2827,10 @@
         <v>2245</v>
       </c>
       <c r="D48" s="6">
-        <v>1943</v>
+        <v>1901</v>
       </c>
       <c r="E48" s="10">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="F48" s="6">
         <v>220</v>
@@ -2843,12 +2849,12 @@
       <c r="L48" s="21">
         <v>30855</v>
       </c>
-      <c r="M48" s="39" t="s">
+      <c r="M48" s="34" t="s">
         <v>62</v>
       </c>
       <c r="N48" s="31">
         <f t="shared" si="0"/>
-        <v>136</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -2862,10 +2868,10 @@
         <v>2460</v>
       </c>
       <c r="D49" s="6">
-        <v>2116</v>
+        <v>2070</v>
       </c>
       <c r="E49" s="10">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="F49" s="6">
         <v>252</v>
@@ -2884,7 +2890,7 @@
       <c r="L49" s="21">
         <v>22360</v>
       </c>
-      <c r="M49" s="39" t="s">
+      <c r="M49" s="34" t="s">
         <v>63</v>
       </c>
       <c r="N49" s="31">
@@ -2903,10 +2909,10 @@
         <v>2738</v>
       </c>
       <c r="D50" s="6">
-        <v>2356</v>
+        <v>2316</v>
       </c>
       <c r="E50" s="10">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="F50" s="6">
         <v>267</v>
@@ -2925,7 +2931,7 @@
       <c r="L50" s="21">
         <v>17366</v>
       </c>
-      <c r="M50" s="39" t="s">
+      <c r="M50" s="34" t="s">
         <v>64</v>
       </c>
       <c r="N50" s="31">
@@ -2944,10 +2950,10 @@
         <v>3183</v>
       </c>
       <c r="D51" s="6">
-        <v>2767</v>
+        <v>2728</v>
       </c>
       <c r="E51" s="10">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="F51" s="6">
         <v>283</v>
@@ -2966,7 +2972,7 @@
       <c r="L51" s="21">
         <v>17733</v>
       </c>
-      <c r="M51" s="39" t="s">
+      <c r="M51" s="34" t="s">
         <v>65</v>
       </c>
       <c r="N51" s="31">
@@ -2985,10 +2991,10 @@
         <v>3613</v>
       </c>
       <c r="D52" s="6">
-        <v>3138</v>
+        <v>3103</v>
       </c>
       <c r="E52" s="10">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F52" s="6">
         <v>329</v>
@@ -3007,7 +3013,7 @@
       <c r="L52" s="21">
         <v>16575</v>
       </c>
-      <c r="M52" s="39" t="s">
+      <c r="M52" s="34" t="s">
         <v>66</v>
       </c>
       <c r="N52" s="31">
@@ -3026,10 +3032,10 @@
         <v>3864</v>
       </c>
       <c r="D53" s="6">
-        <v>3339</v>
+        <v>3288</v>
       </c>
       <c r="E53" s="10">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="F53" s="6">
         <v>374</v>
@@ -3048,7 +3054,7 @@
       <c r="L53" s="21">
         <v>16645</v>
       </c>
-      <c r="M53" s="39" t="s">
+      <c r="M53" s="34" t="s">
         <v>67</v>
       </c>
       <c r="N53" s="31">
@@ -3067,10 +3073,10 @@
         <v>4057</v>
       </c>
       <c r="D54" s="6">
-        <v>3475</v>
+        <v>3423</v>
       </c>
       <c r="E54" s="10">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="F54" s="6">
         <v>406</v>
@@ -3089,7 +3095,7 @@
       <c r="L54" s="21">
         <v>17732</v>
       </c>
-      <c r="M54" s="39" t="s">
+      <c r="M54" s="34" t="s">
         <v>68</v>
       </c>
       <c r="N54" s="31">
@@ -3108,10 +3114,10 @@
         <v>4417</v>
       </c>
       <c r="D55" s="6">
-        <v>3760</v>
+        <v>3706</v>
       </c>
       <c r="E55" s="10">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="F55" s="6">
         <v>460</v>
@@ -3130,7 +3136,7 @@
       <c r="L55" s="21">
         <v>22299</v>
       </c>
-      <c r="M55" s="39" t="s">
+      <c r="M55" s="34" t="s">
         <v>69</v>
       </c>
       <c r="N55" s="31">
@@ -3149,10 +3155,10 @@
         <v>4761</v>
       </c>
       <c r="D56" s="6">
-        <v>4013</v>
+        <v>3966</v>
       </c>
       <c r="E56" s="10">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="F56" s="6">
         <v>528</v>
@@ -3171,7 +3177,7 @@
       <c r="L56" s="21">
         <v>26289</v>
       </c>
-      <c r="M56" s="39" t="s">
+      <c r="M56" s="34" t="s">
         <v>70</v>
       </c>
       <c r="N56" s="31">
@@ -3190,10 +3196,10 @@
         <v>5202</v>
       </c>
       <c r="D57" s="6">
-        <v>4307</v>
+        <v>4260</v>
       </c>
       <c r="E57" s="10">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="F57" s="6">
         <v>647</v>
@@ -3212,7 +3218,7 @@
       <c r="L57" s="21">
         <v>31426</v>
       </c>
-      <c r="M57" s="39" t="s">
+      <c r="M57" s="34" t="s">
         <v>71</v>
       </c>
       <c r="N57" s="31">
@@ -3231,10 +3237,10 @@
         <v>5467</v>
       </c>
       <c r="D58" s="6">
-        <v>4468</v>
+        <v>4411</v>
       </c>
       <c r="E58" s="10">
-        <v>270</v>
+        <v>327</v>
       </c>
       <c r="F58" s="6">
         <v>729</v>
@@ -3253,7 +3259,7 @@
       <c r="L58" s="21">
         <v>37406</v>
       </c>
-      <c r="M58" s="39" t="s">
+      <c r="M58" s="34" t="s">
         <v>72</v>
       </c>
       <c r="N58" s="31">
@@ -3272,10 +3278,10 @@
         <v>5990</v>
       </c>
       <c r="D59" s="6">
-        <v>4941</v>
+        <v>4891</v>
       </c>
       <c r="E59" s="10">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="F59" s="6">
         <v>758</v>
@@ -3294,7 +3300,7 @@
       <c r="L59" s="21">
         <v>39503</v>
       </c>
-      <c r="M59" s="39" t="s">
+      <c r="M59" s="34" t="s">
         <v>73</v>
       </c>
       <c r="N59" s="31">
@@ -3313,10 +3319,10 @@
         <v>6300</v>
       </c>
       <c r="D60" s="6">
-        <v>5132</v>
+        <v>5093</v>
       </c>
       <c r="E60" s="10">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="F60" s="6">
         <v>852</v>
@@ -3335,7 +3341,7 @@
       <c r="L60" s="21">
         <v>37757</v>
       </c>
-      <c r="M60" s="39" t="s">
+      <c r="M60" s="34" t="s">
         <v>74</v>
       </c>
       <c r="N60" s="31">
@@ -3354,10 +3360,10 @@
         <v>6633</v>
       </c>
       <c r="D61" s="6">
-        <v>5388</v>
+        <v>5345</v>
       </c>
       <c r="E61" s="10">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="F61" s="6">
         <v>914</v>
@@ -3376,7 +3382,7 @@
       <c r="L61" s="21">
         <v>31792</v>
       </c>
-      <c r="M61" s="39" t="s">
+      <c r="M61" s="34" t="s">
         <v>75</v>
       </c>
       <c r="N61" s="31">
@@ -3395,10 +3401,10 @@
         <v>6879</v>
       </c>
       <c r="D62" s="6">
-        <v>5477</v>
+        <v>5431</v>
       </c>
       <c r="E62" s="10">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="F62" s="6">
         <v>1051</v>
@@ -3417,7 +3423,7 @@
       <c r="L62" s="21">
         <v>23137</v>
       </c>
-      <c r="M62" s="39" t="s">
+      <c r="M62" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N62" s="31">
@@ -3436,10 +3442,10 @@
         <v>7216</v>
       </c>
       <c r="D63" s="6">
-        <v>5627</v>
+        <v>5580</v>
       </c>
       <c r="E63" s="10">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="F63" s="6">
         <v>1217</v>
@@ -3458,7 +3464,7 @@
       <c r="L63" s="21">
         <v>16960</v>
       </c>
-      <c r="M63" s="39" t="s">
+      <c r="M63" s="34" t="s">
         <v>77</v>
       </c>
       <c r="N63" s="31">
@@ -3477,10 +3483,10 @@
         <v>7707</v>
       </c>
       <c r="D64" s="6">
-        <v>5958</v>
+        <v>5916</v>
       </c>
       <c r="E64" s="10">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="F64" s="6">
         <v>1357</v>
@@ -3499,7 +3505,7 @@
       <c r="L64" s="21">
         <v>11391</v>
       </c>
-      <c r="M64" s="39" t="s">
+      <c r="M64" s="34" t="s">
         <v>78</v>
       </c>
       <c r="N64" s="31">
@@ -3518,10 +3524,10 @@
         <v>8067</v>
       </c>
       <c r="D65" s="6">
-        <v>6148</v>
+        <v>6103</v>
       </c>
       <c r="E65" s="10">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="F65" s="6">
         <v>1508</v>
@@ -3537,8 +3543,12 @@
       </c>
       <c r="J65" s="15"/>
       <c r="K65" s="11"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="39"/>
+      <c r="L65" s="21">
+        <v>8456</v>
+      </c>
+      <c r="M65" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="N65" s="31">
         <f t="shared" si="0"/>
         <v>360</v>
@@ -3555,10 +3565,10 @@
         <v>8418</v>
       </c>
       <c r="D66" s="6">
-        <v>6267</v>
+        <v>6208</v>
       </c>
       <c r="E66" s="10">
-        <v>421</v>
+        <v>480</v>
       </c>
       <c r="F66" s="6">
         <v>1730</v>
@@ -3574,8 +3584,12 @@
       </c>
       <c r="J66" s="15"/>
       <c r="K66" s="11"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="39"/>
+      <c r="L66" s="21">
+        <v>5788</v>
+      </c>
+      <c r="M66" s="34" t="s">
+        <v>82</v>
+      </c>
       <c r="N66" s="31">
         <f t="shared" si="0"/>
         <v>351</v>
@@ -3592,10 +3606,10 @@
         <v>8746</v>
       </c>
       <c r="D67" s="6">
-        <v>6403</v>
+        <v>6354</v>
       </c>
       <c r="E67" s="10">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="F67" s="6">
         <v>1892</v>
@@ -3611,8 +3625,12 @@
       </c>
       <c r="J67" s="15"/>
       <c r="K67" s="11"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="39"/>
+      <c r="L67" s="21">
+        <v>3644</v>
+      </c>
+      <c r="M67" s="34" t="s">
+        <v>83</v>
+      </c>
       <c r="N67" s="31">
         <f t="shared" si="0"/>
         <v>328</v>
@@ -3629,10 +3647,10 @@
         <v>8936</v>
       </c>
       <c r="D68" s="6">
-        <v>6441</v>
+        <v>6387</v>
       </c>
       <c r="E68" s="10">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="F68" s="6">
         <v>2017</v>
@@ -3648,8 +3666,12 @@
       </c>
       <c r="J68" s="15"/>
       <c r="K68" s="11"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="39"/>
+      <c r="L68" s="21">
+        <v>2041</v>
+      </c>
+      <c r="M68" s="34" t="s">
+        <v>84</v>
+      </c>
       <c r="N68" s="31">
         <f t="shared" si="0"/>
         <v>190</v>
@@ -3666,10 +3688,10 @@
         <v>9242</v>
       </c>
       <c r="D69" s="6">
-        <v>6591</v>
+        <v>6537</v>
       </c>
       <c r="E69" s="10">
-        <v>498</v>
+        <v>552</v>
       </c>
       <c r="F69" s="6">
         <v>2153</v>
@@ -3686,7 +3708,7 @@
       <c r="J69" s="15"/>
       <c r="K69" s="11"/>
       <c r="L69" s="21"/>
-      <c r="M69" s="39"/>
+      <c r="M69" s="34"/>
       <c r="N69" s="31">
         <f t="shared" si="0"/>
         <v>306</v>
@@ -3703,10 +3725,10 @@
         <v>9710</v>
       </c>
       <c r="D70" s="6">
-        <v>6780</v>
+        <v>6732</v>
       </c>
       <c r="E70" s="10">
-        <v>524</v>
+        <v>572</v>
       </c>
       <c r="F70" s="6">
         <v>2406</v>
@@ -3723,7 +3745,7 @@
       <c r="J70" s="15"/>
       <c r="K70" s="11"/>
       <c r="L70" s="21"/>
-      <c r="M70" s="39"/>
+      <c r="M70" s="34"/>
       <c r="N70" s="31">
         <f t="shared" si="0"/>
         <v>468</v>
@@ -3740,10 +3762,10 @@
         <v>10096</v>
       </c>
       <c r="D71" s="6">
-        <v>7073</v>
+        <v>7019</v>
       </c>
       <c r="E71" s="10">
-        <v>545</v>
+        <v>599</v>
       </c>
       <c r="F71" s="6">
         <v>2478</v>
@@ -3760,7 +3782,7 @@
       <c r="J71" s="15"/>
       <c r="K71" s="11"/>
       <c r="L71" s="21"/>
-      <c r="M71" s="39"/>
+      <c r="M71" s="34"/>
       <c r="N71" s="31">
         <f t="shared" ref="N71:N134" si="1">SUM(C71-C70)</f>
         <v>386</v>
@@ -3777,10 +3799,10 @@
         <v>10417</v>
       </c>
       <c r="D72" s="6">
-        <v>7033</v>
+        <v>6978</v>
       </c>
       <c r="E72" s="10">
-        <v>567</v>
+        <v>622</v>
       </c>
       <c r="F72" s="6">
         <v>2817</v>
@@ -3797,7 +3819,7 @@
       <c r="J72" s="15"/>
       <c r="K72" s="11"/>
       <c r="L72" s="21"/>
-      <c r="M72" s="39"/>
+      <c r="M72" s="34"/>
       <c r="N72" s="31">
         <f t="shared" si="1"/>
         <v>321</v>
@@ -3814,10 +3836,10 @@
         <v>10635</v>
       </c>
       <c r="D73" s="6">
-        <v>7144</v>
+        <v>7093</v>
       </c>
       <c r="E73" s="10">
-        <v>601</v>
+        <v>652</v>
       </c>
       <c r="F73" s="6">
         <v>2890</v>
@@ -3834,7 +3856,7 @@
       <c r="J73" s="15"/>
       <c r="K73" s="11"/>
       <c r="L73" s="21"/>
-      <c r="M73" s="39"/>
+      <c r="M73" s="34"/>
       <c r="N73" s="31">
         <f t="shared" si="1"/>
         <v>218</v>
@@ -3851,10 +3873,10 @@
         <v>11036</v>
       </c>
       <c r="D74" s="6">
-        <v>7363</v>
+        <v>7312</v>
       </c>
       <c r="E74" s="10">
-        <v>619</v>
+        <v>670</v>
       </c>
       <c r="F74" s="6">
         <v>3054</v>
@@ -3871,7 +3893,7 @@
       <c r="J74" s="15"/>
       <c r="K74" s="11"/>
       <c r="L74" s="21"/>
-      <c r="M74" s="39"/>
+      <c r="M74" s="34"/>
       <c r="N74" s="31">
         <f t="shared" si="1"/>
         <v>401</v>
@@ -3888,10 +3910,10 @@
         <v>11339</v>
       </c>
       <c r="D75" s="6">
-        <v>7557</v>
+        <v>7506</v>
       </c>
       <c r="E75" s="10">
-        <v>641</v>
+        <v>692</v>
       </c>
       <c r="F75" s="6">
         <v>3141</v>
@@ -3908,7 +3930,7 @@
       <c r="J75" s="15"/>
       <c r="K75" s="11"/>
       <c r="L75" s="21"/>
-      <c r="M75" s="39"/>
+      <c r="M75" s="34"/>
       <c r="N75" s="31">
         <f t="shared" si="1"/>
         <v>303</v>
@@ -3925,10 +3947,10 @@
         <v>11616</v>
       </c>
       <c r="D76" s="6">
-        <v>7549</v>
+        <v>7496</v>
       </c>
       <c r="E76" s="10">
-        <v>663</v>
+        <v>716</v>
       </c>
       <c r="F76" s="6">
         <v>3404</v>
@@ -3945,7 +3967,7 @@
       <c r="J76" s="15"/>
       <c r="K76" s="11"/>
       <c r="L76" s="21"/>
-      <c r="M76" s="39"/>
+      <c r="M76" s="34"/>
       <c r="N76" s="31">
         <f t="shared" si="1"/>
         <v>277</v>
@@ -3962,10 +3984,10 @@
         <v>11978</v>
       </c>
       <c r="D77" s="6">
-        <v>7716</v>
+        <v>7672</v>
       </c>
       <c r="E77" s="10">
-        <v>693</v>
+        <v>737</v>
       </c>
       <c r="F77" s="6">
         <v>3569</v>
@@ -3982,7 +4004,7 @@
       <c r="J77" s="15"/>
       <c r="K77" s="11"/>
       <c r="L77" s="21"/>
-      <c r="M77" s="39"/>
+      <c r="M77" s="34"/>
       <c r="N77" s="31">
         <f t="shared" si="1"/>
         <v>362</v>
@@ -3999,10 +4021,10 @@
         <v>12240</v>
       </c>
       <c r="D78" s="6">
-        <v>7506</v>
+        <v>7463</v>
       </c>
       <c r="E78" s="10">
-        <v>717</v>
+        <v>760</v>
       </c>
       <c r="F78" s="6">
         <v>4017</v>
@@ -4019,7 +4041,7 @@
       <c r="J78" s="15"/>
       <c r="K78" s="11"/>
       <c r="L78" s="21"/>
-      <c r="M78" s="39"/>
+      <c r="M78" s="34"/>
       <c r="N78" s="31">
         <f t="shared" si="1"/>
         <v>262</v>
@@ -4036,10 +4058,10 @@
         <v>12567</v>
       </c>
       <c r="D79" s="6">
-        <v>7495</v>
+        <v>7453</v>
       </c>
       <c r="E79" s="10">
-        <v>744</v>
+        <v>786</v>
       </c>
       <c r="F79" s="6">
         <v>4328</v>
@@ -4056,7 +4078,7 @@
       <c r="J79" s="15"/>
       <c r="K79" s="11"/>
       <c r="L79" s="21"/>
-      <c r="M79" s="39"/>
+      <c r="M79" s="34"/>
       <c r="N79" s="31">
         <f t="shared" si="1"/>
         <v>327</v>
@@ -4073,10 +4095,10 @@
         <v>12732</v>
       </c>
       <c r="D80" s="6">
-        <v>7414</v>
+        <v>7373</v>
       </c>
       <c r="E80" s="10">
-        <v>771</v>
+        <v>812</v>
       </c>
       <c r="F80" s="6">
         <v>4547</v>
@@ -4093,7 +4115,7 @@
       <c r="J80" s="15"/>
       <c r="K80" s="11"/>
       <c r="L80" s="21"/>
-      <c r="M80" s="39"/>
+      <c r="M80" s="34"/>
       <c r="N80" s="31">
         <f t="shared" si="1"/>
         <v>165</v>
@@ -4110,10 +4132,10 @@
         <v>13163</v>
       </c>
       <c r="D81" s="6">
-        <v>7504</v>
+        <v>7453</v>
       </c>
       <c r="E81" s="10">
-        <v>790</v>
+        <v>841</v>
       </c>
       <c r="F81" s="6">
         <v>4869</v>
@@ -4130,7 +4152,7 @@
       <c r="J81" s="15"/>
       <c r="K81" s="11"/>
       <c r="L81" s="21"/>
-      <c r="M81" s="39"/>
+      <c r="M81" s="34"/>
       <c r="N81" s="31">
         <f t="shared" si="1"/>
         <v>431</v>
@@ -4147,10 +4169,10 @@
         <v>13512</v>
       </c>
       <c r="D82" s="6">
-        <v>7425</v>
+        <v>7387</v>
       </c>
       <c r="E82" s="10">
-        <v>818</v>
+        <v>856</v>
       </c>
       <c r="F82" s="6">
         <v>5269</v>
@@ -4167,7 +4189,7 @@
       <c r="J82" s="15"/>
       <c r="K82" s="11"/>
       <c r="L82" s="21"/>
-      <c r="M82" s="39"/>
+      <c r="M82" s="34"/>
       <c r="N82" s="31">
         <f t="shared" si="1"/>
         <v>349</v>
@@ -4184,10 +4206,10 @@
         <v>13837</v>
       </c>
       <c r="D83" s="6">
-        <v>7542</v>
+        <v>7502</v>
       </c>
       <c r="E83" s="10">
-        <v>841</v>
+        <v>881</v>
       </c>
       <c r="F83" s="6">
         <v>5454</v>
@@ -4204,7 +4226,7 @@
       <c r="J83" s="15"/>
       <c r="K83" s="11"/>
       <c r="L83" s="21"/>
-      <c r="M83" s="39"/>
+      <c r="M83" s="34"/>
       <c r="N83" s="31">
         <f t="shared" si="1"/>
         <v>325</v>
@@ -4221,10 +4243,10 @@
         <v>14107</v>
       </c>
       <c r="D84" s="6">
-        <v>7455</v>
+        <v>7423</v>
       </c>
       <c r="E84" s="10">
-        <v>864</v>
+        <v>896</v>
       </c>
       <c r="F84" s="6">
         <v>5788</v>
@@ -4241,7 +4263,7 @@
       <c r="J84" s="15"/>
       <c r="K84" s="11"/>
       <c r="L84" s="21"/>
-      <c r="M84" s="39"/>
+      <c r="M84" s="34"/>
       <c r="N84" s="31">
         <f t="shared" si="1"/>
         <v>270</v>
@@ -4258,10 +4280,10 @@
         <v>14499</v>
       </c>
       <c r="D85" s="6">
-        <v>7467</v>
+        <v>7435</v>
       </c>
       <c r="E85" s="10">
-        <v>888</v>
+        <v>920</v>
       </c>
       <c r="F85" s="6">
         <v>6144</v>
@@ -4278,7 +4300,7 @@
       <c r="J85" s="15"/>
       <c r="K85" s="11"/>
       <c r="L85" s="21"/>
-      <c r="M85" s="39"/>
+      <c r="M85" s="34"/>
       <c r="N85" s="31">
         <f t="shared" si="1"/>
         <v>392</v>
@@ -4295,10 +4317,10 @@
         <v>14811</v>
       </c>
       <c r="D86" s="6">
-        <v>7465</v>
+        <v>7456</v>
       </c>
       <c r="E86" s="10">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="F86" s="6">
         <v>6423</v>
@@ -4315,7 +4337,7 @@
       <c r="J86" s="15"/>
       <c r="K86" s="11"/>
       <c r="L86" s="21"/>
-      <c r="M86" s="39"/>
+      <c r="M86" s="34"/>
       <c r="N86" s="31">
         <f t="shared" si="1"/>
         <v>312</v>
@@ -4332,10 +4354,10 @@
         <v>15131</v>
       </c>
       <c r="D87" s="6">
-        <v>7280</v>
+        <v>7255</v>
       </c>
       <c r="E87" s="10">
-        <v>939</v>
+        <v>964</v>
       </c>
       <c r="F87" s="6">
         <v>6912</v>
@@ -4352,7 +4374,7 @@
       <c r="J87" s="15"/>
       <c r="K87" s="11"/>
       <c r="L87" s="21"/>
-      <c r="M87" s="39"/>
+      <c r="M87" s="34"/>
       <c r="N87" s="31">
         <f t="shared" si="1"/>
         <v>320</v>
@@ -4369,10 +4391,10 @@
         <v>15362</v>
       </c>
       <c r="D88" s="6">
-        <v>7350</v>
+        <v>7325</v>
       </c>
       <c r="E88" s="10">
-        <v>961</v>
+        <v>986</v>
       </c>
       <c r="F88" s="6">
         <v>7051</v>
@@ -4389,7 +4411,7 @@
       <c r="J88" s="15"/>
       <c r="K88" s="11"/>
       <c r="L88" s="21"/>
-      <c r="M88" s="39"/>
+      <c r="M88" s="34"/>
       <c r="N88" s="31">
         <f t="shared" si="1"/>
         <v>231</v>
@@ -4406,10 +4428,10 @@
         <v>15588</v>
       </c>
       <c r="D89" s="6">
-        <v>7361</v>
+        <v>7338</v>
       </c>
       <c r="E89" s="10">
-        <v>982</v>
+        <v>1005</v>
       </c>
       <c r="F89" s="6">
         <v>7245</v>
@@ -4426,7 +4448,7 @@
       <c r="J89" s="15"/>
       <c r="K89" s="11"/>
       <c r="L89" s="21"/>
-      <c r="M89" s="39"/>
+      <c r="M89" s="34"/>
       <c r="N89" s="31">
         <f t="shared" si="1"/>
         <v>226</v>
@@ -4443,10 +4465,10 @@
         <v>15778</v>
       </c>
       <c r="D90" s="6">
-        <v>7091</v>
+        <v>7063</v>
       </c>
       <c r="E90" s="10">
-        <v>1002</v>
+        <v>1030</v>
       </c>
       <c r="F90" s="6">
         <v>7685</v>
@@ -4463,7 +4485,7 @@
       <c r="J90" s="15"/>
       <c r="K90" s="11"/>
       <c r="L90" s="21"/>
-      <c r="M90" s="39"/>
+      <c r="M90" s="34"/>
       <c r="N90" s="31">
         <f t="shared" si="1"/>
         <v>190</v>
@@ -4480,10 +4502,10 @@
         <v>16002</v>
       </c>
       <c r="D91" s="6">
-        <v>7005</v>
+        <v>6990</v>
       </c>
       <c r="E91" s="10">
-        <v>1036</v>
+        <v>1051</v>
       </c>
       <c r="F91" s="6">
         <v>7961</v>
@@ -4500,7 +4522,7 @@
       <c r="J91" s="15"/>
       <c r="K91" s="11"/>
       <c r="L91" s="21"/>
-      <c r="M91" s="39"/>
+      <c r="M91" s="34"/>
       <c r="N91" s="31">
         <f t="shared" si="1"/>
         <v>224</v>
@@ -4517,10 +4539,10 @@
         <v>16247</v>
       </c>
       <c r="D92" s="6">
-        <v>6141</v>
+        <v>6126</v>
       </c>
       <c r="E92" s="10">
-        <v>1053</v>
+        <v>1068</v>
       </c>
       <c r="F92" s="6">
         <v>9053</v>
@@ -4537,7 +4559,7 @@
       <c r="J92" s="15"/>
       <c r="K92" s="11"/>
       <c r="L92" s="21"/>
-      <c r="M92" s="39"/>
+      <c r="M92" s="34"/>
       <c r="N92" s="31">
         <f t="shared" si="1"/>
         <v>245</v>
@@ -4554,10 +4576,10 @@
         <v>16437</v>
       </c>
       <c r="D93" s="6">
-        <v>5997</v>
+        <v>5977</v>
       </c>
       <c r="E93" s="10">
-        <v>1070</v>
+        <v>1090</v>
       </c>
       <c r="F93" s="6">
         <v>9370</v>
@@ -4574,7 +4596,7 @@
       <c r="J93" s="15"/>
       <c r="K93" s="11"/>
       <c r="L93" s="21"/>
-      <c r="M93" s="39"/>
+      <c r="M93" s="34"/>
       <c r="N93" s="31">
         <f t="shared" si="1"/>
         <v>190</v>
@@ -4591,10 +4613,10 @@
         <v>16704</v>
       </c>
       <c r="D94" s="6">
-        <v>6036</v>
+        <v>6020</v>
       </c>
       <c r="E94" s="10">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="F94" s="6">
         <v>9574</v>
@@ -4611,7 +4633,7 @@
       <c r="J94" s="15"/>
       <c r="K94" s="11"/>
       <c r="L94" s="21"/>
-      <c r="M94" s="39"/>
+      <c r="M94" s="34"/>
       <c r="N94" s="31">
         <f t="shared" si="1"/>
         <v>267</v>
@@ -4628,10 +4650,10 @@
         <v>16871</v>
       </c>
       <c r="D95" s="6">
-        <v>5874</v>
+        <v>5856</v>
       </c>
       <c r="E95" s="10">
-        <v>1107</v>
+        <v>1125</v>
       </c>
       <c r="F95" s="6">
         <v>9890</v>
@@ -4648,7 +4670,7 @@
       <c r="J95" s="15"/>
       <c r="K95" s="11"/>
       <c r="L95" s="21"/>
-      <c r="M95" s="39"/>
+      <c r="M95" s="34"/>
       <c r="N95" s="31">
         <f t="shared" si="1"/>
         <v>167</v>
@@ -4665,10 +4687,10 @@
         <v>17036</v>
       </c>
       <c r="D96" s="6">
-        <v>5986</v>
+        <v>5969</v>
       </c>
       <c r="E96" s="10">
-        <v>1120</v>
+        <v>1137</v>
       </c>
       <c r="F96" s="6">
         <v>9930</v>
@@ -4685,7 +4707,7 @@
       <c r="J96" s="15"/>
       <c r="K96" s="11"/>
       <c r="L96" s="21"/>
-      <c r="M96" s="39"/>
+      <c r="M96" s="34"/>
       <c r="N96" s="31">
         <f t="shared" si="1"/>
         <v>165</v>
@@ -4702,10 +4724,10 @@
         <v>17191</v>
       </c>
       <c r="D97" s="6">
-        <v>5888</v>
+        <v>5877</v>
       </c>
       <c r="E97" s="10">
-        <v>1137</v>
+        <v>1148</v>
       </c>
       <c r="F97" s="6">
         <v>10166</v>
@@ -4722,7 +4744,7 @@
       <c r="J97" s="15"/>
       <c r="K97" s="11"/>
       <c r="L97" s="21"/>
-      <c r="M97" s="39"/>
+      <c r="M97" s="34"/>
       <c r="N97" s="31">
         <f t="shared" si="1"/>
         <v>155</v>
@@ -4739,10 +4761,10 @@
         <v>17387</v>
       </c>
       <c r="D98" s="6">
-        <v>5884</v>
+        <v>5874</v>
       </c>
       <c r="E98" s="10">
-        <v>1147</v>
+        <v>1157</v>
       </c>
       <c r="F98" s="6">
         <v>10356</v>
@@ -4759,7 +4781,7 @@
       <c r="J98" s="15"/>
       <c r="K98" s="11"/>
       <c r="L98" s="21"/>
-      <c r="M98" s="39"/>
+      <c r="M98" s="34"/>
       <c r="N98" s="31">
         <f t="shared" si="1"/>
         <v>196</v>
@@ -4776,10 +4798,10 @@
         <v>17585</v>
       </c>
       <c r="D99" s="6">
-        <v>5848</v>
+        <v>5838</v>
       </c>
       <c r="E99" s="10">
-        <v>1156</v>
+        <v>1166</v>
       </c>
       <c r="F99" s="6">
         <v>10581</v>
@@ -4796,7 +4818,7 @@
       <c r="J99" s="15"/>
       <c r="K99" s="11"/>
       <c r="L99" s="21"/>
-      <c r="M99" s="39"/>
+      <c r="M99" s="34"/>
       <c r="N99" s="31">
         <f t="shared" si="1"/>
         <v>198</v>
@@ -4813,10 +4835,10 @@
         <v>17712</v>
       </c>
       <c r="D100" s="6">
-        <v>5769</v>
+        <v>5758</v>
       </c>
       <c r="E100" s="10">
-        <v>1166</v>
+        <v>1177</v>
       </c>
       <c r="F100" s="6">
         <v>10777</v>
@@ -4833,7 +4855,7 @@
       <c r="J100" s="15"/>
       <c r="K100" s="11"/>
       <c r="L100" s="21"/>
-      <c r="M100" s="39"/>
+      <c r="M100" s="34"/>
       <c r="N100" s="31">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -4850,10 +4872,10 @@
         <v>17857</v>
       </c>
       <c r="D101" s="6">
-        <v>5494</v>
+        <v>5478</v>
       </c>
       <c r="E101" s="10">
-        <v>1176</v>
+        <v>1192</v>
       </c>
       <c r="F101" s="6">
         <v>11187</v>
@@ -4870,7 +4892,7 @@
       <c r="J101" s="15"/>
       <c r="K101" s="11"/>
       <c r="L101" s="21"/>
-      <c r="M101" s="39"/>
+      <c r="M101" s="34"/>
       <c r="N101" s="31">
         <f t="shared" si="1"/>
         <v>145</v>
@@ -4887,10 +4909,10 @@
         <v>18070</v>
       </c>
       <c r="D102" s="6">
-        <v>5486</v>
+        <v>5466</v>
       </c>
       <c r="E102" s="10">
-        <v>1185</v>
+        <v>1205</v>
       </c>
       <c r="F102" s="6">
         <v>11399</v>
@@ -4907,7 +4929,7 @@
       <c r="J102" s="15"/>
       <c r="K102" s="11"/>
       <c r="L102" s="21"/>
-      <c r="M102" s="39"/>
+      <c r="M102" s="34"/>
       <c r="N102" s="31">
         <f t="shared" si="1"/>
         <v>213</v>
@@ -4924,10 +4946,10 @@
         <v>18283</v>
       </c>
       <c r="D103" s="6">
-        <v>5448</v>
+        <v>5434</v>
       </c>
       <c r="E103" s="10">
-        <v>1205</v>
+        <v>1219</v>
       </c>
       <c r="F103" s="6">
         <v>11630</v>
@@ -4944,7 +4966,7 @@
       <c r="J103" s="15"/>
       <c r="K103" s="11"/>
       <c r="L103" s="21"/>
-      <c r="M103" s="39"/>
+      <c r="M103" s="34"/>
       <c r="N103" s="31">
         <f t="shared" si="1"/>
         <v>213</v>
@@ -4961,10 +4983,10 @@
         <v>18429</v>
       </c>
       <c r="D104" s="6">
-        <v>5339</v>
+        <v>5326</v>
       </c>
       <c r="E104" s="10">
-        <v>1216</v>
+        <v>1229</v>
       </c>
       <c r="F104" s="6">
         <v>11874</v>
@@ -4981,7 +5003,7 @@
       <c r="J104" s="15"/>
       <c r="K104" s="11"/>
       <c r="L104" s="21"/>
-      <c r="M104" s="39"/>
+      <c r="M104" s="34"/>
       <c r="N104" s="31">
         <f t="shared" si="1"/>
         <v>146</v>
@@ -4998,10 +5020,10 @@
         <v>18594</v>
       </c>
       <c r="D105" s="6">
-        <v>5205</v>
+        <v>5194</v>
       </c>
       <c r="E105" s="10">
-        <v>1227</v>
+        <v>1238</v>
       </c>
       <c r="F105" s="6">
         <v>12162</v>
@@ -5018,7 +5040,7 @@
       <c r="J105" s="15"/>
       <c r="K105" s="11"/>
       <c r="L105" s="21"/>
-      <c r="M105" s="39"/>
+      <c r="M105" s="34"/>
       <c r="N105" s="31">
         <f t="shared" si="1"/>
         <v>165</v>
@@ -5035,10 +5057,10 @@
         <v>18791</v>
       </c>
       <c r="D106" s="6">
-        <v>4927</v>
+        <v>4915</v>
       </c>
       <c r="E106" s="10">
-        <v>1235</v>
+        <v>1247</v>
       </c>
       <c r="F106" s="6">
         <v>12629</v>
@@ -5055,7 +5077,7 @@
       <c r="J106" s="15"/>
       <c r="K106" s="11"/>
       <c r="L106" s="21"/>
-      <c r="M106" s="39"/>
+      <c r="M106" s="34"/>
       <c r="N106" s="31">
         <f t="shared" si="1"/>
         <v>197</v>
@@ -5072,10 +5094,10 @@
         <v>18982</v>
       </c>
       <c r="D107" s="6">
-        <v>4905</v>
+        <v>4896</v>
       </c>
       <c r="E107" s="10">
-        <v>1248</v>
+        <v>1257</v>
       </c>
       <c r="F107" s="6">
         <v>12829</v>
@@ -5092,7 +5114,7 @@
       <c r="J107" s="15"/>
       <c r="K107" s="11"/>
       <c r="L107" s="21"/>
-      <c r="M107" s="39"/>
+      <c r="M107" s="34"/>
       <c r="N107" s="31">
         <f t="shared" si="1"/>
         <v>191</v>
@@ -5109,10 +5131,10 @@
         <v>19133</v>
       </c>
       <c r="D108" s="6">
-        <v>4828</v>
+        <v>4817</v>
       </c>
       <c r="E108" s="10">
-        <v>1259</v>
+        <v>1270</v>
       </c>
       <c r="F108" s="6">
         <v>13046</v>
@@ -5129,7 +5151,7 @@
       <c r="J108" s="15"/>
       <c r="K108" s="11"/>
       <c r="L108" s="21"/>
-      <c r="M108" s="39"/>
+      <c r="M108" s="34"/>
       <c r="N108" s="31">
         <f t="shared" si="1"/>
         <v>151</v>
@@ -5146,10 +5168,10 @@
         <v>19257</v>
       </c>
       <c r="D109" s="6">
-        <v>4735</v>
+        <v>4720</v>
       </c>
       <c r="E109" s="10">
-        <v>1266</v>
+        <v>1281</v>
       </c>
       <c r="F109" s="6">
         <v>13256</v>
@@ -5166,7 +5188,7 @@
       <c r="J109" s="15"/>
       <c r="K109" s="11"/>
       <c r="L109" s="21"/>
-      <c r="M109" s="39"/>
+      <c r="M109" s="34"/>
       <c r="N109" s="31">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -5183,10 +5205,10 @@
         <v>19398</v>
       </c>
       <c r="D110" s="6">
-        <v>4696</v>
+        <v>4683</v>
       </c>
       <c r="E110" s="10">
-        <v>1276</v>
+        <v>1289</v>
       </c>
       <c r="F110" s="6">
         <v>13426</v>
@@ -5203,7 +5225,7 @@
       <c r="J110" s="15"/>
       <c r="K110" s="11"/>
       <c r="L110" s="21"/>
-      <c r="M110" s="39"/>
+      <c r="M110" s="34"/>
       <c r="N110" s="31">
         <f t="shared" si="1"/>
         <v>141</v>
@@ -5220,10 +5242,10 @@
         <v>19517</v>
       </c>
       <c r="D111" s="6">
-        <v>4703</v>
+        <v>4695</v>
       </c>
       <c r="E111" s="10">
-        <v>1288</v>
+        <v>1296</v>
       </c>
       <c r="F111" s="6">
         <v>13526</v>
@@ -5240,7 +5262,7 @@
       <c r="J111" s="15"/>
       <c r="K111" s="11"/>
       <c r="L111" s="21"/>
-      <c r="M111" s="39"/>
+      <c r="M111" s="34"/>
       <c r="N111" s="31">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -5257,10 +5279,10 @@
         <v>19669</v>
       </c>
       <c r="D112" s="6">
-        <v>4573</v>
+        <v>4566</v>
       </c>
       <c r="E112" s="10">
-        <v>1296</v>
+        <v>1303</v>
       </c>
       <c r="F112" s="6">
         <v>13800</v>
@@ -5277,7 +5299,7 @@
       <c r="J112" s="15"/>
       <c r="K112" s="11"/>
       <c r="L112" s="21"/>
-      <c r="M112" s="39"/>
+      <c r="M112" s="34"/>
       <c r="N112" s="31">
         <f t="shared" si="1"/>
         <v>152</v>
@@ -5294,10 +5316,10 @@
         <v>19907</v>
       </c>
       <c r="D113" s="6">
-        <v>4683</v>
+        <v>4672</v>
       </c>
       <c r="E113" s="10">
-        <v>1305</v>
+        <v>1316</v>
       </c>
       <c r="F113" s="6">
         <v>13919</v>
@@ -5314,7 +5336,7 @@
       <c r="J113" s="15"/>
       <c r="K113" s="11"/>
       <c r="L113" s="21"/>
-      <c r="M113" s="39"/>
+      <c r="M113" s="34"/>
       <c r="N113" s="31">
         <f t="shared" si="1"/>
         <v>238</v>
@@ -5331,10 +5353,10 @@
         <v>20103</v>
       </c>
       <c r="D114" s="6">
-        <v>4642</v>
+        <v>4639</v>
       </c>
       <c r="E114" s="10">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="F114" s="6">
         <v>14145</v>
@@ -5351,7 +5373,7 @@
       <c r="J114" s="15"/>
       <c r="K114" s="11"/>
       <c r="L114" s="21"/>
-      <c r="M114" s="39"/>
+      <c r="M114" s="34"/>
       <c r="N114" s="31">
         <f t="shared" si="1"/>
         <v>196</v>
@@ -5368,10 +5390,10 @@
         <v>20290</v>
       </c>
       <c r="D115" s="6">
-        <v>4549</v>
+        <v>4542</v>
       </c>
       <c r="E115" s="10">
-        <v>1322</v>
+        <v>1329</v>
       </c>
       <c r="F115" s="6">
         <v>14419</v>
@@ -5388,7 +5410,7 @@
       <c r="J115" s="15"/>
       <c r="K115" s="11"/>
       <c r="L115" s="21"/>
-      <c r="M115" s="39"/>
+      <c r="M115" s="34"/>
       <c r="N115" s="31">
         <f t="shared" si="1"/>
         <v>187</v>
@@ -5405,10 +5427,10 @@
         <v>20479</v>
       </c>
       <c r="D116" s="6">
-        <v>4508</v>
+        <v>4499</v>
       </c>
       <c r="E116" s="10">
-        <v>1333</v>
+        <v>1342</v>
       </c>
       <c r="F116" s="6">
         <v>14638</v>
@@ -5425,7 +5447,7 @@
       <c r="J116" s="15"/>
       <c r="K116" s="11"/>
       <c r="L116" s="21"/>
-      <c r="M116" s="39"/>
+      <c r="M116" s="34"/>
       <c r="N116" s="31">
         <f t="shared" si="1"/>
         <v>189</v>
@@ -5442,10 +5464,10 @@
         <v>20604</v>
       </c>
       <c r="D117" s="6">
-        <v>4439</v>
+        <v>4428</v>
       </c>
       <c r="E117" s="10">
-        <v>1339</v>
+        <v>1350</v>
       </c>
       <c r="F117" s="6">
         <v>14826</v>
@@ -5462,7 +5484,7 @@
       <c r="J117" s="15"/>
       <c r="K117" s="11"/>
       <c r="L117" s="21"/>
-      <c r="M117" s="39"/>
+      <c r="M117" s="34"/>
       <c r="N117" s="31">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -5479,10 +5501,10 @@
         <v>20749</v>
       </c>
       <c r="D118" s="6">
-        <v>4485</v>
+        <v>4478</v>
       </c>
       <c r="E118" s="10">
-        <v>1354</v>
+        <v>1361</v>
       </c>
       <c r="F118" s="6">
         <v>14910</v>
@@ -5499,7 +5521,7 @@
       <c r="J118" s="15"/>
       <c r="K118" s="11"/>
       <c r="L118" s="21"/>
-      <c r="M118" s="39"/>
+      <c r="M118" s="34"/>
       <c r="N118" s="31">
         <f t="shared" si="1"/>
         <v>145</v>
@@ -5516,10 +5538,10 @@
         <v>20945</v>
       </c>
       <c r="D119" s="6">
-        <v>4482</v>
+        <v>4481</v>
       </c>
       <c r="E119" s="10">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="F119" s="6">
         <v>15103</v>
@@ -5536,7 +5558,7 @@
       <c r="J119" s="15"/>
       <c r="K119" s="11"/>
       <c r="L119" s="21"/>
-      <c r="M119" s="39"/>
+      <c r="M119" s="34"/>
       <c r="N119" s="31">
         <f t="shared" si="1"/>
         <v>196</v>
@@ -5573,7 +5595,7 @@
       <c r="J120" s="15"/>
       <c r="K120" s="11"/>
       <c r="L120" s="21"/>
-      <c r="M120" s="39"/>
+      <c r="M120" s="34"/>
       <c r="N120" s="31">
         <f t="shared" si="1"/>
         <v>237</v>
@@ -5610,7 +5632,7 @@
       <c r="J121" s="15"/>
       <c r="K121" s="11"/>
       <c r="L121" s="21"/>
-      <c r="M121" s="39"/>
+      <c r="M121" s="34"/>
       <c r="N121" s="31">
         <f t="shared" si="1"/>
         <v>222</v>
@@ -5647,7 +5669,7 @@
       <c r="J122" s="15"/>
       <c r="K122" s="11"/>
       <c r="L122" s="21"/>
-      <c r="M122" s="39"/>
+      <c r="M122" s="34"/>
       <c r="N122" s="31">
         <f t="shared" si="1"/>
         <v>275</v>
@@ -5684,7 +5706,7 @@
       <c r="J123" s="15"/>
       <c r="K123" s="11"/>
       <c r="L123" s="21"/>
-      <c r="M123" s="39"/>
+      <c r="M123" s="34"/>
       <c r="N123" s="31">
         <f t="shared" si="1"/>
         <v>320</v>
@@ -5701,10 +5723,10 @@
         <v>22165</v>
       </c>
       <c r="D124" s="6">
-        <v>4921</v>
+        <v>4938</v>
       </c>
       <c r="E124" s="10">
-        <v>1427</v>
+        <v>1410</v>
       </c>
       <c r="F124" s="6">
         <v>15817</v>
@@ -5721,7 +5743,7 @@
       <c r="J124" s="15"/>
       <c r="K124" s="11"/>
       <c r="L124" s="21"/>
-      <c r="M124" s="39"/>
+      <c r="M124" s="34"/>
       <c r="N124" s="31">
         <f t="shared" si="1"/>
         <v>166</v>
@@ -5758,7 +5780,7 @@
       <c r="J125" s="15"/>
       <c r="K125" s="11"/>
       <c r="L125" s="21"/>
-      <c r="M125" s="39"/>
+      <c r="M125" s="34"/>
       <c r="N125" s="31">
         <f t="shared" si="1"/>
         <v>250</v>
@@ -5795,7 +5817,7 @@
       <c r="J126" s="15"/>
       <c r="K126" s="11"/>
       <c r="L126" s="21"/>
-      <c r="M126" s="39"/>
+      <c r="M126" s="34"/>
       <c r="N126" s="31">
         <f t="shared" si="1"/>
         <v>345</v>
@@ -5832,7 +5854,7 @@
       <c r="J127" s="15"/>
       <c r="K127" s="11"/>
       <c r="L127" s="21"/>
-      <c r="M127" s="39"/>
+      <c r="M127" s="34"/>
       <c r="N127" s="31">
         <f t="shared" si="1"/>
         <v>320</v>
@@ -5869,7 +5891,7 @@
       <c r="J128" s="15"/>
       <c r="K128" s="11"/>
       <c r="L128" s="21"/>
-      <c r="M128" s="39"/>
+      <c r="M128" s="34"/>
       <c r="N128" s="31">
         <f t="shared" si="1"/>
         <v>320</v>
@@ -5906,7 +5928,7 @@
       <c r="J129" s="15"/>
       <c r="K129" s="11"/>
       <c r="L129" s="21"/>
-      <c r="M129" s="39"/>
+      <c r="M129" s="34"/>
       <c r="N129" s="31">
         <f t="shared" si="1"/>
         <v>330</v>
@@ -5943,7 +5965,7 @@
       <c r="J130" s="15"/>
       <c r="K130" s="11"/>
       <c r="L130" s="21"/>
-      <c r="M130" s="39"/>
+      <c r="M130" s="34"/>
       <c r="N130" s="31">
         <f t="shared" si="1"/>
         <v>315</v>
@@ -5980,7 +6002,7 @@
       <c r="J131" s="15"/>
       <c r="K131" s="11"/>
       <c r="L131" s="21"/>
-      <c r="M131" s="39"/>
+      <c r="M131" s="34"/>
       <c r="N131" s="31">
         <f t="shared" si="1"/>
         <v>246</v>
@@ -6017,7 +6039,7 @@
       <c r="J132" s="15"/>
       <c r="K132" s="11"/>
       <c r="L132" s="21"/>
-      <c r="M132" s="39"/>
+      <c r="M132" s="34"/>
       <c r="N132" s="31">
         <f t="shared" si="1"/>
         <v>214</v>
@@ -6054,7 +6076,7 @@
       <c r="J133" s="15"/>
       <c r="K133" s="11"/>
       <c r="L133" s="21"/>
-      <c r="M133" s="39"/>
+      <c r="M133" s="34"/>
       <c r="N133" s="31">
         <f t="shared" si="1"/>
         <v>321</v>
@@ -6091,7 +6113,7 @@
       <c r="J134" s="15"/>
       <c r="K134" s="11"/>
       <c r="L134" s="21"/>
-      <c r="M134" s="39"/>
+      <c r="M134" s="34"/>
       <c r="N134" s="31">
         <f t="shared" si="1"/>
         <v>460</v>
@@ -6128,7 +6150,7 @@
       <c r="J135" s="15"/>
       <c r="K135" s="11"/>
       <c r="L135" s="21"/>
-      <c r="M135" s="39"/>
+      <c r="M135" s="34"/>
       <c r="N135" s="31">
         <f t="shared" ref="N135:N198" si="2">SUM(C135-C134)</f>
         <v>411</v>
@@ -6165,7 +6187,7 @@
       <c r="J136" s="15"/>
       <c r="K136" s="11"/>
       <c r="L136" s="21"/>
-      <c r="M136" s="39"/>
+      <c r="M136" s="34"/>
       <c r="N136" s="31">
         <f t="shared" si="2"/>
         <v>325</v>
@@ -6202,7 +6224,7 @@
       <c r="J137" s="15"/>
       <c r="K137" s="11"/>
       <c r="L137" s="21"/>
-      <c r="M137" s="39"/>
+      <c r="M137" s="34"/>
       <c r="N137" s="31">
         <f t="shared" si="2"/>
         <v>291</v>
@@ -6239,7 +6261,7 @@
       <c r="J138" s="15"/>
       <c r="K138" s="11"/>
       <c r="L138" s="21"/>
-      <c r="M138" s="39"/>
+      <c r="M138" s="34"/>
       <c r="N138" s="31">
         <f t="shared" si="2"/>
         <v>269</v>
@@ -6276,7 +6298,7 @@
       <c r="J139" s="15"/>
       <c r="K139" s="11"/>
       <c r="L139" s="21"/>
-      <c r="M139" s="39"/>
+      <c r="M139" s="34"/>
       <c r="N139" s="31">
         <f t="shared" si="2"/>
         <v>388</v>
@@ -6313,7 +6335,7 @@
       <c r="J140" s="15"/>
       <c r="K140" s="11"/>
       <c r="L140" s="21"/>
-      <c r="M140" s="39"/>
+      <c r="M140" s="34"/>
       <c r="N140" s="31">
         <f t="shared" si="2"/>
         <v>326</v>
@@ -6350,7 +6372,7 @@
       <c r="J141" s="15"/>
       <c r="K141" s="11"/>
       <c r="L141" s="21"/>
-      <c r="M141" s="39"/>
+      <c r="M141" s="34"/>
       <c r="N141" s="31">
         <f t="shared" si="2"/>
         <v>450</v>
@@ -6387,7 +6409,7 @@
       <c r="J142" s="15"/>
       <c r="K142" s="11"/>
       <c r="L142" s="21"/>
-      <c r="M142" s="39"/>
+      <c r="M142" s="34"/>
       <c r="N142" s="31">
         <f t="shared" si="2"/>
         <v>420</v>
@@ -6424,7 +6446,7 @@
       <c r="J143" s="15"/>
       <c r="K143" s="11"/>
       <c r="L143" s="21"/>
-      <c r="M143" s="39"/>
+      <c r="M143" s="34"/>
       <c r="N143" s="31">
         <f t="shared" si="2"/>
         <v>416</v>
@@ -6461,7 +6483,7 @@
       <c r="J144" s="15"/>
       <c r="K144" s="11"/>
       <c r="L144" s="21"/>
-      <c r="M144" s="39"/>
+      <c r="M144" s="34"/>
       <c r="N144" s="31">
         <f t="shared" si="2"/>
         <v>391</v>
@@ -6498,7 +6520,7 @@
       <c r="J145" s="15"/>
       <c r="K145" s="11"/>
       <c r="L145" s="21"/>
-      <c r="M145" s="39"/>
+      <c r="M145" s="34"/>
       <c r="N145" s="31">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -6535,7 +6557,7 @@
       <c r="J146" s="15"/>
       <c r="K146" s="11"/>
       <c r="L146" s="21"/>
-      <c r="M146" s="39"/>
+      <c r="M146" s="34"/>
       <c r="N146" s="31">
         <f t="shared" si="2"/>
         <v>397</v>
@@ -6572,7 +6594,7 @@
       <c r="J147" s="15"/>
       <c r="K147" s="11"/>
       <c r="L147" s="21"/>
-      <c r="M147" s="39"/>
+      <c r="M147" s="34"/>
       <c r="N147" s="31">
         <f t="shared" si="2"/>
         <v>555</v>
@@ -6609,7 +6631,7 @@
       <c r="J148" s="15"/>
       <c r="K148" s="11"/>
       <c r="L148" s="21"/>
-      <c r="M148" s="39"/>
+      <c r="M148" s="34"/>
       <c r="N148" s="31">
         <f t="shared" si="2"/>
         <v>614</v>
@@ -6646,7 +6668,7 @@
       <c r="J149" s="15"/>
       <c r="K149" s="11"/>
       <c r="L149" s="21"/>
-      <c r="M149" s="39"/>
+      <c r="M149" s="34"/>
       <c r="N149" s="31">
         <f t="shared" si="2"/>
         <v>592</v>
@@ -6683,7 +6705,7 @@
       <c r="J150" s="15"/>
       <c r="K150" s="11"/>
       <c r="L150" s="21"/>
-      <c r="M150" s="39"/>
+      <c r="M150" s="34"/>
       <c r="N150" s="31">
         <f t="shared" si="2"/>
         <v>698</v>
@@ -6720,7 +6742,7 @@
       <c r="J151" s="15"/>
       <c r="K151" s="11"/>
       <c r="L151" s="21"/>
-      <c r="M151" s="39"/>
+      <c r="M151" s="34"/>
       <c r="N151" s="31">
         <f t="shared" si="2"/>
         <v>456</v>
@@ -6757,7 +6779,7 @@
       <c r="J152" s="15"/>
       <c r="K152" s="11"/>
       <c r="L152" s="21"/>
-      <c r="M152" s="39"/>
+      <c r="M152" s="34"/>
       <c r="N152" s="31">
         <f t="shared" si="2"/>
         <v>413</v>
@@ -6794,7 +6816,7 @@
       <c r="J153" s="17"/>
       <c r="K153" s="10"/>
       <c r="L153" s="21"/>
-      <c r="M153" s="39"/>
+      <c r="M153" s="34"/>
       <c r="N153" s="31">
         <f t="shared" si="2"/>
         <v>637</v>
@@ -6831,7 +6853,7 @@
       <c r="J154" s="17"/>
       <c r="K154" s="10"/>
       <c r="L154" s="21"/>
-      <c r="M154" s="39"/>
+      <c r="M154" s="34"/>
       <c r="N154" s="31">
         <f t="shared" si="2"/>
         <v>641</v>
@@ -6868,7 +6890,7 @@
       <c r="J155" s="17"/>
       <c r="K155" s="10"/>
       <c r="L155" s="21"/>
-      <c r="M155" s="39"/>
+      <c r="M155" s="34"/>
       <c r="N155" s="31">
         <f t="shared" si="2"/>
         <v>777</v>
@@ -6905,7 +6927,7 @@
       <c r="J156" s="17"/>
       <c r="K156" s="10"/>
       <c r="L156" s="21"/>
-      <c r="M156" s="39"/>
+      <c r="M156" s="34"/>
       <c r="N156" s="31">
         <f t="shared" si="2"/>
         <v>799</v>
@@ -6942,7 +6964,7 @@
       <c r="J157" s="17"/>
       <c r="K157" s="10"/>
       <c r="L157" s="21"/>
-      <c r="M157" s="39"/>
+      <c r="M157" s="34"/>
       <c r="N157" s="31">
         <f t="shared" si="2"/>
         <v>889</v>
@@ -6979,7 +7001,7 @@
       <c r="J158" s="17"/>
       <c r="K158" s="10"/>
       <c r="L158" s="21"/>
-      <c r="M158" s="39"/>
+      <c r="M158" s="34"/>
       <c r="N158" s="31">
         <f t="shared" si="2"/>
         <v>767</v>
@@ -7016,7 +7038,7 @@
       <c r="J159" s="17"/>
       <c r="K159" s="10"/>
       <c r="L159" s="21"/>
-      <c r="M159" s="39"/>
+      <c r="M159" s="34"/>
       <c r="N159" s="31">
         <f t="shared" si="2"/>
         <v>681</v>
@@ -7053,7 +7075,7 @@
       <c r="J160" s="17"/>
       <c r="K160" s="10"/>
       <c r="L160" s="21"/>
-      <c r="M160" s="39"/>
+      <c r="M160" s="34"/>
       <c r="N160" s="31">
         <f t="shared" si="2"/>
         <v>994</v>
@@ -7090,7 +7112,7 @@
       <c r="J161" s="17"/>
       <c r="K161" s="10"/>
       <c r="L161" s="21"/>
-      <c r="M161" s="39"/>
+      <c r="M161" s="34"/>
       <c r="N161" s="31">
         <f t="shared" si="2"/>
         <v>1030</v>
@@ -7127,7 +7149,7 @@
       <c r="J162" s="17"/>
       <c r="K162" s="10"/>
       <c r="L162" s="21"/>
-      <c r="M162" s="39"/>
+      <c r="M162" s="34"/>
       <c r="N162" s="31">
         <f t="shared" si="2"/>
         <v>1112</v>
@@ -7164,7 +7186,7 @@
       <c r="J163" s="17"/>
       <c r="K163" s="10"/>
       <c r="L163" s="21"/>
-      <c r="M163" s="39"/>
+      <c r="M163" s="34"/>
       <c r="N163" s="31">
         <f t="shared" si="2"/>
         <v>1119</v>
@@ -7201,7 +7223,7 @@
       <c r="J164" s="17"/>
       <c r="K164" s="10"/>
       <c r="L164" s="21"/>
-      <c r="M164" s="39"/>
+      <c r="M164" s="34"/>
       <c r="N164" s="31">
         <f t="shared" si="2"/>
         <v>1284</v>
@@ -7238,7 +7260,7 @@
       <c r="J165" s="17"/>
       <c r="K165" s="10"/>
       <c r="L165" s="21"/>
-      <c r="M165" s="39"/>
+      <c r="M165" s="34"/>
       <c r="N165" s="31">
         <f t="shared" si="2"/>
         <v>1120</v>
@@ -7275,7 +7297,7 @@
       <c r="J166" s="17"/>
       <c r="K166" s="10"/>
       <c r="L166" s="21"/>
-      <c r="M166" s="39"/>
+      <c r="M166" s="34"/>
       <c r="N166" s="31">
         <f t="shared" si="2"/>
         <v>1104</v>
@@ -7312,7 +7334,7 @@
       <c r="J167" s="17"/>
       <c r="K167" s="10"/>
       <c r="L167" s="21"/>
-      <c r="M167" s="39"/>
+      <c r="M167" s="34"/>
       <c r="N167" s="31">
         <f t="shared" si="2"/>
         <v>1151</v>
@@ -7349,7 +7371,7 @@
       <c r="J168" s="17"/>
       <c r="K168" s="10"/>
       <c r="L168" s="21"/>
-      <c r="M168" s="39"/>
+      <c r="M168" s="34"/>
       <c r="N168" s="31">
         <f t="shared" si="2"/>
         <v>1182</v>
@@ -7386,7 +7408,7 @@
       <c r="J169" s="17"/>
       <c r="K169" s="10"/>
       <c r="L169" s="21"/>
-      <c r="M169" s="39"/>
+      <c r="M169" s="34"/>
       <c r="N169" s="31">
         <f t="shared" si="2"/>
         <v>1356</v>
@@ -7423,7 +7445,7 @@
       <c r="J170" s="17"/>
       <c r="K170" s="10"/>
       <c r="L170" s="21"/>
-      <c r="M170" s="39"/>
+      <c r="M170" s="34"/>
       <c r="N170" s="31">
         <f t="shared" si="2"/>
         <v>1295</v>
@@ -7460,7 +7482,7 @@
       <c r="J171" s="17"/>
       <c r="K171" s="10"/>
       <c r="L171" s="21"/>
-      <c r="M171" s="39"/>
+      <c r="M171" s="34"/>
       <c r="N171" s="31">
         <f t="shared" si="2"/>
         <v>1225</v>
@@ -7497,7 +7519,7 @@
       <c r="J172" s="17"/>
       <c r="K172" s="10"/>
       <c r="L172" s="21"/>
-      <c r="M172" s="39"/>
+      <c r="M172" s="34"/>
       <c r="N172" s="31">
         <f t="shared" si="2"/>
         <v>1075</v>
@@ -7534,7 +7556,7 @@
       <c r="J173" s="17"/>
       <c r="K173" s="10"/>
       <c r="L173" s="21"/>
-      <c r="M173" s="39"/>
+      <c r="M173" s="34"/>
       <c r="N173" s="31">
         <f t="shared" si="2"/>
         <v>823</v>
@@ -7571,7 +7593,7 @@
       <c r="J174" s="17"/>
       <c r="K174" s="10"/>
       <c r="L174" s="21"/>
-      <c r="M174" s="39"/>
+      <c r="M174" s="34"/>
       <c r="N174" s="31">
         <f t="shared" si="2"/>
         <v>1232</v>
@@ -7608,7 +7630,7 @@
       <c r="J175" s="17"/>
       <c r="K175" s="10"/>
       <c r="L175" s="21"/>
-      <c r="M175" s="39"/>
+      <c r="M175" s="34"/>
       <c r="N175" s="31">
         <f t="shared" si="2"/>
         <v>1309</v>
@@ -7645,7 +7667,7 @@
       <c r="J176" s="17"/>
       <c r="K176" s="10"/>
       <c r="L176" s="21"/>
-      <c r="M176" s="39"/>
+      <c r="M176" s="34"/>
       <c r="N176" s="31">
         <f t="shared" si="2"/>
         <v>1345</v>
@@ -7682,7 +7704,7 @@
       <c r="J177" s="17"/>
       <c r="K177" s="10"/>
       <c r="L177" s="21"/>
-      <c r="M177" s="39"/>
+      <c r="M177" s="34"/>
       <c r="N177" s="31">
         <f t="shared" si="2"/>
         <v>1378</v>
@@ -7719,7 +7741,7 @@
       <c r="J178" s="17"/>
       <c r="K178" s="10"/>
       <c r="L178" s="21"/>
-      <c r="M178" s="39"/>
+      <c r="M178" s="34"/>
       <c r="N178" s="31">
         <f t="shared" si="2"/>
         <v>1350</v>
@@ -7756,7 +7778,7 @@
       <c r="J179" s="17"/>
       <c r="K179" s="10"/>
       <c r="L179" s="21"/>
-      <c r="M179" s="39"/>
+      <c r="M179" s="34"/>
       <c r="N179" s="31">
         <f t="shared" si="2"/>
         <v>1145</v>
@@ -7793,7 +7815,7 @@
       <c r="J180" s="17"/>
       <c r="K180" s="10"/>
       <c r="L180" s="21"/>
-      <c r="M180" s="39"/>
+      <c r="M180" s="34"/>
       <c r="N180" s="31">
         <f t="shared" si="2"/>
         <v>779</v>
@@ -7830,7 +7852,7 @@
       <c r="J181" s="17"/>
       <c r="K181" s="10"/>
       <c r="L181" s="21"/>
-      <c r="M181" s="39"/>
+      <c r="M181" s="34"/>
       <c r="N181" s="31">
         <f t="shared" si="2"/>
         <v>1215</v>
@@ -7867,7 +7889,7 @@
       <c r="J182" s="17"/>
       <c r="K182" s="10"/>
       <c r="L182" s="21"/>
-      <c r="M182" s="39"/>
+      <c r="M182" s="34"/>
       <c r="N182" s="31">
         <f t="shared" si="2"/>
         <v>1415</v>
@@ -7904,7 +7926,7 @@
       <c r="J183" s="17"/>
       <c r="K183" s="10"/>
       <c r="L183" s="21"/>
-      <c r="M183" s="39"/>
+      <c r="M183" s="34"/>
       <c r="N183" s="31">
         <f t="shared" si="2"/>
         <v>1454</v>
@@ -7941,7 +7963,7 @@
       <c r="J184" s="17"/>
       <c r="K184" s="10"/>
       <c r="L184" s="21"/>
-      <c r="M184" s="39"/>
+      <c r="M184" s="34"/>
       <c r="N184" s="31">
         <f t="shared" si="2"/>
         <v>1415</v>
@@ -7978,7 +8000,7 @@
       <c r="J185" s="17"/>
       <c r="K185" s="10"/>
       <c r="L185" s="21"/>
-      <c r="M185" s="39"/>
+      <c r="M185" s="34"/>
       <c r="N185" s="31">
         <f t="shared" si="2"/>
         <v>1328</v>
@@ -8015,7 +8037,7 @@
       <c r="J186" s="17"/>
       <c r="K186" s="10"/>
       <c r="L186" s="21"/>
-      <c r="M186" s="39"/>
+      <c r="M186" s="34"/>
       <c r="N186" s="31">
         <f t="shared" si="2"/>
         <v>1087</v>
@@ -8052,7 +8074,7 @@
       <c r="J187" s="17"/>
       <c r="K187" s="10"/>
       <c r="L187" s="21"/>
-      <c r="M187" s="39"/>
+      <c r="M187" s="34"/>
       <c r="N187" s="31">
         <f t="shared" si="2"/>
         <v>733</v>
@@ -8089,7 +8111,7 @@
       <c r="J188" s="17"/>
       <c r="K188" s="10"/>
       <c r="L188" s="21"/>
-      <c r="M188" s="39"/>
+      <c r="M188" s="34"/>
       <c r="N188" s="31">
         <f t="shared" si="2"/>
         <v>1014</v>
@@ -8126,7 +8148,7 @@
       <c r="J189" s="17"/>
       <c r="K189" s="10"/>
       <c r="L189" s="21"/>
-      <c r="M189" s="39"/>
+      <c r="M189" s="34"/>
       <c r="N189" s="31">
         <f t="shared" si="2"/>
         <v>1409</v>
@@ -8163,7 +8185,7 @@
       <c r="J190" s="17"/>
       <c r="K190" s="10"/>
       <c r="L190" s="21"/>
-      <c r="M190" s="39"/>
+      <c r="M190" s="34"/>
       <c r="N190" s="31">
         <f t="shared" si="2"/>
         <v>1346</v>
@@ -8200,7 +8222,7 @@
       <c r="J191" s="17"/>
       <c r="K191" s="10"/>
       <c r="L191" s="21"/>
-      <c r="M191" s="39"/>
+      <c r="M191" s="34"/>
       <c r="N191" s="31">
         <f t="shared" si="2"/>
         <v>1392</v>
@@ -8237,7 +8259,7 @@
       <c r="J192" s="17"/>
       <c r="K192" s="10"/>
       <c r="L192" s="21"/>
-      <c r="M192" s="39"/>
+      <c r="M192" s="34"/>
       <c r="N192" s="31">
         <f t="shared" si="2"/>
         <v>1189</v>
@@ -8274,7 +8296,7 @@
       <c r="J193" s="17"/>
       <c r="K193" s="10"/>
       <c r="L193" s="21"/>
-      <c r="M193" s="39"/>
+      <c r="M193" s="34"/>
       <c r="N193" s="31">
         <f t="shared" si="2"/>
         <v>961</v>
@@ -8311,7 +8333,7 @@
       <c r="J194" s="17"/>
       <c r="K194" s="10"/>
       <c r="L194" s="21"/>
-      <c r="M194" s="39"/>
+      <c r="M194" s="34"/>
       <c r="N194" s="31">
         <f t="shared" si="2"/>
         <v>825</v>
@@ -8348,7 +8370,7 @@
       <c r="J195" s="17"/>
       <c r="K195" s="10"/>
       <c r="L195" s="21"/>
-      <c r="M195" s="39"/>
+      <c r="M195" s="34"/>
       <c r="N195" s="31">
         <f t="shared" si="2"/>
         <v>1060</v>
@@ -8385,7 +8407,7 @@
       <c r="J196" s="17"/>
       <c r="K196" s="10"/>
       <c r="L196" s="21"/>
-      <c r="M196" s="39"/>
+      <c r="M196" s="34"/>
       <c r="N196" s="31">
         <f t="shared" si="2"/>
         <v>1256</v>
@@ -8422,7 +8444,7 @@
       <c r="J197" s="17"/>
       <c r="K197" s="10"/>
       <c r="L197" s="21"/>
-      <c r="M197" s="39"/>
+      <c r="M197" s="34"/>
       <c r="N197" s="31">
         <f t="shared" si="2"/>
         <v>1504</v>
@@ -8459,7 +8481,7 @@
       <c r="J198" s="17"/>
       <c r="K198" s="10"/>
       <c r="L198" s="21"/>
-      <c r="M198" s="39"/>
+      <c r="M198" s="34"/>
       <c r="N198" s="31">
         <f t="shared" si="2"/>
         <v>1318</v>
@@ -8496,7 +8518,7 @@
       <c r="J199" s="17"/>
       <c r="K199" s="10"/>
       <c r="L199" s="21"/>
-      <c r="M199" s="39"/>
+      <c r="M199" s="34"/>
       <c r="N199" s="31">
         <f t="shared" ref="N199:N262" si="3">SUM(C199-C198)</f>
         <v>1365</v>
@@ -8533,7 +8555,7 @@
       <c r="J200" s="17"/>
       <c r="K200" s="10"/>
       <c r="L200" s="21"/>
-      <c r="M200" s="39"/>
+      <c r="M200" s="34"/>
       <c r="N200" s="31">
         <f t="shared" si="3"/>
         <v>952</v>
@@ -8570,7 +8592,7 @@
       <c r="J201" s="17"/>
       <c r="K201" s="10"/>
       <c r="L201" s="21"/>
-      <c r="M201" s="39"/>
+      <c r="M201" s="34"/>
       <c r="N201" s="31">
         <f t="shared" si="3"/>
         <v>755</v>
@@ -8607,7 +8629,7 @@
       <c r="J202" s="17"/>
       <c r="K202" s="10"/>
       <c r="L202" s="21"/>
-      <c r="M202" s="39"/>
+      <c r="M202" s="34"/>
       <c r="N202" s="31">
         <f t="shared" si="3"/>
         <v>1053</v>
@@ -8644,7 +8666,7 @@
       <c r="J203" s="17"/>
       <c r="K203" s="10"/>
       <c r="L203" s="21"/>
-      <c r="M203" s="39"/>
+      <c r="M203" s="34"/>
       <c r="N203" s="31">
         <f t="shared" si="3"/>
         <v>1298</v>
@@ -8681,7 +8703,7 @@
       <c r="J204" s="17"/>
       <c r="K204" s="10"/>
       <c r="L204" s="21"/>
-      <c r="M204" s="39"/>
+      <c r="M204" s="34"/>
       <c r="N204" s="31">
         <f t="shared" si="3"/>
         <v>1365</v>
@@ -8718,7 +8740,7 @@
       <c r="J205" s="17"/>
       <c r="K205" s="10"/>
       <c r="L205" s="21"/>
-      <c r="M205" s="39"/>
+      <c r="M205" s="34"/>
       <c r="N205" s="31">
         <f t="shared" si="3"/>
         <v>1339</v>
@@ -8755,7 +8777,7 @@
       <c r="J206" s="17"/>
       <c r="K206" s="10"/>
       <c r="L206" s="21"/>
-      <c r="M206" s="39"/>
+      <c r="M206" s="34"/>
       <c r="N206" s="31">
         <f t="shared" si="3"/>
         <v>1269</v>
@@ -8792,7 +8814,7 @@
       <c r="J207" s="17"/>
       <c r="K207" s="10"/>
       <c r="L207" s="21"/>
-      <c r="M207" s="39"/>
+      <c r="M207" s="34"/>
       <c r="N207" s="31">
         <f t="shared" si="3"/>
         <v>1150</v>
@@ -8829,7 +8851,7 @@
       <c r="J208" s="17"/>
       <c r="K208" s="10"/>
       <c r="L208" s="21"/>
-      <c r="M208" s="39"/>
+      <c r="M208" s="34"/>
       <c r="N208" s="31">
         <f t="shared" si="3"/>
         <v>883</v>
@@ -8866,7 +8888,7 @@
       <c r="J209" s="17"/>
       <c r="K209" s="10"/>
       <c r="L209" s="21"/>
-      <c r="M209" s="39"/>
+      <c r="M209" s="34"/>
       <c r="N209" s="31">
         <f t="shared" si="3"/>
         <v>1136</v>
@@ -8903,7 +8925,7 @@
       <c r="J210" s="17"/>
       <c r="K210" s="10"/>
       <c r="L210" s="21"/>
-      <c r="M210" s="39"/>
+      <c r="M210" s="34"/>
       <c r="N210" s="31">
         <f t="shared" si="3"/>
         <v>1271</v>
@@ -8940,7 +8962,7 @@
       <c r="J211" s="17"/>
       <c r="K211" s="10"/>
       <c r="L211" s="21"/>
-      <c r="M211" s="39"/>
+      <c r="M211" s="34"/>
       <c r="N211" s="31">
         <f t="shared" si="3"/>
         <v>1380</v>
@@ -8977,7 +8999,7 @@
       <c r="J212" s="17"/>
       <c r="K212" s="10"/>
       <c r="L212" s="21"/>
-      <c r="M212" s="39"/>
+      <c r="M212" s="34"/>
       <c r="N212" s="31">
         <f t="shared" si="3"/>
         <v>1391</v>
@@ -9014,7 +9036,7 @@
       <c r="J213" s="17"/>
       <c r="K213" s="10"/>
       <c r="L213" s="21"/>
-      <c r="M213" s="39"/>
+      <c r="M213" s="34"/>
       <c r="N213" s="31">
         <f t="shared" si="3"/>
         <v>1311</v>
@@ -9051,7 +9073,7 @@
       <c r="J214" s="17"/>
       <c r="K214" s="10"/>
       <c r="L214" s="21"/>
-      <c r="M214" s="39"/>
+      <c r="M214" s="34"/>
       <c r="N214" s="31">
         <f t="shared" si="3"/>
         <v>1109</v>
@@ -9088,7 +9110,7 @@
       <c r="J215" s="17"/>
       <c r="K215" s="10"/>
       <c r="L215" s="21"/>
-      <c r="M215" s="39"/>
+      <c r="M215" s="34"/>
       <c r="N215" s="31">
         <f t="shared" si="3"/>
         <v>692</v>
@@ -9125,7 +9147,7 @@
       <c r="J216" s="17"/>
       <c r="K216" s="10"/>
       <c r="L216" s="21"/>
-      <c r="M216" s="39"/>
+      <c r="M216" s="34"/>
       <c r="N216" s="31">
         <f t="shared" si="3"/>
         <v>1111</v>
@@ -9162,7 +9184,7 @@
       <c r="J217" s="17"/>
       <c r="K217" s="10"/>
       <c r="L217" s="21"/>
-      <c r="M217" s="39"/>
+      <c r="M217" s="34"/>
       <c r="N217" s="31">
         <f t="shared" si="3"/>
         <v>1713</v>
@@ -9199,7 +9221,7 @@
       <c r="J218" s="17"/>
       <c r="K218" s="10"/>
       <c r="L218" s="21"/>
-      <c r="M218" s="39"/>
+      <c r="M218" s="34"/>
       <c r="N218" s="31">
         <f t="shared" si="3"/>
         <v>1679</v>
@@ -9236,7 +9258,7 @@
       <c r="J219" s="17"/>
       <c r="K219" s="10"/>
       <c r="L219" s="21"/>
-      <c r="M219" s="39"/>
+      <c r="M219" s="34"/>
       <c r="N219" s="31">
         <f t="shared" si="3"/>
         <v>1527</v>
@@ -9273,7 +9295,7 @@
       <c r="J220" s="17"/>
       <c r="K220" s="10"/>
       <c r="L220" s="21"/>
-      <c r="M220" s="39"/>
+      <c r="M220" s="34"/>
       <c r="N220" s="31">
         <f t="shared" si="3"/>
         <v>1333</v>
@@ -9310,7 +9332,7 @@
       <c r="J221" s="17"/>
       <c r="K221" s="10"/>
       <c r="L221" s="21"/>
-      <c r="M221" s="39"/>
+      <c r="M221" s="34"/>
       <c r="N221" s="31">
         <f t="shared" si="3"/>
         <v>1231</v>
@@ -9347,7 +9369,7 @@
       <c r="J222" s="17"/>
       <c r="K222" s="10"/>
       <c r="L222" s="21"/>
-      <c r="M222" s="39"/>
+      <c r="M222" s="34"/>
       <c r="N222" s="31">
         <f t="shared" si="3"/>
         <v>808</v>
@@ -9384,7 +9406,7 @@
       <c r="J223" s="17"/>
       <c r="K223" s="10"/>
       <c r="L223" s="21"/>
-      <c r="M223" s="39"/>
+      <c r="M223" s="34"/>
       <c r="N223" s="31">
         <f t="shared" si="3"/>
         <v>1059</v>
@@ -9421,7 +9443,7 @@
       <c r="J224" s="17"/>
       <c r="K224" s="10"/>
       <c r="L224" s="21"/>
-      <c r="M224" s="39"/>
+      <c r="M224" s="34"/>
       <c r="N224" s="31">
         <f t="shared" si="3"/>
         <v>1767</v>
@@ -9458,7 +9480,7 @@
       <c r="J225" s="17"/>
       <c r="K225" s="10"/>
       <c r="L225" s="21"/>
-      <c r="M225" s="39"/>
+      <c r="M225" s="34"/>
       <c r="N225" s="31">
         <f t="shared" si="3"/>
         <v>1639</v>
@@ -9495,7 +9517,7 @@
       <c r="J226" s="17"/>
       <c r="K226" s="10"/>
       <c r="L226" s="21"/>
-      <c r="M226" s="39"/>
+      <c r="M226" s="34"/>
       <c r="N226" s="31">
         <f t="shared" si="3"/>
         <v>1629</v>
@@ -9532,7 +9554,7 @@
       <c r="J227" s="17"/>
       <c r="K227" s="10"/>
       <c r="L227" s="21"/>
-      <c r="M227" s="39"/>
+      <c r="M227" s="34"/>
       <c r="N227" s="31">
         <f t="shared" si="3"/>
         <v>1552</v>
@@ -9569,7 +9591,7 @@
       <c r="J228" s="17"/>
       <c r="K228" s="10"/>
       <c r="L228" s="21"/>
-      <c r="M228" s="39"/>
+      <c r="M228" s="34"/>
       <c r="N228" s="31">
         <f t="shared" si="3"/>
         <v>1438</v>
@@ -9606,7 +9628,7 @@
       <c r="J229" s="17"/>
       <c r="K229" s="10"/>
       <c r="L229" s="21"/>
-      <c r="M229" s="39"/>
+      <c r="M229" s="34"/>
       <c r="N229" s="31">
         <f t="shared" si="3"/>
         <v>1271</v>
@@ -9643,7 +9665,7 @@
       <c r="J230" s="17"/>
       <c r="K230" s="10"/>
       <c r="L230" s="21"/>
-      <c r="M230" s="39"/>
+      <c r="M230" s="34"/>
       <c r="N230" s="31">
         <f t="shared" si="3"/>
         <v>1470</v>
@@ -9680,7 +9702,7 @@
       <c r="J231" s="17"/>
       <c r="K231" s="10"/>
       <c r="L231" s="21"/>
-      <c r="M231" s="39"/>
+      <c r="M231" s="34"/>
       <c r="N231" s="31">
         <f t="shared" si="3"/>
         <v>2158</v>
@@ -9717,7 +9739,7 @@
       <c r="J232" s="17"/>
       <c r="K232" s="10"/>
       <c r="L232" s="21"/>
-      <c r="M232" s="39"/>
+      <c r="M232" s="34"/>
       <c r="N232" s="31">
         <f t="shared" si="3"/>
         <v>2086</v>
@@ -9754,7 +9776,7 @@
       <c r="J233" s="17"/>
       <c r="K233" s="10"/>
       <c r="L233" s="21"/>
-      <c r="M233" s="39"/>
+      <c r="M233" s="34"/>
       <c r="N233" s="31">
         <f t="shared" si="3"/>
         <v>2343</v>
@@ -9791,7 +9813,7 @@
       <c r="J234" s="17"/>
       <c r="K234" s="10"/>
       <c r="L234" s="21"/>
-      <c r="M234" s="39"/>
+      <c r="M234" s="34"/>
       <c r="N234" s="31">
         <f t="shared" si="3"/>
         <v>2064</v>
@@ -9828,7 +9850,7 @@
       <c r="J235" s="17"/>
       <c r="K235" s="10"/>
       <c r="L235" s="21"/>
-      <c r="M235" s="39"/>
+      <c r="M235" s="34"/>
       <c r="N235" s="31">
         <f t="shared" si="3"/>
         <v>1835</v>
@@ -9865,7 +9887,7 @@
       <c r="J236" s="17"/>
       <c r="K236" s="10"/>
       <c r="L236" s="21"/>
-      <c r="M236" s="39"/>
+      <c r="M236" s="34"/>
       <c r="N236" s="31">
         <f t="shared" si="3"/>
         <v>1591</v>
@@ -9902,7 +9924,7 @@
       <c r="J237" s="17"/>
       <c r="K237" s="10"/>
       <c r="L237" s="21"/>
-      <c r="M237" s="39"/>
+      <c r="M237" s="34"/>
       <c r="N237" s="31">
         <f t="shared" si="3"/>
         <v>2121</v>
@@ -9939,7 +9961,7 @@
       <c r="J238" s="17"/>
       <c r="K238" s="10"/>
       <c r="L238" s="21"/>
-      <c r="M238" s="39"/>
+      <c r="M238" s="34"/>
       <c r="N238" s="31">
         <f t="shared" si="3"/>
         <v>2958</v>
@@ -9976,7 +9998,7 @@
       <c r="J239" s="17"/>
       <c r="K239" s="10"/>
       <c r="L239" s="21"/>
-      <c r="M239" s="39"/>
+      <c r="M239" s="34"/>
       <c r="N239" s="31">
         <f t="shared" si="3"/>
         <v>3130</v>
@@ -10013,7 +10035,7 @@
       <c r="J240" s="17"/>
       <c r="K240" s="10"/>
       <c r="L240" s="21"/>
-      <c r="M240" s="39"/>
+      <c r="M240" s="34"/>
       <c r="N240" s="31">
         <f t="shared" si="3"/>
         <v>3186</v>
@@ -10050,7 +10072,7 @@
       <c r="J241" s="17"/>
       <c r="K241" s="10"/>
       <c r="L241" s="21"/>
-      <c r="M241" s="39"/>
+      <c r="M241" s="34"/>
       <c r="N241" s="31">
         <f t="shared" si="3"/>
         <v>3517</v>
@@ -10087,7 +10109,7 @@
       <c r="J242" s="17"/>
       <c r="K242" s="10"/>
       <c r="L242" s="21"/>
-      <c r="M242" s="39"/>
+      <c r="M242" s="34"/>
       <c r="N242" s="31">
         <f t="shared" si="3"/>
         <v>2880</v>
@@ -10124,7 +10146,7 @@
       <c r="J243" s="17"/>
       <c r="K243" s="10"/>
       <c r="L243" s="21"/>
-      <c r="M243" s="39"/>
+      <c r="M243" s="34"/>
       <c r="N243" s="31">
         <f t="shared" si="3"/>
         <v>2069</v>
@@ -10161,7 +10183,7 @@
       <c r="J244" s="17"/>
       <c r="K244" s="10"/>
       <c r="L244" s="21"/>
-      <c r="M244" s="39"/>
+      <c r="M244" s="34"/>
       <c r="N244" s="31">
         <f t="shared" si="3"/>
         <v>3109</v>
@@ -10198,7 +10220,7 @@
       <c r="J245" s="17"/>
       <c r="K245" s="10"/>
       <c r="L245" s="21"/>
-      <c r="M245" s="39"/>
+      <c r="M245" s="34"/>
       <c r="N245" s="31">
         <f t="shared" si="3"/>
         <v>4016</v>
@@ -10235,7 +10257,7 @@
       <c r="J246" s="17"/>
       <c r="K246" s="10"/>
       <c r="L246" s="21"/>
-      <c r="M246" s="39"/>
+      <c r="M246" s="34"/>
       <c r="N246" s="31">
         <f t="shared" si="3"/>
         <v>4013</v>
@@ -10272,7 +10294,7 @@
       <c r="J247" s="17"/>
       <c r="K247" s="10"/>
       <c r="L247" s="21"/>
-      <c r="M247" s="39"/>
+      <c r="M247" s="34"/>
       <c r="N247" s="31">
         <f t="shared" si="3"/>
         <v>4026</v>
@@ -10309,7 +10331,7 @@
       <c r="J248" s="17"/>
       <c r="K248" s="10"/>
       <c r="L248" s="21"/>
-      <c r="M248" s="39"/>
+      <c r="M248" s="34"/>
       <c r="N248" s="31">
         <f t="shared" si="3"/>
         <v>3952</v>
@@ -10346,7 +10368,7 @@
       <c r="J249" s="17"/>
       <c r="K249" s="10"/>
       <c r="L249" s="21"/>
-      <c r="M249" s="39"/>
+      <c r="M249" s="34"/>
       <c r="N249" s="31">
         <f t="shared" si="3"/>
         <v>3920</v>
@@ -10383,7 +10405,7 @@
       <c r="J250" s="17"/>
       <c r="K250" s="10"/>
       <c r="L250" s="21"/>
-      <c r="M250" s="39"/>
+      <c r="M250" s="34"/>
       <c r="N250" s="31">
         <f t="shared" si="3"/>
         <v>2466</v>
@@ -10420,7 +10442,7 @@
       <c r="J251" s="17"/>
       <c r="K251" s="10"/>
       <c r="L251" s="21"/>
-      <c r="M251" s="39"/>
+      <c r="M251" s="34"/>
       <c r="N251" s="31">
         <f t="shared" si="3"/>
         <v>3400</v>
@@ -10457,7 +10479,7 @@
       <c r="J252" s="17"/>
       <c r="K252" s="10"/>
       <c r="L252" s="21"/>
-      <c r="M252" s="39"/>
+      <c r="M252" s="34"/>
       <c r="N252" s="31">
         <f t="shared" si="3"/>
         <v>4848</v>
@@ -10494,7 +10516,7 @@
       <c r="J253" s="17"/>
       <c r="K253" s="10"/>
       <c r="L253" s="21"/>
-      <c r="M253" s="39"/>
+      <c r="M253" s="34"/>
       <c r="N253" s="31">
         <f t="shared" si="3"/>
         <v>4902</v>
@@ -10531,7 +10553,7 @@
       <c r="J254" s="17"/>
       <c r="K254" s="10"/>
       <c r="L254" s="21"/>
-      <c r="M254" s="39"/>
+      <c r="M254" s="34"/>
       <c r="N254" s="31">
         <f t="shared" si="3"/>
         <v>5028</v>
@@ -10568,7 +10590,7 @@
       <c r="J255" s="17"/>
       <c r="K255" s="10"/>
       <c r="L255" s="21"/>
-      <c r="M255" s="39"/>
+      <c r="M255" s="34"/>
       <c r="N255" s="31">
         <f t="shared" si="3"/>
         <v>4761</v>
@@ -10605,7 +10627,7 @@
       <c r="J256" s="17"/>
       <c r="K256" s="10"/>
       <c r="L256" s="21"/>
-      <c r="M256" s="39"/>
+      <c r="M256" s="34"/>
       <c r="N256" s="31">
         <f t="shared" si="3"/>
         <v>3855</v>
@@ -10642,7 +10664,7 @@
       <c r="J257" s="17"/>
       <c r="K257" s="10"/>
       <c r="L257" s="21"/>
-      <c r="M257" s="39"/>
+      <c r="M257" s="34"/>
       <c r="N257" s="31">
         <f t="shared" si="3"/>
         <v>2844</v>
@@ -10679,7 +10701,7 @@
       <c r="J258" s="17"/>
       <c r="K258" s="10"/>
       <c r="L258" s="21"/>
-      <c r="M258" s="39"/>
+      <c r="M258" s="34"/>
       <c r="N258" s="31">
         <f t="shared" si="3"/>
         <v>4724</v>
@@ -10716,7 +10738,7 @@
       <c r="J259" s="17"/>
       <c r="K259" s="10"/>
       <c r="L259" s="21"/>
-      <c r="M259" s="39"/>
+      <c r="M259" s="34"/>
       <c r="N259" s="31">
         <f t="shared" si="3"/>
         <v>5343</v>
@@ -10753,7 +10775,7 @@
       <c r="J260" s="17"/>
       <c r="K260" s="10"/>
       <c r="L260" s="21"/>
-      <c r="M260" s="39"/>
+      <c r="M260" s="34"/>
       <c r="N260" s="31">
         <f t="shared" si="3"/>
         <v>6481</v>
@@ -10790,7 +10812,7 @@
       <c r="J261" s="17"/>
       <c r="K261" s="10"/>
       <c r="L261" s="21"/>
-      <c r="M261" s="39"/>
+      <c r="M261" s="34"/>
       <c r="N261" s="31">
         <f t="shared" si="3"/>
         <v>6546</v>
@@ -10827,7 +10849,7 @@
       <c r="J262" s="17"/>
       <c r="K262" s="10"/>
       <c r="L262" s="21"/>
-      <c r="M262" s="39"/>
+      <c r="M262" s="34"/>
       <c r="N262" s="31">
         <f t="shared" si="3"/>
         <v>5753</v>
@@ -10864,7 +10886,7 @@
       <c r="J263" s="17"/>
       <c r="K263" s="10"/>
       <c r="L263" s="21"/>
-      <c r="M263" s="39"/>
+      <c r="M263" s="34"/>
       <c r="N263" s="31">
         <f t="shared" ref="N263:N282" si="4">SUM(C263-C262)</f>
         <v>5324</v>
@@ -10914,10 +10936,10 @@
         <v>258437</v>
       </c>
       <c r="D265" s="6">
-        <v>69989</v>
+        <v>70109</v>
       </c>
       <c r="E265" s="10">
-        <v>7273</v>
+        <v>7153</v>
       </c>
       <c r="F265" s="6">
         <v>181175</v>
@@ -14973,10 +14995,10 @@
         <v>824995</v>
       </c>
       <c r="D388" s="6">
-        <v>49805</v>
+        <v>49806</v>
       </c>
       <c r="E388" s="10">
-        <v>20855</v>
+        <v>20854</v>
       </c>
       <c r="F388" s="6">
         <v>754335</v>
@@ -15006,7 +15028,7 @@
         <v>828283</v>
       </c>
       <c r="D389" s="6">
-        <v>49400</v>
+        <v>53048</v>
       </c>
       <c r="E389" s="10">
         <v>20900</v>
@@ -15303,7 +15325,7 @@
         <v>868799</v>
       </c>
       <c r="D398" s="6">
-        <v>57999</v>
+        <v>59709</v>
       </c>
       <c r="E398" s="27">
         <v>21698</v>
@@ -16620,10 +16642,10 @@
         <v>436</v>
       </c>
       <c r="C438" s="10">
-        <v>1046080</v>
+        <v>1046264</v>
       </c>
       <c r="D438" s="6">
-        <v>46210</v>
+        <v>46394</v>
       </c>
       <c r="E438" s="10">
         <v>27394</v>
@@ -16642,7 +16664,7 @@
       </c>
       <c r="N438" s="31">
         <f t="shared" si="7"/>
-        <v>1358</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.25">
@@ -16653,10 +16675,10 @@
         <v>437</v>
       </c>
       <c r="C439" s="10">
-        <v>1047336</v>
+        <v>1047520</v>
       </c>
       <c r="D439" s="6">
-        <v>44122</v>
+        <v>44306</v>
       </c>
       <c r="E439" s="10">
         <v>27511</v>
@@ -16686,10 +16708,10 @@
         <v>438</v>
       </c>
       <c r="C440" s="10">
-        <v>1049355</v>
+        <v>1049539</v>
       </c>
       <c r="D440" s="6">
-        <v>42227</v>
+        <v>42411</v>
       </c>
       <c r="E440" s="10">
         <v>27683</v>
@@ -16719,10 +16741,10 @@
         <v>439</v>
       </c>
       <c r="C441" s="10">
-        <v>1051595</v>
+        <v>1051779</v>
       </c>
       <c r="D441" s="6">
-        <v>40722</v>
+        <v>40906</v>
       </c>
       <c r="E441" s="10">
         <v>27833</v>
@@ -16752,10 +16774,10 @@
         <v>440</v>
       </c>
       <c r="C442" s="10">
-        <v>1053445</v>
+        <v>1053629</v>
       </c>
       <c r="D442" s="6">
-        <v>39647</v>
+        <v>39831</v>
       </c>
       <c r="E442" s="10">
         <v>27971</v>
@@ -16785,10 +16807,10 @@
         <v>441</v>
       </c>
       <c r="C443" s="10">
-        <v>1055081</v>
+        <v>1055265</v>
       </c>
       <c r="D443" s="6">
-        <v>37579</v>
+        <v>37763</v>
       </c>
       <c r="E443" s="10">
         <v>28109</v>
@@ -16818,10 +16840,10 @@
         <v>442</v>
       </c>
       <c r="C444" s="10">
-        <v>1056388</v>
+        <v>1056572</v>
       </c>
       <c r="D444" s="6">
-        <v>35589</v>
+        <v>35773</v>
       </c>
       <c r="E444" s="10">
         <v>28194</v>
@@ -16851,10 +16873,10 @@
         <v>443</v>
       </c>
       <c r="C445" s="10">
-        <v>1057471</v>
+        <v>1057655</v>
       </c>
       <c r="D445" s="6">
-        <v>33683</v>
+        <v>33867</v>
       </c>
       <c r="E445" s="10">
         <v>28282</v>
@@ -16884,10 +16906,10 @@
         <v>444</v>
       </c>
       <c r="C446" s="10">
-        <v>1058153</v>
+        <v>1058337</v>
       </c>
       <c r="D446" s="6">
-        <v>32024</v>
+        <v>32208</v>
       </c>
       <c r="E446" s="10">
         <v>28380</v>
@@ -16904,6 +16926,708 @@
       <c r="N446" s="31">
         <f t="shared" si="7"/>
         <v>682</v>
+      </c>
+    </row>
+    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A447" s="8">
+        <v>44320</v>
+      </c>
+      <c r="B447" s="9">
+        <v>445</v>
+      </c>
+      <c r="C447" s="10">
+        <v>1059331</v>
+      </c>
+      <c r="D447" s="6">
+        <v>30406</v>
+      </c>
+      <c r="E447" s="10">
+        <v>28474</v>
+      </c>
+      <c r="F447" s="6">
+        <v>1000451</v>
+      </c>
+      <c r="G447" s="10">
+        <v>14061</v>
+      </c>
+      <c r="I447" s="2">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A448" s="8">
+        <v>44321</v>
+      </c>
+      <c r="B448" s="9">
+        <v>446</v>
+      </c>
+      <c r="C448" s="10">
+        <v>1060895</v>
+      </c>
+      <c r="D448" s="6">
+        <v>29294</v>
+      </c>
+      <c r="E448" s="10">
+        <v>28616</v>
+      </c>
+      <c r="F448" s="6">
+        <v>1002985</v>
+      </c>
+      <c r="G448" s="10">
+        <v>36982</v>
+      </c>
+      <c r="I448" s="2">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A449" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B449" s="9">
+        <v>447</v>
+      </c>
+      <c r="C449" s="10">
+        <v>1062527</v>
+      </c>
+      <c r="D449" s="6">
+        <v>28194</v>
+      </c>
+      <c r="E449" s="10">
+        <v>28710</v>
+      </c>
+      <c r="F449" s="6">
+        <v>1005623</v>
+      </c>
+      <c r="G449" s="10">
+        <v>38477</v>
+      </c>
+      <c r="I449" s="2">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A450" s="8">
+        <v>44323</v>
+      </c>
+      <c r="B450" s="9">
+        <v>448</v>
+      </c>
+      <c r="C450" s="10">
+        <v>1063949</v>
+      </c>
+      <c r="D450" s="6">
+        <v>25913</v>
+      </c>
+      <c r="E450" s="10">
+        <v>28799</v>
+      </c>
+      <c r="F450" s="6">
+        <v>1009237</v>
+      </c>
+      <c r="G450" s="10">
+        <v>38489</v>
+      </c>
+      <c r="I450" s="2">
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A451" s="8">
+        <v>44324</v>
+      </c>
+      <c r="B451" s="9">
+        <v>449</v>
+      </c>
+      <c r="C451" s="10">
+        <v>1065254</v>
+      </c>
+      <c r="D451" s="6">
+        <v>24657</v>
+      </c>
+      <c r="E451" s="10">
+        <v>28903</v>
+      </c>
+      <c r="F451" s="6">
+        <v>1011694</v>
+      </c>
+      <c r="G451" s="10">
+        <v>37457</v>
+      </c>
+      <c r="I451" s="2">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A452" s="8">
+        <v>44325</v>
+      </c>
+      <c r="B452" s="9">
+        <v>450</v>
+      </c>
+      <c r="C452" s="10">
+        <v>1066111</v>
+      </c>
+      <c r="D452" s="6">
+        <v>23479</v>
+      </c>
+      <c r="E452" s="10">
+        <v>28966</v>
+      </c>
+      <c r="F452" s="6">
+        <v>1013666</v>
+      </c>
+      <c r="G452" s="10">
+        <v>20463</v>
+      </c>
+      <c r="I452" s="2">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A453" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B453" s="9">
+        <v>451</v>
+      </c>
+      <c r="C453" s="10">
+        <v>1066731</v>
+      </c>
+      <c r="D453" s="6">
+        <v>22605</v>
+      </c>
+      <c r="E453" s="10">
+        <v>29034</v>
+      </c>
+      <c r="F453" s="6">
+        <v>1015092</v>
+      </c>
+      <c r="G453" s="10">
+        <v>10743</v>
+      </c>
+      <c r="I453" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A454" s="8">
+        <v>44327</v>
+      </c>
+      <c r="B454" s="9">
+        <v>452</v>
+      </c>
+      <c r="C454" s="10">
+        <v>1067887</v>
+      </c>
+      <c r="D454" s="6">
+        <v>21705</v>
+      </c>
+      <c r="E454" s="10">
+        <v>29135</v>
+      </c>
+      <c r="F454" s="6">
+        <v>1017047</v>
+      </c>
+      <c r="G454" s="10">
+        <v>36195</v>
+      </c>
+      <c r="I454" s="2">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A455" s="8">
+        <v>44328</v>
+      </c>
+      <c r="B455" s="9">
+        <v>453</v>
+      </c>
+      <c r="C455" s="10">
+        <v>1068817</v>
+      </c>
+      <c r="D455" s="6">
+        <v>22537</v>
+      </c>
+      <c r="E455" s="10">
+        <v>29233</v>
+      </c>
+      <c r="F455" s="6">
+        <v>1017047</v>
+      </c>
+      <c r="G455" s="10">
+        <v>34543</v>
+      </c>
+      <c r="I455" s="2">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A456" s="8">
+        <v>44329</v>
+      </c>
+      <c r="B456" s="9">
+        <v>454</v>
+      </c>
+      <c r="C456" s="10">
+        <v>1069770</v>
+      </c>
+      <c r="D456" s="6">
+        <v>20268</v>
+      </c>
+      <c r="E456" s="10">
+        <v>29308</v>
+      </c>
+      <c r="F456" s="6">
+        <v>1020194</v>
+      </c>
+      <c r="G456" s="10">
+        <v>33222</v>
+      </c>
+      <c r="I456" s="2">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A457" s="8">
+        <v>44330</v>
+      </c>
+      <c r="B457" s="9">
+        <v>455</v>
+      </c>
+      <c r="C457" s="10">
+        <v>1070605</v>
+      </c>
+      <c r="D457" s="6">
+        <v>19163</v>
+      </c>
+      <c r="E457" s="10">
+        <v>29413</v>
+      </c>
+      <c r="F457" s="6">
+        <v>1022029</v>
+      </c>
+      <c r="G457" s="10">
+        <v>34616</v>
+      </c>
+      <c r="I457" s="2">
+        <v>7.6999999999999996E-4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A458" s="8">
+        <v>44331</v>
+      </c>
+      <c r="B458" s="9">
+        <v>456</v>
+      </c>
+      <c r="C458" s="10">
+        <v>1071334</v>
+      </c>
+      <c r="D458" s="6">
+        <v>18027</v>
+      </c>
+      <c r="E458" s="10">
+        <v>29485</v>
+      </c>
+      <c r="F458" s="6">
+        <v>1023822</v>
+      </c>
+      <c r="G458" s="10">
+        <v>32709</v>
+      </c>
+      <c r="I458" s="2">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A459" s="8">
+        <v>44332</v>
+      </c>
+      <c r="B459" s="9">
+        <v>457</v>
+      </c>
+      <c r="C459" s="10">
+        <v>1071899</v>
+      </c>
+      <c r="D459" s="6">
+        <v>17231</v>
+      </c>
+      <c r="E459" s="10">
+        <v>29523</v>
+      </c>
+      <c r="F459" s="6">
+        <v>1025145</v>
+      </c>
+      <c r="G459" s="10">
+        <v>18749</v>
+      </c>
+      <c r="I459" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A460" s="8">
+        <v>44333</v>
+      </c>
+      <c r="B460" s="9">
+        <v>458</v>
+      </c>
+      <c r="C460" s="10">
+        <v>1072291</v>
+      </c>
+      <c r="D460" s="6">
+        <v>16421</v>
+      </c>
+      <c r="E460" s="10">
+        <v>29571</v>
+      </c>
+      <c r="F460" s="6">
+        <v>1026299</v>
+      </c>
+      <c r="G460" s="10">
+        <v>11365</v>
+      </c>
+      <c r="I460" s="2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A461" s="8">
+        <v>44334</v>
+      </c>
+      <c r="B461" s="9">
+        <v>459</v>
+      </c>
+      <c r="C461" s="10">
+        <v>1072972</v>
+      </c>
+      <c r="D461" s="6">
+        <v>15898</v>
+      </c>
+      <c r="E461" s="10">
+        <v>29662</v>
+      </c>
+      <c r="F461" s="6">
+        <v>1027412</v>
+      </c>
+      <c r="G461" s="10">
+        <v>32151</v>
+      </c>
+      <c r="I461" s="2">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A462" s="8">
+        <v>44335</v>
+      </c>
+      <c r="B462" s="9">
+        <v>460</v>
+      </c>
+      <c r="C462" s="10">
+        <v>1073679</v>
+      </c>
+      <c r="D462" s="6">
+        <v>15409</v>
+      </c>
+      <c r="E462" s="10">
+        <v>29716</v>
+      </c>
+      <c r="F462" s="6">
+        <v>1028554</v>
+      </c>
+      <c r="G462" s="10">
+        <v>31574</v>
+      </c>
+      <c r="I462" s="2">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A463" s="8">
+        <v>44336</v>
+      </c>
+      <c r="B463" s="9">
+        <v>461</v>
+      </c>
+      <c r="C463" s="10">
+        <v>1074297</v>
+      </c>
+      <c r="D463" s="6">
+        <v>15145</v>
+      </c>
+      <c r="E463" s="10">
+        <v>29777</v>
+      </c>
+      <c r="F463" s="6">
+        <v>1029375</v>
+      </c>
+      <c r="G463" s="10">
+        <v>31252</v>
+      </c>
+      <c r="I463" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A464" s="8">
+        <v>44337</v>
+      </c>
+      <c r="B464" s="9">
+        <v>462</v>
+      </c>
+      <c r="C464" s="10">
+        <v>1074781</v>
+      </c>
+      <c r="D464" s="6">
+        <v>14818</v>
+      </c>
+      <c r="E464" s="10">
+        <v>29826</v>
+      </c>
+      <c r="F464" s="6">
+        <v>1030137</v>
+      </c>
+      <c r="G464" s="10">
+        <v>34213</v>
+      </c>
+      <c r="I464" s="2">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A465" s="8">
+        <v>44338</v>
+      </c>
+      <c r="B465" s="9">
+        <v>463</v>
+      </c>
+      <c r="C465" s="10">
+        <v>1075236</v>
+      </c>
+      <c r="D465" s="6">
+        <v>13746</v>
+      </c>
+      <c r="E465" s="10">
+        <v>29885</v>
+      </c>
+      <c r="F465" s="6">
+        <v>1031605</v>
+      </c>
+      <c r="G465" s="10">
+        <v>28724</v>
+      </c>
+      <c r="I465" s="2">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A466" s="8">
+        <v>44339</v>
+      </c>
+      <c r="B466" s="9">
+        <v>464</v>
+      </c>
+      <c r="C466" s="10">
+        <v>1075543</v>
+      </c>
+      <c r="D466" s="6">
+        <v>12714</v>
+      </c>
+      <c r="E466" s="10">
+        <v>29941</v>
+      </c>
+      <c r="F466" s="6">
+        <v>1032888</v>
+      </c>
+      <c r="G466" s="10">
+        <v>18478</v>
+      </c>
+      <c r="I466" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A467" s="8">
+        <v>44340</v>
+      </c>
+      <c r="B467" s="9">
+        <v>465</v>
+      </c>
+      <c r="C467" s="10">
+        <v>1075773</v>
+      </c>
+      <c r="D467" s="6">
+        <v>11812</v>
+      </c>
+      <c r="E467" s="10">
+        <v>29977</v>
+      </c>
+      <c r="F467" s="6">
+        <v>1033984</v>
+      </c>
+      <c r="G467" s="10">
+        <v>10487</v>
+      </c>
+      <c r="I467" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A468" s="8">
+        <v>44341</v>
+      </c>
+      <c r="B468" s="9">
+        <v>466</v>
+      </c>
+      <c r="C468" s="10">
+        <v>1076154</v>
+      </c>
+      <c r="D468" s="6">
+        <v>10999</v>
+      </c>
+      <c r="E468" s="10">
+        <v>30040</v>
+      </c>
+      <c r="F468" s="6">
+        <v>1035115</v>
+      </c>
+      <c r="G468" s="10">
+        <v>31807</v>
+      </c>
+      <c r="I468" s="2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A469" s="8">
+        <v>44342</v>
+      </c>
+      <c r="B469" s="9">
+        <v>467</v>
+      </c>
+      <c r="C469" s="10">
+        <v>1076533</v>
+      </c>
+      <c r="D469" s="6">
+        <v>10539</v>
+      </c>
+      <c r="E469" s="10">
+        <v>30092</v>
+      </c>
+      <c r="F469" s="6">
+        <v>1035902</v>
+      </c>
+      <c r="G469" s="10">
+        <v>33057</v>
+      </c>
+      <c r="I469" s="2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A470" s="8">
+        <v>44343</v>
+      </c>
+      <c r="B470" s="9">
+        <v>468</v>
+      </c>
+      <c r="C470" s="10">
+        <v>1076840</v>
+      </c>
+      <c r="D470" s="6">
+        <v>10063</v>
+      </c>
+      <c r="E470" s="10">
+        <v>30131</v>
+      </c>
+      <c r="F470" s="6">
+        <v>1036646</v>
+      </c>
+      <c r="G470" s="10">
+        <v>31150</v>
+      </c>
+      <c r="I470" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A471" s="8">
+        <v>44344</v>
+      </c>
+      <c r="B471" s="9">
+        <v>469</v>
+      </c>
+      <c r="C471" s="10">
+        <v>1077161</v>
+      </c>
+      <c r="D471" s="6">
+        <v>9258</v>
+      </c>
+      <c r="E471" s="10">
+        <v>30174</v>
+      </c>
+      <c r="F471" s="6">
+        <v>1037729</v>
+      </c>
+      <c r="G471" s="10">
+        <v>32868</v>
+      </c>
+      <c r="I471" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A472" s="8">
+        <v>44345</v>
+      </c>
+      <c r="B472" s="9">
+        <v>470</v>
+      </c>
+      <c r="C472" s="10">
+        <v>1077426</v>
+      </c>
+      <c r="D472" s="6">
+        <v>8640</v>
+      </c>
+      <c r="E472" s="10">
+        <v>30247</v>
+      </c>
+      <c r="F472" s="6">
+        <v>1038539</v>
+      </c>
+      <c r="G472" s="10">
+        <v>28992</v>
+      </c>
+      <c r="I472" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A473" s="8">
+        <v>44346</v>
+      </c>
+      <c r="B473" s="9">
+        <v>471</v>
+      </c>
+      <c r="C473" s="10">
+        <v>1077584</v>
+      </c>
+      <c r="D473" s="6">
+        <v>8135</v>
+      </c>
+      <c r="E473" s="10">
+        <v>30276</v>
+      </c>
+      <c r="F473" s="6">
+        <v>1039173</v>
+      </c>
+      <c r="G473" s="10">
+        <v>16973</v>
+      </c>
+      <c r="I473" s="2">
+        <v>1E-4</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Norbert/Cazuri.xlsx
+++ b/Database/Norbert/Cazuri.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Facultate\Licenta\Baza date liceta\Licenta_covid19_UTCN\Database\Norbert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai\Desktop\repository licenta\Licenta_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9292BB-0EE1-4655-887F-B5BF41CCE28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951E568D-48E8-447D-8161-70C441F62096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3D40AD38-2117-48DA-BB6F-ACACFA23F30F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3D40AD38-2117-48DA-BB6F-ACACFA23F30F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -264,12 +273,6 @@
     <t>26-2-apr-mai</t>
   </si>
   <si>
-    <t>Cazuri</t>
-  </si>
-  <si>
-    <t>noi</t>
-  </si>
-  <si>
     <t>3-9-mai</t>
   </si>
   <si>
@@ -280,6 +283,12 @@
   </si>
   <si>
     <t>24-30 mai</t>
+  </si>
+  <si>
+    <t>Cazuri</t>
+  </si>
+  <si>
+    <t>noi</t>
   </si>
 </sst>
 </file>
@@ -348,7 +357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -397,11 +406,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -499,13 +569,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,6 +600,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -837,13 +925,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7C75F8-1448-4344-BF9C-C0D44A9031E9}">
-  <dimension ref="A1:N473"/>
+  <dimension ref="A1:O473"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J66" sqref="J66"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,38 +949,40 @@
     <col min="11" max="11" width="20.42578125" style="2" customWidth="1"/>
     <col min="12" max="12" width="16.5703125" style="23" customWidth="1"/>
     <col min="13" max="13" width="20" style="20" customWidth="1"/>
-    <col min="14" max="16384" width="8.7109375" style="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37"/>
+      <c r="H1" s="40"/>
       <c r="I1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="39" t="s">
+      <c r="K1" s="41"/>
+      <c r="L1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="40"/>
-      <c r="N1" s="33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M1" s="43"/>
+      <c r="N1" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" s="35"/>
+    </row>
+    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -929,14 +1019,15 @@
       <c r="L2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N2" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="44"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>43876</v>
       </c>
@@ -973,14 +1064,15 @@
       <c r="L3" s="22">
         <v>3</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="31">
+      <c r="N3" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O3" s="36"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>43877</v>
       </c>
@@ -1017,15 +1109,15 @@
       <c r="L4" s="21">
         <v>12</v>
       </c>
-      <c r="M4" s="35" t="s">
+      <c r="M4" s="34" t="s">
         <v>17</v>
       </c>
       <c r="N4" s="31">
-        <f>SUM(C4-C3)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O4" s="35"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>43878</v>
       </c>
@@ -1062,15 +1154,15 @@
       <c r="L5" s="22">
         <v>124</v>
       </c>
-      <c r="M5" s="35" t="s">
+      <c r="M5" s="34" t="s">
         <v>18</v>
       </c>
       <c r="N5" s="31">
-        <f>SUM(C5-C4)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O5" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>43879</v>
       </c>
@@ -1107,15 +1199,15 @@
       <c r="L6" s="21">
         <v>294</v>
       </c>
-      <c r="M6" s="35" t="s">
+      <c r="M6" s="34" t="s">
         <v>19</v>
       </c>
       <c r="N6" s="31">
-        <f>SUM(C6-C5)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O6" s="35"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>43880</v>
       </c>
@@ -1152,15 +1244,15 @@
       <c r="L7" s="22">
         <v>1327</v>
       </c>
-      <c r="M7" s="35" t="s">
+      <c r="M7" s="34" t="s">
         <v>20</v>
       </c>
       <c r="N7" s="31">
-        <f t="shared" ref="N7:N70" si="0">SUM(C7-C6)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O7" s="35"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>43881</v>
       </c>
@@ -1197,15 +1289,14 @@
       <c r="L8" s="21">
         <v>2104</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="M8" s="34" t="s">
         <v>21</v>
       </c>
       <c r="N8" s="31">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>43882</v>
       </c>
@@ -1242,15 +1333,14 @@
       <c r="L9" s="22">
         <v>2436</v>
       </c>
-      <c r="M9" s="35" t="s">
+      <c r="M9" s="34" t="s">
         <v>22</v>
       </c>
       <c r="N9" s="31">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>43883</v>
       </c>
@@ -1287,15 +1377,15 @@
       <c r="L10" s="21">
         <v>2446</v>
       </c>
-      <c r="M10" s="35" t="s">
+      <c r="M10" s="34" t="s">
         <v>23</v>
       </c>
       <c r="N10" s="31">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O10" s="36"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43884</v>
       </c>
@@ -1332,15 +1422,14 @@
       <c r="L11" s="22">
         <v>2290</v>
       </c>
-      <c r="M11" s="35" t="s">
+      <c r="M11" s="34" t="s">
         <v>24</v>
       </c>
       <c r="N11" s="31">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>43885</v>
       </c>
@@ -1373,15 +1462,14 @@
       <c r="L12" s="21">
         <v>2127</v>
       </c>
-      <c r="M12" s="35" t="s">
+      <c r="M12" s="34" t="s">
         <v>25</v>
       </c>
       <c r="N12" s="31">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43886</v>
       </c>
@@ -1414,15 +1502,14 @@
       <c r="L13" s="22">
         <v>2199</v>
       </c>
-      <c r="M13" s="35" t="s">
+      <c r="M13" s="34" t="s">
         <v>26</v>
       </c>
       <c r="N13" s="31">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>43887</v>
       </c>
@@ -1455,15 +1542,14 @@
       <c r="L14" s="21">
         <v>1509</v>
       </c>
-      <c r="M14" s="35" t="s">
+      <c r="M14" s="34" t="s">
         <v>27</v>
       </c>
       <c r="N14" s="31">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>43888</v>
       </c>
@@ -1496,15 +1582,14 @@
       <c r="L15" s="22">
         <v>1199</v>
       </c>
-      <c r="M15" s="35" t="s">
+      <c r="M15" s="34" t="s">
         <v>28</v>
       </c>
       <c r="N15" s="31">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>43889</v>
       </c>
@@ -1537,11 +1622,10 @@
       <c r="L16" s="21">
         <v>1187</v>
       </c>
-      <c r="M16" s="35" t="s">
+      <c r="M16" s="34" t="s">
         <v>29</v>
       </c>
       <c r="N16" s="31">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1578,11 +1662,10 @@
       <c r="L17" s="22">
         <v>1222</v>
       </c>
-      <c r="M17" s="35" t="s">
+      <c r="M17" s="34" t="s">
         <v>30</v>
       </c>
       <c r="N17" s="31">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1619,11 +1702,10 @@
       <c r="L18" s="21">
         <v>1520</v>
       </c>
-      <c r="M18" s="35" t="s">
+      <c r="M18" s="34" t="s">
         <v>31</v>
       </c>
       <c r="N18" s="31">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1660,11 +1742,10 @@
       <c r="L19" s="22">
         <v>2046</v>
       </c>
-      <c r="M19" s="35" t="s">
+      <c r="M19" s="34" t="s">
         <v>32</v>
       </c>
       <c r="N19" s="31">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1701,11 +1782,10 @@
       <c r="L20" s="21">
         <v>2268</v>
       </c>
-      <c r="M20" s="35" t="s">
+      <c r="M20" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="N20" s="31">
-        <f t="shared" si="0"/>
+      <c r="N20" s="29">
         <v>1</v>
       </c>
     </row>
@@ -1742,11 +1822,10 @@
       <c r="L21" s="22">
         <v>2660</v>
       </c>
-      <c r="M21" s="35" t="s">
+      <c r="M21" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="N21" s="31">
-        <f t="shared" si="0"/>
+      <c r="N21" s="29">
         <v>2</v>
       </c>
     </row>
@@ -1783,11 +1862,10 @@
       <c r="L22" s="21">
         <v>3562</v>
       </c>
-      <c r="M22" s="35" t="s">
+      <c r="M22" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="N22" s="31">
-        <f t="shared" si="0"/>
+      <c r="N22" s="29">
         <v>1</v>
       </c>
     </row>
@@ -1824,11 +1902,10 @@
       <c r="L23" s="22">
         <v>4923</v>
       </c>
-      <c r="M23" s="35" t="s">
+      <c r="M23" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="N23" s="31">
-        <f t="shared" si="0"/>
+      <c r="N23" s="29">
         <v>2</v>
       </c>
     </row>
@@ -1865,11 +1942,10 @@
       <c r="L24" s="21">
         <v>7340</v>
       </c>
-      <c r="M24" s="35" t="s">
+      <c r="M24" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="N24" s="31">
-        <f t="shared" si="0"/>
+      <c r="N24" s="29">
         <v>4</v>
       </c>
     </row>
@@ -1906,11 +1982,10 @@
       <c r="L25" s="22">
         <v>8388</v>
       </c>
-      <c r="M25" s="35" t="s">
+      <c r="M25" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="N25" s="31">
-        <f t="shared" si="0"/>
+      <c r="N25" s="29">
         <v>2</v>
       </c>
     </row>
@@ -1947,11 +2022,10 @@
       <c r="L26" s="21">
         <v>8582</v>
       </c>
-      <c r="M26" s="35" t="s">
+      <c r="M26" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="N26" s="31">
-        <f t="shared" si="0"/>
+      <c r="N26" s="29">
         <v>2</v>
       </c>
     </row>
@@ -1988,11 +2062,10 @@
       <c r="L27" s="22">
         <v>8693</v>
       </c>
-      <c r="M27" s="35" t="s">
+      <c r="M27" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="N27" s="31">
-        <f t="shared" si="0"/>
+      <c r="N27" s="29">
         <v>12</v>
       </c>
     </row>
@@ -2029,11 +2102,10 @@
       <c r="L28" s="21">
         <v>8804</v>
       </c>
-      <c r="M28" s="35" t="s">
+      <c r="M28" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="N28" s="31">
-        <f t="shared" si="0"/>
+      <c r="N28" s="29">
         <v>18</v>
       </c>
     </row>
@@ -2070,11 +2142,10 @@
       <c r="L29" s="21">
         <v>8280</v>
       </c>
-      <c r="M29" s="34" t="s">
+      <c r="M29" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="N29" s="31">
-        <f t="shared" si="0"/>
+      <c r="N29" s="29">
         <v>12</v>
       </c>
     </row>
@@ -2111,11 +2182,10 @@
       <c r="L30" s="21">
         <v>8229</v>
       </c>
-      <c r="M30" s="34" t="s">
+      <c r="M30" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="N30" s="31">
-        <f t="shared" si="0"/>
+      <c r="N30" s="29">
         <v>36</v>
       </c>
     </row>
@@ -2152,11 +2222,10 @@
       <c r="L31" s="21">
         <v>8484</v>
       </c>
-      <c r="M31" s="34" t="s">
+      <c r="M31" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="N31" s="31">
-        <f t="shared" si="0"/>
+      <c r="N31" s="29">
         <v>28</v>
       </c>
     </row>
@@ -2193,11 +2262,10 @@
       <c r="L32" s="21">
         <v>9286</v>
       </c>
-      <c r="M32" s="34" t="s">
+      <c r="M32" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="N32" s="31">
-        <f t="shared" si="0"/>
+      <c r="N32" s="29">
         <v>16</v>
       </c>
     </row>
@@ -2234,11 +2302,10 @@
       <c r="L33" s="21">
         <v>9892</v>
       </c>
-      <c r="M33" s="34" t="s">
+      <c r="M33" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="N33" s="31">
-        <f t="shared" si="0"/>
+      <c r="N33" s="29">
         <v>29</v>
       </c>
     </row>
@@ -2275,11 +2342,10 @@
       <c r="L34" s="21">
         <v>13227</v>
       </c>
-      <c r="M34" s="34" t="s">
+      <c r="M34" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="N34" s="31">
-        <f t="shared" si="0"/>
+      <c r="N34" s="29">
         <v>49</v>
       </c>
     </row>
@@ -2316,11 +2382,10 @@
       <c r="L35" s="21">
         <v>19383</v>
       </c>
-      <c r="M35" s="34" t="s">
+      <c r="M35" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="N35" s="31">
-        <f t="shared" si="0"/>
+      <c r="N35" s="29">
         <v>43</v>
       </c>
     </row>
@@ -2357,11 +2422,10 @@
       <c r="L36" s="21">
         <v>25105</v>
       </c>
-      <c r="M36" s="34" t="s">
+      <c r="M36" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="N36" s="31">
-        <f t="shared" si="0"/>
+      <c r="N36" s="29">
         <v>17</v>
       </c>
     </row>
@@ -2398,11 +2462,10 @@
       <c r="L37" s="21">
         <v>29260</v>
       </c>
-      <c r="M37" s="34" t="s">
+      <c r="M37" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="N37" s="31">
-        <f t="shared" si="0"/>
+      <c r="N37" s="29">
         <v>31</v>
       </c>
     </row>
@@ -2439,11 +2502,10 @@
       <c r="L38" s="21">
         <v>37015</v>
       </c>
-      <c r="M38" s="34" t="s">
+      <c r="M38" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="N38" s="31">
-        <f t="shared" si="0"/>
+      <c r="N38" s="29">
         <v>59</v>
       </c>
     </row>
@@ -2480,11 +2542,10 @@
       <c r="L39" s="21">
         <v>57088</v>
       </c>
-      <c r="M39" s="34" t="s">
+      <c r="M39" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="N39" s="31">
-        <f t="shared" si="0"/>
+      <c r="N39" s="29">
         <v>66</v>
       </c>
     </row>
@@ -2521,11 +2582,10 @@
       <c r="L40" s="21">
         <v>56530</v>
       </c>
-      <c r="M40" s="34" t="s">
+      <c r="M40" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="N40" s="31">
-        <f t="shared" si="0"/>
+      <c r="N40" s="29">
         <v>143</v>
       </c>
     </row>
@@ -2562,11 +2622,10 @@
       <c r="L41" s="21">
         <v>58364</v>
       </c>
-      <c r="M41" s="34" t="s">
+      <c r="M41" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="N41" s="31">
-        <f t="shared" si="0"/>
+      <c r="N41" s="29">
         <v>186</v>
       </c>
     </row>
@@ -2603,11 +2662,10 @@
       <c r="L42" s="21">
         <v>52891</v>
       </c>
-      <c r="M42" s="34" t="s">
+      <c r="M42" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="N42" s="31">
-        <f t="shared" si="0"/>
+      <c r="N42" s="29">
         <v>144</v>
       </c>
     </row>
@@ -2644,11 +2702,10 @@
       <c r="L43" s="21">
         <v>42040</v>
       </c>
-      <c r="M43" s="34" t="s">
+      <c r="M43" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="N43" s="31">
-        <f t="shared" si="0"/>
+      <c r="N43" s="29">
         <v>123</v>
       </c>
     </row>
@@ -2685,11 +2742,10 @@
       <c r="L44" s="21">
         <v>42759</v>
       </c>
-      <c r="M44" s="34" t="s">
+      <c r="M44" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="N44" s="31">
-        <f t="shared" si="0"/>
+      <c r="N44" s="29">
         <v>263</v>
       </c>
     </row>
@@ -2726,11 +2782,10 @@
       <c r="L45" s="21">
         <v>34959</v>
       </c>
-      <c r="M45" s="34" t="s">
+      <c r="M45" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="N45" s="31">
-        <f t="shared" si="0"/>
+      <c r="N45" s="29">
         <v>160</v>
       </c>
     </row>
@@ -2767,11 +2822,10 @@
       <c r="L46" s="21">
         <v>24515</v>
       </c>
-      <c r="M46" s="34" t="s">
+      <c r="M46" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N46" s="31">
-        <f t="shared" si="0"/>
+      <c r="N46" s="29">
         <v>308</v>
       </c>
     </row>
@@ -2808,11 +2862,10 @@
       <c r="L47" s="21">
         <v>24620</v>
       </c>
-      <c r="M47" s="34" t="s">
+      <c r="M47" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="N47" s="31">
-        <f t="shared" si="0"/>
+      <c r="N47" s="29">
         <v>192</v>
       </c>
     </row>
@@ -2849,11 +2902,10 @@
       <c r="L48" s="21">
         <v>30855</v>
       </c>
-      <c r="M48" s="34" t="s">
+      <c r="M48" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="N48" s="31">
-        <f t="shared" si="0"/>
+      <c r="N48" s="29">
         <v>293</v>
       </c>
     </row>
@@ -2890,11 +2942,10 @@
       <c r="L49" s="21">
         <v>22360</v>
       </c>
-      <c r="M49" s="34" t="s">
+      <c r="M49" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="N49" s="31">
-        <f t="shared" si="0"/>
+      <c r="N49" s="29">
         <v>215</v>
       </c>
     </row>
@@ -2931,11 +2982,10 @@
       <c r="L50" s="21">
         <v>17366</v>
       </c>
-      <c r="M50" s="34" t="s">
+      <c r="M50" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="N50" s="31">
-        <f t="shared" si="0"/>
+      <c r="N50" s="29">
         <v>278</v>
       </c>
     </row>
@@ -2972,11 +3022,10 @@
       <c r="L51" s="21">
         <v>17733</v>
       </c>
-      <c r="M51" s="34" t="s">
+      <c r="M51" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="N51" s="31">
-        <f t="shared" si="0"/>
+      <c r="N51" s="29">
         <v>445</v>
       </c>
     </row>
@@ -3013,11 +3062,10 @@
       <c r="L52" s="21">
         <v>16575</v>
       </c>
-      <c r="M52" s="34" t="s">
+      <c r="M52" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="N52" s="31">
-        <f t="shared" si="0"/>
+      <c r="N52" s="29">
         <v>430</v>
       </c>
     </row>
@@ -3054,11 +3102,10 @@
       <c r="L53" s="21">
         <v>16645</v>
       </c>
-      <c r="M53" s="34" t="s">
+      <c r="M53" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="N53" s="31">
-        <f t="shared" si="0"/>
+      <c r="N53" s="29">
         <v>251</v>
       </c>
     </row>
@@ -3095,11 +3142,10 @@
       <c r="L54" s="21">
         <v>17732</v>
       </c>
-      <c r="M54" s="34" t="s">
+      <c r="M54" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="N54" s="31">
-        <f t="shared" si="0"/>
+      <c r="N54" s="29">
         <v>193</v>
       </c>
     </row>
@@ -3136,11 +3182,10 @@
       <c r="L55" s="21">
         <v>22299</v>
       </c>
-      <c r="M55" s="34" t="s">
+      <c r="M55" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="N55" s="31">
-        <f t="shared" si="0"/>
+      <c r="N55" s="29">
         <v>360</v>
       </c>
     </row>
@@ -3177,11 +3222,10 @@
       <c r="L56" s="21">
         <v>26289</v>
       </c>
-      <c r="M56" s="34" t="s">
+      <c r="M56" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="N56" s="31">
-        <f t="shared" si="0"/>
+      <c r="N56" s="29">
         <v>344</v>
       </c>
     </row>
@@ -3218,11 +3262,10 @@
       <c r="L57" s="21">
         <v>31426</v>
       </c>
-      <c r="M57" s="34" t="s">
+      <c r="M57" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="N57" s="31">
-        <f t="shared" si="0"/>
+      <c r="N57" s="29">
         <v>441</v>
       </c>
     </row>
@@ -3259,11 +3302,10 @@
       <c r="L58" s="21">
         <v>37406</v>
       </c>
-      <c r="M58" s="34" t="s">
+      <c r="M58" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="N58" s="31">
-        <f t="shared" si="0"/>
+      <c r="N58" s="29">
         <v>265</v>
       </c>
     </row>
@@ -3300,11 +3342,10 @@
       <c r="L59" s="21">
         <v>39503</v>
       </c>
-      <c r="M59" s="34" t="s">
+      <c r="M59" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="N59" s="31">
-        <f t="shared" si="0"/>
+      <c r="N59" s="29">
         <v>523</v>
       </c>
     </row>
@@ -3341,11 +3382,10 @@
       <c r="L60" s="21">
         <v>37757</v>
       </c>
-      <c r="M60" s="34" t="s">
+      <c r="M60" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="N60" s="31">
-        <f t="shared" si="0"/>
+      <c r="N60" s="29">
         <v>310</v>
       </c>
     </row>
@@ -3382,11 +3422,10 @@
       <c r="L61" s="21">
         <v>31792</v>
       </c>
-      <c r="M61" s="34" t="s">
+      <c r="M61" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="N61" s="31">
-        <f t="shared" si="0"/>
+      <c r="N61" s="29">
         <v>333</v>
       </c>
     </row>
@@ -3423,11 +3462,10 @@
       <c r="L62" s="21">
         <v>23137</v>
       </c>
-      <c r="M62" s="34" t="s">
+      <c r="M62" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="N62" s="31">
-        <f t="shared" si="0"/>
+      <c r="N62" s="29">
         <v>246</v>
       </c>
     </row>
@@ -3464,11 +3502,10 @@
       <c r="L63" s="21">
         <v>16960</v>
       </c>
-      <c r="M63" s="34" t="s">
+      <c r="M63" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="N63" s="31">
-        <f t="shared" si="0"/>
+      <c r="N63" s="29">
         <v>337</v>
       </c>
     </row>
@@ -3505,11 +3542,10 @@
       <c r="L64" s="21">
         <v>11391</v>
       </c>
-      <c r="M64" s="34" t="s">
+      <c r="M64" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="N64" s="31">
-        <f t="shared" si="0"/>
+      <c r="N64" s="29">
         <v>491</v>
       </c>
     </row>
@@ -3546,11 +3582,10 @@
       <c r="L65" s="21">
         <v>8456</v>
       </c>
-      <c r="M65" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="N65" s="31">
-        <f t="shared" si="0"/>
+      <c r="M65" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="N65" s="29">
         <v>360</v>
       </c>
     </row>
@@ -3587,11 +3622,10 @@
       <c r="L66" s="21">
         <v>5788</v>
       </c>
-      <c r="M66" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="N66" s="31">
-        <f t="shared" si="0"/>
+      <c r="M66" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="N66" s="29">
         <v>351</v>
       </c>
     </row>
@@ -3628,11 +3662,10 @@
       <c r="L67" s="21">
         <v>3644</v>
       </c>
-      <c r="M67" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="N67" s="31">
-        <f t="shared" si="0"/>
+      <c r="M67" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="N67" s="29">
         <v>328</v>
       </c>
     </row>
@@ -3669,11 +3702,10 @@
       <c r="L68" s="21">
         <v>2041</v>
       </c>
-      <c r="M68" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="N68" s="31">
-        <f t="shared" si="0"/>
+      <c r="M68" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="N68" s="29">
         <v>190</v>
       </c>
     </row>
@@ -3708,9 +3740,8 @@
       <c r="J69" s="15"/>
       <c r="K69" s="11"/>
       <c r="L69" s="21"/>
-      <c r="M69" s="34"/>
-      <c r="N69" s="31">
-        <f t="shared" si="0"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="29">
         <v>306</v>
       </c>
     </row>
@@ -3745,9 +3776,8 @@
       <c r="J70" s="15"/>
       <c r="K70" s="11"/>
       <c r="L70" s="21"/>
-      <c r="M70" s="34"/>
-      <c r="N70" s="31">
-        <f t="shared" si="0"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="29">
         <v>468</v>
       </c>
     </row>
@@ -3782,9 +3812,8 @@
       <c r="J71" s="15"/>
       <c r="K71" s="11"/>
       <c r="L71" s="21"/>
-      <c r="M71" s="34"/>
-      <c r="N71" s="31">
-        <f t="shared" ref="N71:N134" si="1">SUM(C71-C70)</f>
+      <c r="M71" s="33"/>
+      <c r="N71" s="29">
         <v>386</v>
       </c>
     </row>
@@ -3819,9 +3848,8 @@
       <c r="J72" s="15"/>
       <c r="K72" s="11"/>
       <c r="L72" s="21"/>
-      <c r="M72" s="34"/>
-      <c r="N72" s="31">
-        <f t="shared" si="1"/>
+      <c r="M72" s="33"/>
+      <c r="N72" s="29">
         <v>321</v>
       </c>
     </row>
@@ -3856,9 +3884,8 @@
       <c r="J73" s="15"/>
       <c r="K73" s="11"/>
       <c r="L73" s="21"/>
-      <c r="M73" s="34"/>
-      <c r="N73" s="31">
-        <f t="shared" si="1"/>
+      <c r="M73" s="33"/>
+      <c r="N73" s="29">
         <v>218</v>
       </c>
     </row>
@@ -3893,9 +3920,8 @@
       <c r="J74" s="15"/>
       <c r="K74" s="11"/>
       <c r="L74" s="21"/>
-      <c r="M74" s="34"/>
-      <c r="N74" s="31">
-        <f t="shared" si="1"/>
+      <c r="M74" s="33"/>
+      <c r="N74" s="29">
         <v>401</v>
       </c>
     </row>
@@ -3930,9 +3956,8 @@
       <c r="J75" s="15"/>
       <c r="K75" s="11"/>
       <c r="L75" s="21"/>
-      <c r="M75" s="34"/>
-      <c r="N75" s="31">
-        <f t="shared" si="1"/>
+      <c r="M75" s="33"/>
+      <c r="N75" s="29">
         <v>303</v>
       </c>
     </row>
@@ -3967,9 +3992,8 @@
       <c r="J76" s="15"/>
       <c r="K76" s="11"/>
       <c r="L76" s="21"/>
-      <c r="M76" s="34"/>
-      <c r="N76" s="31">
-        <f t="shared" si="1"/>
+      <c r="M76" s="33"/>
+      <c r="N76" s="29">
         <v>277</v>
       </c>
     </row>
@@ -4004,9 +4028,8 @@
       <c r="J77" s="15"/>
       <c r="K77" s="11"/>
       <c r="L77" s="21"/>
-      <c r="M77" s="34"/>
-      <c r="N77" s="31">
-        <f t="shared" si="1"/>
+      <c r="M77" s="33"/>
+      <c r="N77" s="29">
         <v>362</v>
       </c>
     </row>
@@ -4041,9 +4064,8 @@
       <c r="J78" s="15"/>
       <c r="K78" s="11"/>
       <c r="L78" s="21"/>
-      <c r="M78" s="34"/>
-      <c r="N78" s="31">
-        <f t="shared" si="1"/>
+      <c r="M78" s="33"/>
+      <c r="N78" s="29">
         <v>262</v>
       </c>
     </row>
@@ -4078,9 +4100,8 @@
       <c r="J79" s="15"/>
       <c r="K79" s="11"/>
       <c r="L79" s="21"/>
-      <c r="M79" s="34"/>
-      <c r="N79" s="31">
-        <f t="shared" si="1"/>
+      <c r="M79" s="33"/>
+      <c r="N79" s="29">
         <v>327</v>
       </c>
     </row>
@@ -4115,9 +4136,8 @@
       <c r="J80" s="15"/>
       <c r="K80" s="11"/>
       <c r="L80" s="21"/>
-      <c r="M80" s="34"/>
-      <c r="N80" s="31">
-        <f t="shared" si="1"/>
+      <c r="M80" s="33"/>
+      <c r="N80" s="29">
         <v>165</v>
       </c>
     </row>
@@ -4152,9 +4172,8 @@
       <c r="J81" s="15"/>
       <c r="K81" s="11"/>
       <c r="L81" s="21"/>
-      <c r="M81" s="34"/>
-      <c r="N81" s="31">
-        <f t="shared" si="1"/>
+      <c r="M81" s="33"/>
+      <c r="N81" s="29">
         <v>431</v>
       </c>
     </row>
@@ -4189,9 +4208,8 @@
       <c r="J82" s="15"/>
       <c r="K82" s="11"/>
       <c r="L82" s="21"/>
-      <c r="M82" s="34"/>
-      <c r="N82" s="31">
-        <f t="shared" si="1"/>
+      <c r="M82" s="33"/>
+      <c r="N82" s="29">
         <v>349</v>
       </c>
     </row>
@@ -4226,9 +4244,8 @@
       <c r="J83" s="15"/>
       <c r="K83" s="11"/>
       <c r="L83" s="21"/>
-      <c r="M83" s="34"/>
-      <c r="N83" s="31">
-        <f t="shared" si="1"/>
+      <c r="M83" s="33"/>
+      <c r="N83" s="29">
         <v>325</v>
       </c>
     </row>
@@ -4263,9 +4280,8 @@
       <c r="J84" s="15"/>
       <c r="K84" s="11"/>
       <c r="L84" s="21"/>
-      <c r="M84" s="34"/>
-      <c r="N84" s="31">
-        <f t="shared" si="1"/>
+      <c r="M84" s="33"/>
+      <c r="N84" s="29">
         <v>270</v>
       </c>
     </row>
@@ -4300,9 +4316,8 @@
       <c r="J85" s="15"/>
       <c r="K85" s="11"/>
       <c r="L85" s="21"/>
-      <c r="M85" s="34"/>
-      <c r="N85" s="31">
-        <f t="shared" si="1"/>
+      <c r="M85" s="33"/>
+      <c r="N85" s="29">
         <v>392</v>
       </c>
     </row>
@@ -4337,9 +4352,8 @@
       <c r="J86" s="15"/>
       <c r="K86" s="11"/>
       <c r="L86" s="21"/>
-      <c r="M86" s="34"/>
-      <c r="N86" s="31">
-        <f t="shared" si="1"/>
+      <c r="M86" s="33"/>
+      <c r="N86" s="29">
         <v>312</v>
       </c>
     </row>
@@ -4374,9 +4388,8 @@
       <c r="J87" s="15"/>
       <c r="K87" s="11"/>
       <c r="L87" s="21"/>
-      <c r="M87" s="34"/>
-      <c r="N87" s="31">
-        <f t="shared" si="1"/>
+      <c r="M87" s="33"/>
+      <c r="N87" s="29">
         <v>320</v>
       </c>
     </row>
@@ -4411,9 +4424,8 @@
       <c r="J88" s="15"/>
       <c r="K88" s="11"/>
       <c r="L88" s="21"/>
-      <c r="M88" s="34"/>
-      <c r="N88" s="31">
-        <f t="shared" si="1"/>
+      <c r="M88" s="33"/>
+      <c r="N88" s="29">
         <v>231</v>
       </c>
     </row>
@@ -4448,9 +4460,8 @@
       <c r="J89" s="15"/>
       <c r="K89" s="11"/>
       <c r="L89" s="21"/>
-      <c r="M89" s="34"/>
-      <c r="N89" s="31">
-        <f t="shared" si="1"/>
+      <c r="M89" s="33"/>
+      <c r="N89" s="29">
         <v>226</v>
       </c>
     </row>
@@ -4485,9 +4496,8 @@
       <c r="J90" s="15"/>
       <c r="K90" s="11"/>
       <c r="L90" s="21"/>
-      <c r="M90" s="34"/>
-      <c r="N90" s="31">
-        <f t="shared" si="1"/>
+      <c r="M90" s="33"/>
+      <c r="N90" s="29">
         <v>190</v>
       </c>
     </row>
@@ -4522,9 +4532,8 @@
       <c r="J91" s="15"/>
       <c r="K91" s="11"/>
       <c r="L91" s="21"/>
-      <c r="M91" s="34"/>
-      <c r="N91" s="31">
-        <f t="shared" si="1"/>
+      <c r="M91" s="33"/>
+      <c r="N91" s="29">
         <v>224</v>
       </c>
     </row>
@@ -4559,9 +4568,8 @@
       <c r="J92" s="15"/>
       <c r="K92" s="11"/>
       <c r="L92" s="21"/>
-      <c r="M92" s="34"/>
-      <c r="N92" s="31">
-        <f t="shared" si="1"/>
+      <c r="M92" s="33"/>
+      <c r="N92" s="29">
         <v>245</v>
       </c>
     </row>
@@ -4596,9 +4604,8 @@
       <c r="J93" s="15"/>
       <c r="K93" s="11"/>
       <c r="L93" s="21"/>
-      <c r="M93" s="34"/>
-      <c r="N93" s="31">
-        <f t="shared" si="1"/>
+      <c r="M93" s="33"/>
+      <c r="N93" s="29">
         <v>190</v>
       </c>
     </row>
@@ -4633,9 +4640,8 @@
       <c r="J94" s="15"/>
       <c r="K94" s="11"/>
       <c r="L94" s="21"/>
-      <c r="M94" s="34"/>
-      <c r="N94" s="31">
-        <f t="shared" si="1"/>
+      <c r="M94" s="33"/>
+      <c r="N94" s="29">
         <v>267</v>
       </c>
     </row>
@@ -4670,9 +4676,8 @@
       <c r="J95" s="15"/>
       <c r="K95" s="11"/>
       <c r="L95" s="21"/>
-      <c r="M95" s="34"/>
-      <c r="N95" s="31">
-        <f t="shared" si="1"/>
+      <c r="M95" s="33"/>
+      <c r="N95" s="29">
         <v>167</v>
       </c>
     </row>
@@ -4707,9 +4712,8 @@
       <c r="J96" s="15"/>
       <c r="K96" s="11"/>
       <c r="L96" s="21"/>
-      <c r="M96" s="34"/>
-      <c r="N96" s="31">
-        <f t="shared" si="1"/>
+      <c r="M96" s="33"/>
+      <c r="N96" s="29">
         <v>165</v>
       </c>
     </row>
@@ -4744,9 +4748,8 @@
       <c r="J97" s="15"/>
       <c r="K97" s="11"/>
       <c r="L97" s="21"/>
-      <c r="M97" s="34"/>
-      <c r="N97" s="31">
-        <f t="shared" si="1"/>
+      <c r="M97" s="33"/>
+      <c r="N97" s="29">
         <v>155</v>
       </c>
     </row>
@@ -4781,9 +4784,8 @@
       <c r="J98" s="15"/>
       <c r="K98" s="11"/>
       <c r="L98" s="21"/>
-      <c r="M98" s="34"/>
-      <c r="N98" s="31">
-        <f t="shared" si="1"/>
+      <c r="M98" s="33"/>
+      <c r="N98" s="29">
         <v>196</v>
       </c>
     </row>
@@ -4818,9 +4820,8 @@
       <c r="J99" s="15"/>
       <c r="K99" s="11"/>
       <c r="L99" s="21"/>
-      <c r="M99" s="34"/>
-      <c r="N99" s="31">
-        <f t="shared" si="1"/>
+      <c r="M99" s="33"/>
+      <c r="N99" s="29">
         <v>198</v>
       </c>
     </row>
@@ -4855,9 +4856,8 @@
       <c r="J100" s="15"/>
       <c r="K100" s="11"/>
       <c r="L100" s="21"/>
-      <c r="M100" s="34"/>
-      <c r="N100" s="31">
-        <f t="shared" si="1"/>
+      <c r="M100" s="33"/>
+      <c r="N100" s="29">
         <v>127</v>
       </c>
     </row>
@@ -4892,9 +4892,8 @@
       <c r="J101" s="15"/>
       <c r="K101" s="11"/>
       <c r="L101" s="21"/>
-      <c r="M101" s="34"/>
-      <c r="N101" s="31">
-        <f t="shared" si="1"/>
+      <c r="M101" s="33"/>
+      <c r="N101" s="29">
         <v>145</v>
       </c>
     </row>
@@ -4929,9 +4928,8 @@
       <c r="J102" s="15"/>
       <c r="K102" s="11"/>
       <c r="L102" s="21"/>
-      <c r="M102" s="34"/>
-      <c r="N102" s="31">
-        <f t="shared" si="1"/>
+      <c r="M102" s="33"/>
+      <c r="N102" s="29">
         <v>213</v>
       </c>
     </row>
@@ -4966,9 +4964,8 @@
       <c r="J103" s="15"/>
       <c r="K103" s="11"/>
       <c r="L103" s="21"/>
-      <c r="M103" s="34"/>
-      <c r="N103" s="31">
-        <f t="shared" si="1"/>
+      <c r="M103" s="33"/>
+      <c r="N103" s="29">
         <v>213</v>
       </c>
     </row>
@@ -5003,9 +5000,8 @@
       <c r="J104" s="15"/>
       <c r="K104" s="11"/>
       <c r="L104" s="21"/>
-      <c r="M104" s="34"/>
-      <c r="N104" s="31">
-        <f t="shared" si="1"/>
+      <c r="M104" s="33"/>
+      <c r="N104" s="29">
         <v>146</v>
       </c>
     </row>
@@ -5040,9 +5036,8 @@
       <c r="J105" s="15"/>
       <c r="K105" s="11"/>
       <c r="L105" s="21"/>
-      <c r="M105" s="34"/>
-      <c r="N105" s="31">
-        <f t="shared" si="1"/>
+      <c r="M105" s="33"/>
+      <c r="N105" s="29">
         <v>165</v>
       </c>
     </row>
@@ -5077,9 +5072,8 @@
       <c r="J106" s="15"/>
       <c r="K106" s="11"/>
       <c r="L106" s="21"/>
-      <c r="M106" s="34"/>
-      <c r="N106" s="31">
-        <f t="shared" si="1"/>
+      <c r="M106" s="33"/>
+      <c r="N106" s="29">
         <v>197</v>
       </c>
     </row>
@@ -5114,9 +5108,8 @@
       <c r="J107" s="15"/>
       <c r="K107" s="11"/>
       <c r="L107" s="21"/>
-      <c r="M107" s="34"/>
-      <c r="N107" s="31">
-        <f t="shared" si="1"/>
+      <c r="M107" s="33"/>
+      <c r="N107" s="29">
         <v>191</v>
       </c>
     </row>
@@ -5151,9 +5144,8 @@
       <c r="J108" s="15"/>
       <c r="K108" s="11"/>
       <c r="L108" s="21"/>
-      <c r="M108" s="34"/>
-      <c r="N108" s="31">
-        <f t="shared" si="1"/>
+      <c r="M108" s="33"/>
+      <c r="N108" s="29">
         <v>151</v>
       </c>
     </row>
@@ -5188,9 +5180,8 @@
       <c r="J109" s="15"/>
       <c r="K109" s="11"/>
       <c r="L109" s="21"/>
-      <c r="M109" s="34"/>
-      <c r="N109" s="31">
-        <f t="shared" si="1"/>
+      <c r="M109" s="33"/>
+      <c r="N109" s="29">
         <v>124</v>
       </c>
     </row>
@@ -5225,9 +5216,8 @@
       <c r="J110" s="15"/>
       <c r="K110" s="11"/>
       <c r="L110" s="21"/>
-      <c r="M110" s="34"/>
-      <c r="N110" s="31">
-        <f t="shared" si="1"/>
+      <c r="M110" s="33"/>
+      <c r="N110" s="29">
         <v>141</v>
       </c>
     </row>
@@ -5262,9 +5252,8 @@
       <c r="J111" s="15"/>
       <c r="K111" s="11"/>
       <c r="L111" s="21"/>
-      <c r="M111" s="34"/>
-      <c r="N111" s="31">
-        <f t="shared" si="1"/>
+      <c r="M111" s="33"/>
+      <c r="N111" s="29">
         <v>119</v>
       </c>
     </row>
@@ -5299,9 +5288,8 @@
       <c r="J112" s="15"/>
       <c r="K112" s="11"/>
       <c r="L112" s="21"/>
-      <c r="M112" s="34"/>
-      <c r="N112" s="31">
-        <f t="shared" si="1"/>
+      <c r="M112" s="33"/>
+      <c r="N112" s="29">
         <v>152</v>
       </c>
     </row>
@@ -5336,9 +5324,8 @@
       <c r="J113" s="15"/>
       <c r="K113" s="11"/>
       <c r="L113" s="21"/>
-      <c r="M113" s="34"/>
-      <c r="N113" s="31">
-        <f t="shared" si="1"/>
+      <c r="M113" s="33"/>
+      <c r="N113" s="29">
         <v>238</v>
       </c>
     </row>
@@ -5373,9 +5360,8 @@
       <c r="J114" s="15"/>
       <c r="K114" s="11"/>
       <c r="L114" s="21"/>
-      <c r="M114" s="34"/>
-      <c r="N114" s="31">
-        <f t="shared" si="1"/>
+      <c r="M114" s="33"/>
+      <c r="N114" s="29">
         <v>196</v>
       </c>
     </row>
@@ -5410,9 +5396,8 @@
       <c r="J115" s="15"/>
       <c r="K115" s="11"/>
       <c r="L115" s="21"/>
-      <c r="M115" s="34"/>
-      <c r="N115" s="31">
-        <f t="shared" si="1"/>
+      <c r="M115" s="33"/>
+      <c r="N115" s="29">
         <v>187</v>
       </c>
     </row>
@@ -5447,9 +5432,8 @@
       <c r="J116" s="15"/>
       <c r="K116" s="11"/>
       <c r="L116" s="21"/>
-      <c r="M116" s="34"/>
-      <c r="N116" s="31">
-        <f t="shared" si="1"/>
+      <c r="M116" s="33"/>
+      <c r="N116" s="29">
         <v>189</v>
       </c>
     </row>
@@ -5484,9 +5468,8 @@
       <c r="J117" s="15"/>
       <c r="K117" s="11"/>
       <c r="L117" s="21"/>
-      <c r="M117" s="34"/>
-      <c r="N117" s="31">
-        <f t="shared" si="1"/>
+      <c r="M117" s="33"/>
+      <c r="N117" s="29">
         <v>125</v>
       </c>
     </row>
@@ -5521,9 +5504,8 @@
       <c r="J118" s="15"/>
       <c r="K118" s="11"/>
       <c r="L118" s="21"/>
-      <c r="M118" s="34"/>
-      <c r="N118" s="31">
-        <f t="shared" si="1"/>
+      <c r="M118" s="33"/>
+      <c r="N118" s="29">
         <v>145</v>
       </c>
     </row>
@@ -5558,9 +5540,8 @@
       <c r="J119" s="15"/>
       <c r="K119" s="11"/>
       <c r="L119" s="21"/>
-      <c r="M119" s="34"/>
-      <c r="N119" s="31">
-        <f t="shared" si="1"/>
+      <c r="M119" s="33"/>
+      <c r="N119" s="29">
         <v>196</v>
       </c>
     </row>
@@ -5595,9 +5576,8 @@
       <c r="J120" s="15"/>
       <c r="K120" s="11"/>
       <c r="L120" s="21"/>
-      <c r="M120" s="34"/>
-      <c r="N120" s="31">
-        <f t="shared" si="1"/>
+      <c r="M120" s="33"/>
+      <c r="N120" s="29">
         <v>237</v>
       </c>
     </row>
@@ -5632,9 +5612,8 @@
       <c r="J121" s="15"/>
       <c r="K121" s="11"/>
       <c r="L121" s="21"/>
-      <c r="M121" s="34"/>
-      <c r="N121" s="31">
-        <f t="shared" si="1"/>
+      <c r="M121" s="33"/>
+      <c r="N121" s="29">
         <v>222</v>
       </c>
     </row>
@@ -5669,9 +5648,8 @@
       <c r="J122" s="15"/>
       <c r="K122" s="11"/>
       <c r="L122" s="21"/>
-      <c r="M122" s="34"/>
-      <c r="N122" s="31">
-        <f t="shared" si="1"/>
+      <c r="M122" s="33"/>
+      <c r="N122" s="29">
         <v>275</v>
       </c>
     </row>
@@ -5706,9 +5684,8 @@
       <c r="J123" s="15"/>
       <c r="K123" s="11"/>
       <c r="L123" s="21"/>
-      <c r="M123" s="34"/>
-      <c r="N123" s="31">
-        <f t="shared" si="1"/>
+      <c r="M123" s="33"/>
+      <c r="N123" s="29">
         <v>320</v>
       </c>
     </row>
@@ -5743,9 +5720,8 @@
       <c r="J124" s="15"/>
       <c r="K124" s="11"/>
       <c r="L124" s="21"/>
-      <c r="M124" s="34"/>
-      <c r="N124" s="31">
-        <f t="shared" si="1"/>
+      <c r="M124" s="33"/>
+      <c r="N124" s="29">
         <v>166</v>
       </c>
     </row>
@@ -5780,9 +5756,8 @@
       <c r="J125" s="15"/>
       <c r="K125" s="11"/>
       <c r="L125" s="21"/>
-      <c r="M125" s="34"/>
-      <c r="N125" s="31">
-        <f t="shared" si="1"/>
+      <c r="M125" s="33"/>
+      <c r="N125" s="29">
         <v>250</v>
       </c>
     </row>
@@ -5817,9 +5792,8 @@
       <c r="J126" s="15"/>
       <c r="K126" s="11"/>
       <c r="L126" s="21"/>
-      <c r="M126" s="34"/>
-      <c r="N126" s="31">
-        <f t="shared" si="1"/>
+      <c r="M126" s="33"/>
+      <c r="N126" s="29">
         <v>345</v>
       </c>
     </row>
@@ -5854,9 +5828,8 @@
       <c r="J127" s="15"/>
       <c r="K127" s="11"/>
       <c r="L127" s="21"/>
-      <c r="M127" s="34"/>
-      <c r="N127" s="31">
-        <f t="shared" si="1"/>
+      <c r="M127" s="33"/>
+      <c r="N127" s="29">
         <v>320</v>
       </c>
     </row>
@@ -5891,9 +5864,8 @@
       <c r="J128" s="15"/>
       <c r="K128" s="11"/>
       <c r="L128" s="21"/>
-      <c r="M128" s="34"/>
-      <c r="N128" s="31">
-        <f t="shared" si="1"/>
+      <c r="M128" s="33"/>
+      <c r="N128" s="29">
         <v>320</v>
       </c>
     </row>
@@ -5928,9 +5900,8 @@
       <c r="J129" s="15"/>
       <c r="K129" s="11"/>
       <c r="L129" s="21"/>
-      <c r="M129" s="34"/>
-      <c r="N129" s="31">
-        <f t="shared" si="1"/>
+      <c r="M129" s="33"/>
+      <c r="N129" s="29">
         <v>330</v>
       </c>
     </row>
@@ -5965,9 +5936,8 @@
       <c r="J130" s="15"/>
       <c r="K130" s="11"/>
       <c r="L130" s="21"/>
-      <c r="M130" s="34"/>
-      <c r="N130" s="31">
-        <f t="shared" si="1"/>
+      <c r="M130" s="33"/>
+      <c r="N130" s="29">
         <v>315</v>
       </c>
     </row>
@@ -6002,9 +5972,8 @@
       <c r="J131" s="15"/>
       <c r="K131" s="11"/>
       <c r="L131" s="21"/>
-      <c r="M131" s="34"/>
-      <c r="N131" s="31">
-        <f t="shared" si="1"/>
+      <c r="M131" s="33"/>
+      <c r="N131" s="29">
         <v>246</v>
       </c>
     </row>
@@ -6039,9 +6008,8 @@
       <c r="J132" s="15"/>
       <c r="K132" s="11"/>
       <c r="L132" s="21"/>
-      <c r="M132" s="34"/>
-      <c r="N132" s="31">
-        <f t="shared" si="1"/>
+      <c r="M132" s="33"/>
+      <c r="N132" s="29">
         <v>214</v>
       </c>
     </row>
@@ -6076,9 +6044,8 @@
       <c r="J133" s="15"/>
       <c r="K133" s="11"/>
       <c r="L133" s="21"/>
-      <c r="M133" s="34"/>
-      <c r="N133" s="31">
-        <f t="shared" si="1"/>
+      <c r="M133" s="33"/>
+      <c r="N133" s="29">
         <v>321</v>
       </c>
     </row>
@@ -6113,9 +6080,8 @@
       <c r="J134" s="15"/>
       <c r="K134" s="11"/>
       <c r="L134" s="21"/>
-      <c r="M134" s="34"/>
-      <c r="N134" s="31">
-        <f t="shared" si="1"/>
+      <c r="M134" s="33"/>
+      <c r="N134" s="29">
         <v>460</v>
       </c>
     </row>
@@ -6150,9 +6116,8 @@
       <c r="J135" s="15"/>
       <c r="K135" s="11"/>
       <c r="L135" s="21"/>
-      <c r="M135" s="34"/>
-      <c r="N135" s="31">
-        <f t="shared" ref="N135:N198" si="2">SUM(C135-C134)</f>
+      <c r="M135" s="33"/>
+      <c r="N135" s="29">
         <v>411</v>
       </c>
     </row>
@@ -6187,9 +6152,8 @@
       <c r="J136" s="15"/>
       <c r="K136" s="11"/>
       <c r="L136" s="21"/>
-      <c r="M136" s="34"/>
-      <c r="N136" s="31">
-        <f t="shared" si="2"/>
+      <c r="M136" s="33"/>
+      <c r="N136" s="29">
         <v>325</v>
       </c>
     </row>
@@ -6224,9 +6188,8 @@
       <c r="J137" s="15"/>
       <c r="K137" s="11"/>
       <c r="L137" s="21"/>
-      <c r="M137" s="34"/>
-      <c r="N137" s="31">
-        <f t="shared" si="2"/>
+      <c r="M137" s="33"/>
+      <c r="N137" s="29">
         <v>291</v>
       </c>
     </row>
@@ -6261,9 +6224,8 @@
       <c r="J138" s="15"/>
       <c r="K138" s="11"/>
       <c r="L138" s="21"/>
-      <c r="M138" s="34"/>
-      <c r="N138" s="31">
-        <f t="shared" si="2"/>
+      <c r="M138" s="33"/>
+      <c r="N138" s="29">
         <v>269</v>
       </c>
     </row>
@@ -6298,9 +6260,8 @@
       <c r="J139" s="15"/>
       <c r="K139" s="11"/>
       <c r="L139" s="21"/>
-      <c r="M139" s="34"/>
-      <c r="N139" s="31">
-        <f t="shared" si="2"/>
+      <c r="M139" s="33"/>
+      <c r="N139" s="29">
         <v>388</v>
       </c>
     </row>
@@ -6335,9 +6296,8 @@
       <c r="J140" s="15"/>
       <c r="K140" s="11"/>
       <c r="L140" s="21"/>
-      <c r="M140" s="34"/>
-      <c r="N140" s="31">
-        <f t="shared" si="2"/>
+      <c r="M140" s="33"/>
+      <c r="N140" s="29">
         <v>326</v>
       </c>
     </row>
@@ -6372,9 +6332,8 @@
       <c r="J141" s="15"/>
       <c r="K141" s="11"/>
       <c r="L141" s="21"/>
-      <c r="M141" s="34"/>
-      <c r="N141" s="31">
-        <f t="shared" si="2"/>
+      <c r="M141" s="33"/>
+      <c r="N141" s="29">
         <v>450</v>
       </c>
     </row>
@@ -6409,9 +6368,8 @@
       <c r="J142" s="15"/>
       <c r="K142" s="11"/>
       <c r="L142" s="21"/>
-      <c r="M142" s="34"/>
-      <c r="N142" s="31">
-        <f t="shared" si="2"/>
+      <c r="M142" s="33"/>
+      <c r="N142" s="29">
         <v>420</v>
       </c>
     </row>
@@ -6446,9 +6404,8 @@
       <c r="J143" s="15"/>
       <c r="K143" s="11"/>
       <c r="L143" s="21"/>
-      <c r="M143" s="34"/>
-      <c r="N143" s="31">
-        <f t="shared" si="2"/>
+      <c r="M143" s="33"/>
+      <c r="N143" s="29">
         <v>416</v>
       </c>
     </row>
@@ -6483,9 +6440,8 @@
       <c r="J144" s="15"/>
       <c r="K144" s="11"/>
       <c r="L144" s="21"/>
-      <c r="M144" s="34"/>
-      <c r="N144" s="31">
-        <f t="shared" si="2"/>
+      <c r="M144" s="33"/>
+      <c r="N144" s="29">
         <v>391</v>
       </c>
     </row>
@@ -6520,9 +6476,8 @@
       <c r="J145" s="15"/>
       <c r="K145" s="11"/>
       <c r="L145" s="21"/>
-      <c r="M145" s="34"/>
-      <c r="N145" s="31">
-        <f t="shared" si="2"/>
+      <c r="M145" s="33"/>
+      <c r="N145" s="29">
         <v>250</v>
       </c>
     </row>
@@ -6557,9 +6512,8 @@
       <c r="J146" s="15"/>
       <c r="K146" s="11"/>
       <c r="L146" s="21"/>
-      <c r="M146" s="34"/>
-      <c r="N146" s="31">
-        <f t="shared" si="2"/>
+      <c r="M146" s="33"/>
+      <c r="N146" s="29">
         <v>397</v>
       </c>
     </row>
@@ -6594,9 +6548,8 @@
       <c r="J147" s="15"/>
       <c r="K147" s="11"/>
       <c r="L147" s="21"/>
-      <c r="M147" s="34"/>
-      <c r="N147" s="31">
-        <f t="shared" si="2"/>
+      <c r="M147" s="33"/>
+      <c r="N147" s="29">
         <v>555</v>
       </c>
     </row>
@@ -6631,9 +6584,8 @@
       <c r="J148" s="15"/>
       <c r="K148" s="11"/>
       <c r="L148" s="21"/>
-      <c r="M148" s="34"/>
-      <c r="N148" s="31">
-        <f t="shared" si="2"/>
+      <c r="M148" s="33"/>
+      <c r="N148" s="29">
         <v>614</v>
       </c>
     </row>
@@ -6668,9 +6620,8 @@
       <c r="J149" s="15"/>
       <c r="K149" s="11"/>
       <c r="L149" s="21"/>
-      <c r="M149" s="34"/>
-      <c r="N149" s="31">
-        <f t="shared" si="2"/>
+      <c r="M149" s="33"/>
+      <c r="N149" s="29">
         <v>592</v>
       </c>
     </row>
@@ -6705,9 +6656,8 @@
       <c r="J150" s="15"/>
       <c r="K150" s="11"/>
       <c r="L150" s="21"/>
-      <c r="M150" s="34"/>
-      <c r="N150" s="31">
-        <f t="shared" si="2"/>
+      <c r="M150" s="33"/>
+      <c r="N150" s="29">
         <v>698</v>
       </c>
     </row>
@@ -6742,9 +6692,8 @@
       <c r="J151" s="15"/>
       <c r="K151" s="11"/>
       <c r="L151" s="21"/>
-      <c r="M151" s="34"/>
-      <c r="N151" s="31">
-        <f t="shared" si="2"/>
+      <c r="M151" s="33"/>
+      <c r="N151" s="29">
         <v>456</v>
       </c>
     </row>
@@ -6779,9 +6728,8 @@
       <c r="J152" s="15"/>
       <c r="K152" s="11"/>
       <c r="L152" s="21"/>
-      <c r="M152" s="34"/>
-      <c r="N152" s="31">
-        <f t="shared" si="2"/>
+      <c r="M152" s="33"/>
+      <c r="N152" s="29">
         <v>413</v>
       </c>
     </row>
@@ -6816,9 +6764,8 @@
       <c r="J153" s="17"/>
       <c r="K153" s="10"/>
       <c r="L153" s="21"/>
-      <c r="M153" s="34"/>
-      <c r="N153" s="31">
-        <f t="shared" si="2"/>
+      <c r="M153" s="33"/>
+      <c r="N153" s="29">
         <v>637</v>
       </c>
     </row>
@@ -6853,9 +6800,8 @@
       <c r="J154" s="17"/>
       <c r="K154" s="10"/>
       <c r="L154" s="21"/>
-      <c r="M154" s="34"/>
-      <c r="N154" s="31">
-        <f t="shared" si="2"/>
+      <c r="M154" s="33"/>
+      <c r="N154" s="29">
         <v>641</v>
       </c>
     </row>
@@ -6890,9 +6836,8 @@
       <c r="J155" s="17"/>
       <c r="K155" s="10"/>
       <c r="L155" s="21"/>
-      <c r="M155" s="34"/>
-      <c r="N155" s="31">
-        <f t="shared" si="2"/>
+      <c r="M155" s="33"/>
+      <c r="N155" s="29">
         <v>777</v>
       </c>
     </row>
@@ -6927,9 +6872,8 @@
       <c r="J156" s="17"/>
       <c r="K156" s="10"/>
       <c r="L156" s="21"/>
-      <c r="M156" s="34"/>
-      <c r="N156" s="31">
-        <f t="shared" si="2"/>
+      <c r="M156" s="33"/>
+      <c r="N156" s="29">
         <v>799</v>
       </c>
     </row>
@@ -6964,9 +6908,8 @@
       <c r="J157" s="17"/>
       <c r="K157" s="10"/>
       <c r="L157" s="21"/>
-      <c r="M157" s="34"/>
-      <c r="N157" s="31">
-        <f t="shared" si="2"/>
+      <c r="M157" s="33"/>
+      <c r="N157" s="29">
         <v>889</v>
       </c>
     </row>
@@ -7001,9 +6944,8 @@
       <c r="J158" s="17"/>
       <c r="K158" s="10"/>
       <c r="L158" s="21"/>
-      <c r="M158" s="34"/>
-      <c r="N158" s="31">
-        <f t="shared" si="2"/>
+      <c r="M158" s="33"/>
+      <c r="N158" s="29">
         <v>767</v>
       </c>
     </row>
@@ -7038,9 +6980,8 @@
       <c r="J159" s="17"/>
       <c r="K159" s="10"/>
       <c r="L159" s="21"/>
-      <c r="M159" s="34"/>
-      <c r="N159" s="31">
-        <f t="shared" si="2"/>
+      <c r="M159" s="33"/>
+      <c r="N159" s="29">
         <v>681</v>
       </c>
     </row>
@@ -7075,9 +7016,8 @@
       <c r="J160" s="17"/>
       <c r="K160" s="10"/>
       <c r="L160" s="21"/>
-      <c r="M160" s="34"/>
-      <c r="N160" s="31">
-        <f t="shared" si="2"/>
+      <c r="M160" s="33"/>
+      <c r="N160" s="29">
         <v>994</v>
       </c>
     </row>
@@ -7112,9 +7052,8 @@
       <c r="J161" s="17"/>
       <c r="K161" s="10"/>
       <c r="L161" s="21"/>
-      <c r="M161" s="34"/>
-      <c r="N161" s="31">
-        <f t="shared" si="2"/>
+      <c r="M161" s="33"/>
+      <c r="N161" s="29">
         <v>1030</v>
       </c>
     </row>
@@ -7149,9 +7088,8 @@
       <c r="J162" s="17"/>
       <c r="K162" s="10"/>
       <c r="L162" s="21"/>
-      <c r="M162" s="34"/>
-      <c r="N162" s="31">
-        <f t="shared" si="2"/>
+      <c r="M162" s="33"/>
+      <c r="N162" s="29">
         <v>1112</v>
       </c>
     </row>
@@ -7186,9 +7124,8 @@
       <c r="J163" s="17"/>
       <c r="K163" s="10"/>
       <c r="L163" s="21"/>
-      <c r="M163" s="34"/>
-      <c r="N163" s="31">
-        <f t="shared" si="2"/>
+      <c r="M163" s="33"/>
+      <c r="N163" s="29">
         <v>1119</v>
       </c>
     </row>
@@ -7223,9 +7160,8 @@
       <c r="J164" s="17"/>
       <c r="K164" s="10"/>
       <c r="L164" s="21"/>
-      <c r="M164" s="34"/>
-      <c r="N164" s="31">
-        <f t="shared" si="2"/>
+      <c r="M164" s="33"/>
+      <c r="N164" s="29">
         <v>1284</v>
       </c>
     </row>
@@ -7260,9 +7196,8 @@
       <c r="J165" s="17"/>
       <c r="K165" s="10"/>
       <c r="L165" s="21"/>
-      <c r="M165" s="34"/>
-      <c r="N165" s="31">
-        <f t="shared" si="2"/>
+      <c r="M165" s="33"/>
+      <c r="N165" s="29">
         <v>1120</v>
       </c>
     </row>
@@ -7297,9 +7232,8 @@
       <c r="J166" s="17"/>
       <c r="K166" s="10"/>
       <c r="L166" s="21"/>
-      <c r="M166" s="34"/>
-      <c r="N166" s="31">
-        <f t="shared" si="2"/>
+      <c r="M166" s="33"/>
+      <c r="N166" s="29">
         <v>1104</v>
       </c>
     </row>
@@ -7334,9 +7268,8 @@
       <c r="J167" s="17"/>
       <c r="K167" s="10"/>
       <c r="L167" s="21"/>
-      <c r="M167" s="34"/>
-      <c r="N167" s="31">
-        <f t="shared" si="2"/>
+      <c r="M167" s="33"/>
+      <c r="N167" s="29">
         <v>1151</v>
       </c>
     </row>
@@ -7371,9 +7304,8 @@
       <c r="J168" s="17"/>
       <c r="K168" s="10"/>
       <c r="L168" s="21"/>
-      <c r="M168" s="34"/>
-      <c r="N168" s="31">
-        <f t="shared" si="2"/>
+      <c r="M168" s="33"/>
+      <c r="N168" s="29">
         <v>1182</v>
       </c>
     </row>
@@ -7408,9 +7340,8 @@
       <c r="J169" s="17"/>
       <c r="K169" s="10"/>
       <c r="L169" s="21"/>
-      <c r="M169" s="34"/>
-      <c r="N169" s="31">
-        <f t="shared" si="2"/>
+      <c r="M169" s="33"/>
+      <c r="N169" s="29">
         <v>1356</v>
       </c>
     </row>
@@ -7445,9 +7376,8 @@
       <c r="J170" s="17"/>
       <c r="K170" s="10"/>
       <c r="L170" s="21"/>
-      <c r="M170" s="34"/>
-      <c r="N170" s="31">
-        <f t="shared" si="2"/>
+      <c r="M170" s="33"/>
+      <c r="N170" s="29">
         <v>1295</v>
       </c>
     </row>
@@ -7482,9 +7412,8 @@
       <c r="J171" s="17"/>
       <c r="K171" s="10"/>
       <c r="L171" s="21"/>
-      <c r="M171" s="34"/>
-      <c r="N171" s="31">
-        <f t="shared" si="2"/>
+      <c r="M171" s="33"/>
+      <c r="N171" s="29">
         <v>1225</v>
       </c>
     </row>
@@ -7519,9 +7448,8 @@
       <c r="J172" s="17"/>
       <c r="K172" s="10"/>
       <c r="L172" s="21"/>
-      <c r="M172" s="34"/>
-      <c r="N172" s="31">
-        <f t="shared" si="2"/>
+      <c r="M172" s="33"/>
+      <c r="N172" s="29">
         <v>1075</v>
       </c>
     </row>
@@ -7556,9 +7484,8 @@
       <c r="J173" s="17"/>
       <c r="K173" s="10"/>
       <c r="L173" s="21"/>
-      <c r="M173" s="34"/>
-      <c r="N173" s="31">
-        <f t="shared" si="2"/>
+      <c r="M173" s="33"/>
+      <c r="N173" s="29">
         <v>823</v>
       </c>
     </row>
@@ -7593,9 +7520,8 @@
       <c r="J174" s="17"/>
       <c r="K174" s="10"/>
       <c r="L174" s="21"/>
-      <c r="M174" s="34"/>
-      <c r="N174" s="31">
-        <f t="shared" si="2"/>
+      <c r="M174" s="33"/>
+      <c r="N174" s="29">
         <v>1232</v>
       </c>
     </row>
@@ -7630,9 +7556,8 @@
       <c r="J175" s="17"/>
       <c r="K175" s="10"/>
       <c r="L175" s="21"/>
-      <c r="M175" s="34"/>
-      <c r="N175" s="31">
-        <f t="shared" si="2"/>
+      <c r="M175" s="33"/>
+      <c r="N175" s="29">
         <v>1309</v>
       </c>
     </row>
@@ -7667,9 +7592,8 @@
       <c r="J176" s="17"/>
       <c r="K176" s="10"/>
       <c r="L176" s="21"/>
-      <c r="M176" s="34"/>
-      <c r="N176" s="31">
-        <f t="shared" si="2"/>
+      <c r="M176" s="33"/>
+      <c r="N176" s="29">
         <v>1345</v>
       </c>
     </row>
@@ -7704,9 +7628,8 @@
       <c r="J177" s="17"/>
       <c r="K177" s="10"/>
       <c r="L177" s="21"/>
-      <c r="M177" s="34"/>
-      <c r="N177" s="31">
-        <f t="shared" si="2"/>
+      <c r="M177" s="33"/>
+      <c r="N177" s="29">
         <v>1378</v>
       </c>
     </row>
@@ -7741,9 +7664,8 @@
       <c r="J178" s="17"/>
       <c r="K178" s="10"/>
       <c r="L178" s="21"/>
-      <c r="M178" s="34"/>
-      <c r="N178" s="31">
-        <f t="shared" si="2"/>
+      <c r="M178" s="33"/>
+      <c r="N178" s="29">
         <v>1350</v>
       </c>
     </row>
@@ -7778,9 +7700,8 @@
       <c r="J179" s="17"/>
       <c r="K179" s="10"/>
       <c r="L179" s="21"/>
-      <c r="M179" s="34"/>
-      <c r="N179" s="31">
-        <f t="shared" si="2"/>
+      <c r="M179" s="33"/>
+      <c r="N179" s="29">
         <v>1145</v>
       </c>
     </row>
@@ -7815,9 +7736,8 @@
       <c r="J180" s="17"/>
       <c r="K180" s="10"/>
       <c r="L180" s="21"/>
-      <c r="M180" s="34"/>
-      <c r="N180" s="31">
-        <f t="shared" si="2"/>
+      <c r="M180" s="33"/>
+      <c r="N180" s="29">
         <v>779</v>
       </c>
     </row>
@@ -7852,9 +7772,8 @@
       <c r="J181" s="17"/>
       <c r="K181" s="10"/>
       <c r="L181" s="21"/>
-      <c r="M181" s="34"/>
-      <c r="N181" s="31">
-        <f t="shared" si="2"/>
+      <c r="M181" s="33"/>
+      <c r="N181" s="29">
         <v>1215</v>
       </c>
     </row>
@@ -7889,9 +7808,8 @@
       <c r="J182" s="17"/>
       <c r="K182" s="10"/>
       <c r="L182" s="21"/>
-      <c r="M182" s="34"/>
-      <c r="N182" s="31">
-        <f t="shared" si="2"/>
+      <c r="M182" s="33"/>
+      <c r="N182" s="29">
         <v>1415</v>
       </c>
     </row>
@@ -7926,9 +7844,8 @@
       <c r="J183" s="17"/>
       <c r="K183" s="10"/>
       <c r="L183" s="21"/>
-      <c r="M183" s="34"/>
-      <c r="N183" s="31">
-        <f t="shared" si="2"/>
+      <c r="M183" s="33"/>
+      <c r="N183" s="29">
         <v>1454</v>
       </c>
     </row>
@@ -7963,9 +7880,8 @@
       <c r="J184" s="17"/>
       <c r="K184" s="10"/>
       <c r="L184" s="21"/>
-      <c r="M184" s="34"/>
-      <c r="N184" s="31">
-        <f t="shared" si="2"/>
+      <c r="M184" s="33"/>
+      <c r="N184" s="29">
         <v>1415</v>
       </c>
     </row>
@@ -8000,9 +7916,8 @@
       <c r="J185" s="17"/>
       <c r="K185" s="10"/>
       <c r="L185" s="21"/>
-      <c r="M185" s="34"/>
-      <c r="N185" s="31">
-        <f t="shared" si="2"/>
+      <c r="M185" s="33"/>
+      <c r="N185" s="29">
         <v>1328</v>
       </c>
     </row>
@@ -8037,9 +7952,8 @@
       <c r="J186" s="17"/>
       <c r="K186" s="10"/>
       <c r="L186" s="21"/>
-      <c r="M186" s="34"/>
-      <c r="N186" s="31">
-        <f t="shared" si="2"/>
+      <c r="M186" s="33"/>
+      <c r="N186" s="29">
         <v>1087</v>
       </c>
     </row>
@@ -8074,9 +7988,8 @@
       <c r="J187" s="17"/>
       <c r="K187" s="10"/>
       <c r="L187" s="21"/>
-      <c r="M187" s="34"/>
-      <c r="N187" s="31">
-        <f t="shared" si="2"/>
+      <c r="M187" s="33"/>
+      <c r="N187" s="29">
         <v>733</v>
       </c>
     </row>
@@ -8111,9 +8024,8 @@
       <c r="J188" s="17"/>
       <c r="K188" s="10"/>
       <c r="L188" s="21"/>
-      <c r="M188" s="34"/>
-      <c r="N188" s="31">
-        <f t="shared" si="2"/>
+      <c r="M188" s="33"/>
+      <c r="N188" s="29">
         <v>1014</v>
       </c>
     </row>
@@ -8148,9 +8060,8 @@
       <c r="J189" s="17"/>
       <c r="K189" s="10"/>
       <c r="L189" s="21"/>
-      <c r="M189" s="34"/>
-      <c r="N189" s="31">
-        <f t="shared" si="2"/>
+      <c r="M189" s="33"/>
+      <c r="N189" s="29">
         <v>1409</v>
       </c>
     </row>
@@ -8185,9 +8096,8 @@
       <c r="J190" s="17"/>
       <c r="K190" s="10"/>
       <c r="L190" s="21"/>
-      <c r="M190" s="34"/>
-      <c r="N190" s="31">
-        <f t="shared" si="2"/>
+      <c r="M190" s="33"/>
+      <c r="N190" s="29">
         <v>1346</v>
       </c>
     </row>
@@ -8222,9 +8132,8 @@
       <c r="J191" s="17"/>
       <c r="K191" s="10"/>
       <c r="L191" s="21"/>
-      <c r="M191" s="34"/>
-      <c r="N191" s="31">
-        <f t="shared" si="2"/>
+      <c r="M191" s="33"/>
+      <c r="N191" s="29">
         <v>1392</v>
       </c>
     </row>
@@ -8259,9 +8168,8 @@
       <c r="J192" s="17"/>
       <c r="K192" s="10"/>
       <c r="L192" s="21"/>
-      <c r="M192" s="34"/>
-      <c r="N192" s="31">
-        <f t="shared" si="2"/>
+      <c r="M192" s="33"/>
+      <c r="N192" s="29">
         <v>1189</v>
       </c>
     </row>
@@ -8296,9 +8204,8 @@
       <c r="J193" s="17"/>
       <c r="K193" s="10"/>
       <c r="L193" s="21"/>
-      <c r="M193" s="34"/>
-      <c r="N193" s="31">
-        <f t="shared" si="2"/>
+      <c r="M193" s="33"/>
+      <c r="N193" s="29">
         <v>961</v>
       </c>
     </row>
@@ -8333,9 +8240,8 @@
       <c r="J194" s="17"/>
       <c r="K194" s="10"/>
       <c r="L194" s="21"/>
-      <c r="M194" s="34"/>
-      <c r="N194" s="31">
-        <f t="shared" si="2"/>
+      <c r="M194" s="33"/>
+      <c r="N194" s="29">
         <v>825</v>
       </c>
     </row>
@@ -8370,9 +8276,8 @@
       <c r="J195" s="17"/>
       <c r="K195" s="10"/>
       <c r="L195" s="21"/>
-      <c r="M195" s="34"/>
-      <c r="N195" s="31">
-        <f t="shared" si="2"/>
+      <c r="M195" s="33"/>
+      <c r="N195" s="29">
         <v>1060</v>
       </c>
     </row>
@@ -8407,9 +8312,8 @@
       <c r="J196" s="17"/>
       <c r="K196" s="10"/>
       <c r="L196" s="21"/>
-      <c r="M196" s="34"/>
-      <c r="N196" s="31">
-        <f t="shared" si="2"/>
+      <c r="M196" s="33"/>
+      <c r="N196" s="29">
         <v>1256</v>
       </c>
     </row>
@@ -8444,9 +8348,8 @@
       <c r="J197" s="17"/>
       <c r="K197" s="10"/>
       <c r="L197" s="21"/>
-      <c r="M197" s="34"/>
-      <c r="N197" s="31">
-        <f t="shared" si="2"/>
+      <c r="M197" s="33"/>
+      <c r="N197" s="29">
         <v>1504</v>
       </c>
     </row>
@@ -8481,9 +8384,8 @@
       <c r="J198" s="17"/>
       <c r="K198" s="10"/>
       <c r="L198" s="21"/>
-      <c r="M198" s="34"/>
-      <c r="N198" s="31">
-        <f t="shared" si="2"/>
+      <c r="M198" s="33"/>
+      <c r="N198" s="29">
         <v>1318</v>
       </c>
     </row>
@@ -8518,9 +8420,8 @@
       <c r="J199" s="17"/>
       <c r="K199" s="10"/>
       <c r="L199" s="21"/>
-      <c r="M199" s="34"/>
-      <c r="N199" s="31">
-        <f t="shared" ref="N199:N262" si="3">SUM(C199-C198)</f>
+      <c r="M199" s="33"/>
+      <c r="N199" s="29">
         <v>1365</v>
       </c>
     </row>
@@ -8555,9 +8456,8 @@
       <c r="J200" s="17"/>
       <c r="K200" s="10"/>
       <c r="L200" s="21"/>
-      <c r="M200" s="34"/>
-      <c r="N200" s="31">
-        <f t="shared" si="3"/>
+      <c r="M200" s="33"/>
+      <c r="N200" s="29">
         <v>952</v>
       </c>
     </row>
@@ -8592,9 +8492,8 @@
       <c r="J201" s="17"/>
       <c r="K201" s="10"/>
       <c r="L201" s="21"/>
-      <c r="M201" s="34"/>
-      <c r="N201" s="31">
-        <f t="shared" si="3"/>
+      <c r="M201" s="33"/>
+      <c r="N201" s="29">
         <v>755</v>
       </c>
     </row>
@@ -8629,9 +8528,8 @@
       <c r="J202" s="17"/>
       <c r="K202" s="10"/>
       <c r="L202" s="21"/>
-      <c r="M202" s="34"/>
-      <c r="N202" s="31">
-        <f t="shared" si="3"/>
+      <c r="M202" s="33"/>
+      <c r="N202" s="29">
         <v>1053</v>
       </c>
     </row>
@@ -8666,9 +8564,8 @@
       <c r="J203" s="17"/>
       <c r="K203" s="10"/>
       <c r="L203" s="21"/>
-      <c r="M203" s="34"/>
-      <c r="N203" s="31">
-        <f t="shared" si="3"/>
+      <c r="M203" s="33"/>
+      <c r="N203" s="29">
         <v>1298</v>
       </c>
     </row>
@@ -8703,9 +8600,8 @@
       <c r="J204" s="17"/>
       <c r="K204" s="10"/>
       <c r="L204" s="21"/>
-      <c r="M204" s="34"/>
-      <c r="N204" s="31">
-        <f t="shared" si="3"/>
+      <c r="M204" s="33"/>
+      <c r="N204" s="29">
         <v>1365</v>
       </c>
     </row>
@@ -8740,9 +8636,8 @@
       <c r="J205" s="17"/>
       <c r="K205" s="10"/>
       <c r="L205" s="21"/>
-      <c r="M205" s="34"/>
-      <c r="N205" s="31">
-        <f t="shared" si="3"/>
+      <c r="M205" s="33"/>
+      <c r="N205" s="29">
         <v>1339</v>
       </c>
     </row>
@@ -8777,9 +8672,8 @@
       <c r="J206" s="17"/>
       <c r="K206" s="10"/>
       <c r="L206" s="21"/>
-      <c r="M206" s="34"/>
-      <c r="N206" s="31">
-        <f t="shared" si="3"/>
+      <c r="M206" s="33"/>
+      <c r="N206" s="29">
         <v>1269</v>
       </c>
     </row>
@@ -8814,9 +8708,8 @@
       <c r="J207" s="17"/>
       <c r="K207" s="10"/>
       <c r="L207" s="21"/>
-      <c r="M207" s="34"/>
-      <c r="N207" s="31">
-        <f t="shared" si="3"/>
+      <c r="M207" s="33"/>
+      <c r="N207" s="29">
         <v>1150</v>
       </c>
     </row>
@@ -8851,9 +8744,8 @@
       <c r="J208" s="17"/>
       <c r="K208" s="10"/>
       <c r="L208" s="21"/>
-      <c r="M208" s="34"/>
-      <c r="N208" s="31">
-        <f t="shared" si="3"/>
+      <c r="M208" s="33"/>
+      <c r="N208" s="29">
         <v>883</v>
       </c>
     </row>
@@ -8888,10 +8780,9 @@
       <c r="J209" s="17"/>
       <c r="K209" s="10"/>
       <c r="L209" s="21"/>
-      <c r="M209" s="34"/>
-      <c r="N209" s="31">
-        <f t="shared" si="3"/>
-        <v>1136</v>
+      <c r="M209" s="33"/>
+      <c r="N209" s="29">
+        <v>1139</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
@@ -8925,9 +8816,8 @@
       <c r="J210" s="17"/>
       <c r="K210" s="10"/>
       <c r="L210" s="21"/>
-      <c r="M210" s="34"/>
-      <c r="N210" s="31">
-        <f t="shared" si="3"/>
+      <c r="M210" s="33"/>
+      <c r="N210" s="29">
         <v>1271</v>
       </c>
     </row>
@@ -8962,9 +8852,8 @@
       <c r="J211" s="17"/>
       <c r="K211" s="10"/>
       <c r="L211" s="21"/>
-      <c r="M211" s="34"/>
-      <c r="N211" s="31">
-        <f t="shared" si="3"/>
+      <c r="M211" s="33"/>
+      <c r="N211" s="29">
         <v>1380</v>
       </c>
     </row>
@@ -8999,9 +8888,8 @@
       <c r="J212" s="17"/>
       <c r="K212" s="10"/>
       <c r="L212" s="21"/>
-      <c r="M212" s="34"/>
-      <c r="N212" s="31">
-        <f t="shared" si="3"/>
+      <c r="M212" s="33"/>
+      <c r="N212" s="29">
         <v>1391</v>
       </c>
     </row>
@@ -9036,9 +8924,8 @@
       <c r="J213" s="17"/>
       <c r="K213" s="10"/>
       <c r="L213" s="21"/>
-      <c r="M213" s="34"/>
-      <c r="N213" s="31">
-        <f t="shared" si="3"/>
+      <c r="M213" s="33"/>
+      <c r="N213" s="29">
         <v>1311</v>
       </c>
     </row>
@@ -9073,9 +8960,8 @@
       <c r="J214" s="17"/>
       <c r="K214" s="10"/>
       <c r="L214" s="21"/>
-      <c r="M214" s="34"/>
-      <c r="N214" s="31">
-        <f t="shared" si="3"/>
+      <c r="M214" s="33"/>
+      <c r="N214" s="29">
         <v>1109</v>
       </c>
     </row>
@@ -9110,9 +8996,8 @@
       <c r="J215" s="17"/>
       <c r="K215" s="10"/>
       <c r="L215" s="21"/>
-      <c r="M215" s="34"/>
-      <c r="N215" s="31">
-        <f t="shared" si="3"/>
+      <c r="M215" s="33"/>
+      <c r="N215" s="29">
         <v>692</v>
       </c>
     </row>
@@ -9147,9 +9032,8 @@
       <c r="J216" s="17"/>
       <c r="K216" s="10"/>
       <c r="L216" s="21"/>
-      <c r="M216" s="34"/>
-      <c r="N216" s="31">
-        <f t="shared" si="3"/>
+      <c r="M216" s="33"/>
+      <c r="N216" s="29">
         <v>1111</v>
       </c>
     </row>
@@ -9184,9 +9068,8 @@
       <c r="J217" s="17"/>
       <c r="K217" s="10"/>
       <c r="L217" s="21"/>
-      <c r="M217" s="34"/>
-      <c r="N217" s="31">
-        <f t="shared" si="3"/>
+      <c r="M217" s="33"/>
+      <c r="N217" s="29">
         <v>1713</v>
       </c>
     </row>
@@ -9221,9 +9104,8 @@
       <c r="J218" s="17"/>
       <c r="K218" s="10"/>
       <c r="L218" s="21"/>
-      <c r="M218" s="34"/>
-      <c r="N218" s="31">
-        <f t="shared" si="3"/>
+      <c r="M218" s="33"/>
+      <c r="N218" s="29">
         <v>1679</v>
       </c>
     </row>
@@ -9258,9 +9140,8 @@
       <c r="J219" s="17"/>
       <c r="K219" s="10"/>
       <c r="L219" s="21"/>
-      <c r="M219" s="34"/>
-      <c r="N219" s="31">
-        <f t="shared" si="3"/>
+      <c r="M219" s="33"/>
+      <c r="N219" s="29">
         <v>1527</v>
       </c>
     </row>
@@ -9295,9 +9176,8 @@
       <c r="J220" s="17"/>
       <c r="K220" s="10"/>
       <c r="L220" s="21"/>
-      <c r="M220" s="34"/>
-      <c r="N220" s="31">
-        <f t="shared" si="3"/>
+      <c r="M220" s="33"/>
+      <c r="N220" s="29">
         <v>1333</v>
       </c>
     </row>
@@ -9332,9 +9212,8 @@
       <c r="J221" s="17"/>
       <c r="K221" s="10"/>
       <c r="L221" s="21"/>
-      <c r="M221" s="34"/>
-      <c r="N221" s="31">
-        <f t="shared" si="3"/>
+      <c r="M221" s="33"/>
+      <c r="N221" s="29">
         <v>1231</v>
       </c>
     </row>
@@ -9369,9 +9248,8 @@
       <c r="J222" s="17"/>
       <c r="K222" s="10"/>
       <c r="L222" s="21"/>
-      <c r="M222" s="34"/>
-      <c r="N222" s="31">
-        <f t="shared" si="3"/>
+      <c r="M222" s="33"/>
+      <c r="N222" s="29">
         <v>808</v>
       </c>
     </row>
@@ -9406,9 +9284,8 @@
       <c r="J223" s="17"/>
       <c r="K223" s="10"/>
       <c r="L223" s="21"/>
-      <c r="M223" s="34"/>
-      <c r="N223" s="31">
-        <f t="shared" si="3"/>
+      <c r="M223" s="33"/>
+      <c r="N223" s="29">
         <v>1059</v>
       </c>
     </row>
@@ -9443,9 +9320,8 @@
       <c r="J224" s="17"/>
       <c r="K224" s="10"/>
       <c r="L224" s="21"/>
-      <c r="M224" s="34"/>
-      <c r="N224" s="31">
-        <f t="shared" si="3"/>
+      <c r="M224" s="33"/>
+      <c r="N224" s="29">
         <v>1767</v>
       </c>
     </row>
@@ -9480,9 +9356,8 @@
       <c r="J225" s="17"/>
       <c r="K225" s="10"/>
       <c r="L225" s="21"/>
-      <c r="M225" s="34"/>
-      <c r="N225" s="31">
-        <f t="shared" si="3"/>
+      <c r="M225" s="33"/>
+      <c r="N225" s="29">
         <v>1639</v>
       </c>
     </row>
@@ -9517,9 +9392,8 @@
       <c r="J226" s="17"/>
       <c r="K226" s="10"/>
       <c r="L226" s="21"/>
-      <c r="M226" s="34"/>
-      <c r="N226" s="31">
-        <f t="shared" si="3"/>
+      <c r="M226" s="33"/>
+      <c r="N226" s="29">
         <v>1629</v>
       </c>
     </row>
@@ -9554,9 +9428,8 @@
       <c r="J227" s="17"/>
       <c r="K227" s="10"/>
       <c r="L227" s="21"/>
-      <c r="M227" s="34"/>
-      <c r="N227" s="31">
-        <f t="shared" si="3"/>
+      <c r="M227" s="33"/>
+      <c r="N227" s="29">
         <v>1552</v>
       </c>
     </row>
@@ -9591,9 +9464,8 @@
       <c r="J228" s="17"/>
       <c r="K228" s="10"/>
       <c r="L228" s="21"/>
-      <c r="M228" s="34"/>
-      <c r="N228" s="31">
-        <f t="shared" si="3"/>
+      <c r="M228" s="33"/>
+      <c r="N228" s="29">
         <v>1438</v>
       </c>
     </row>
@@ -9628,9 +9500,8 @@
       <c r="J229" s="17"/>
       <c r="K229" s="10"/>
       <c r="L229" s="21"/>
-      <c r="M229" s="34"/>
-      <c r="N229" s="31">
-        <f t="shared" si="3"/>
+      <c r="M229" s="33"/>
+      <c r="N229" s="29">
         <v>1271</v>
       </c>
     </row>
@@ -9665,9 +9536,8 @@
       <c r="J230" s="17"/>
       <c r="K230" s="10"/>
       <c r="L230" s="21"/>
-      <c r="M230" s="34"/>
-      <c r="N230" s="31">
-        <f t="shared" si="3"/>
+      <c r="M230" s="33"/>
+      <c r="N230" s="29">
         <v>1470</v>
       </c>
     </row>
@@ -9702,9 +9572,8 @@
       <c r="J231" s="17"/>
       <c r="K231" s="10"/>
       <c r="L231" s="21"/>
-      <c r="M231" s="34"/>
-      <c r="N231" s="31">
-        <f t="shared" si="3"/>
+      <c r="M231" s="33"/>
+      <c r="N231" s="29">
         <v>2158</v>
       </c>
     </row>
@@ -9739,9 +9608,8 @@
       <c r="J232" s="17"/>
       <c r="K232" s="10"/>
       <c r="L232" s="21"/>
-      <c r="M232" s="34"/>
-      <c r="N232" s="31">
-        <f t="shared" si="3"/>
+      <c r="M232" s="33"/>
+      <c r="N232" s="29">
         <v>2086</v>
       </c>
     </row>
@@ -9776,9 +9644,8 @@
       <c r="J233" s="17"/>
       <c r="K233" s="10"/>
       <c r="L233" s="21"/>
-      <c r="M233" s="34"/>
-      <c r="N233" s="31">
-        <f t="shared" si="3"/>
+      <c r="M233" s="33"/>
+      <c r="N233" s="29">
         <v>2343</v>
       </c>
     </row>
@@ -9813,9 +9680,8 @@
       <c r="J234" s="17"/>
       <c r="K234" s="10"/>
       <c r="L234" s="21"/>
-      <c r="M234" s="34"/>
-      <c r="N234" s="31">
-        <f t="shared" si="3"/>
+      <c r="M234" s="33"/>
+      <c r="N234" s="29">
         <v>2064</v>
       </c>
     </row>
@@ -9850,9 +9716,8 @@
       <c r="J235" s="17"/>
       <c r="K235" s="10"/>
       <c r="L235" s="21"/>
-      <c r="M235" s="34"/>
-      <c r="N235" s="31">
-        <f t="shared" si="3"/>
+      <c r="M235" s="33"/>
+      <c r="N235" s="29">
         <v>1835</v>
       </c>
     </row>
@@ -9887,9 +9752,8 @@
       <c r="J236" s="17"/>
       <c r="K236" s="10"/>
       <c r="L236" s="21"/>
-      <c r="M236" s="34"/>
-      <c r="N236" s="31">
-        <f t="shared" si="3"/>
+      <c r="M236" s="33"/>
+      <c r="N236" s="29">
         <v>1591</v>
       </c>
     </row>
@@ -9924,9 +9788,8 @@
       <c r="J237" s="17"/>
       <c r="K237" s="10"/>
       <c r="L237" s="21"/>
-      <c r="M237" s="34"/>
-      <c r="N237" s="31">
-        <f t="shared" si="3"/>
+      <c r="M237" s="33"/>
+      <c r="N237" s="29">
         <v>2121</v>
       </c>
     </row>
@@ -9961,9 +9824,8 @@
       <c r="J238" s="17"/>
       <c r="K238" s="10"/>
       <c r="L238" s="21"/>
-      <c r="M238" s="34"/>
-      <c r="N238" s="31">
-        <f t="shared" si="3"/>
+      <c r="M238" s="33"/>
+      <c r="N238" s="29">
         <v>2958</v>
       </c>
     </row>
@@ -9998,9 +9860,8 @@
       <c r="J239" s="17"/>
       <c r="K239" s="10"/>
       <c r="L239" s="21"/>
-      <c r="M239" s="34"/>
-      <c r="N239" s="31">
-        <f t="shared" si="3"/>
+      <c r="M239" s="33"/>
+      <c r="N239" s="29">
         <v>3130</v>
       </c>
     </row>
@@ -10035,9 +9896,8 @@
       <c r="J240" s="17"/>
       <c r="K240" s="10"/>
       <c r="L240" s="21"/>
-      <c r="M240" s="34"/>
-      <c r="N240" s="31">
-        <f t="shared" si="3"/>
+      <c r="M240" s="33"/>
+      <c r="N240" s="29">
         <v>3186</v>
       </c>
     </row>
@@ -10072,9 +9932,8 @@
       <c r="J241" s="17"/>
       <c r="K241" s="10"/>
       <c r="L241" s="21"/>
-      <c r="M241" s="34"/>
-      <c r="N241" s="31">
-        <f t="shared" si="3"/>
+      <c r="M241" s="33"/>
+      <c r="N241" s="29">
         <v>3517</v>
       </c>
     </row>
@@ -10109,9 +9968,8 @@
       <c r="J242" s="17"/>
       <c r="K242" s="10"/>
       <c r="L242" s="21"/>
-      <c r="M242" s="34"/>
-      <c r="N242" s="31">
-        <f t="shared" si="3"/>
+      <c r="M242" s="33"/>
+      <c r="N242" s="29">
         <v>2880</v>
       </c>
     </row>
@@ -10146,9 +10004,8 @@
       <c r="J243" s="17"/>
       <c r="K243" s="10"/>
       <c r="L243" s="21"/>
-      <c r="M243" s="34"/>
-      <c r="N243" s="31">
-        <f t="shared" si="3"/>
+      <c r="M243" s="33"/>
+      <c r="N243" s="29">
         <v>2069</v>
       </c>
     </row>
@@ -10183,9 +10040,8 @@
       <c r="J244" s="17"/>
       <c r="K244" s="10"/>
       <c r="L244" s="21"/>
-      <c r="M244" s="34"/>
-      <c r="N244" s="31">
-        <f t="shared" si="3"/>
+      <c r="M244" s="33"/>
+      <c r="N244" s="29">
         <v>3109</v>
       </c>
     </row>
@@ -10220,9 +10076,8 @@
       <c r="J245" s="17"/>
       <c r="K245" s="10"/>
       <c r="L245" s="21"/>
-      <c r="M245" s="34"/>
-      <c r="N245" s="31">
-        <f t="shared" si="3"/>
+      <c r="M245" s="33"/>
+      <c r="N245" s="29">
         <v>4016</v>
       </c>
     </row>
@@ -10257,9 +10112,8 @@
       <c r="J246" s="17"/>
       <c r="K246" s="10"/>
       <c r="L246" s="21"/>
-      <c r="M246" s="34"/>
-      <c r="N246" s="31">
-        <f t="shared" si="3"/>
+      <c r="M246" s="33"/>
+      <c r="N246" s="29">
         <v>4013</v>
       </c>
     </row>
@@ -10294,9 +10148,8 @@
       <c r="J247" s="17"/>
       <c r="K247" s="10"/>
       <c r="L247" s="21"/>
-      <c r="M247" s="34"/>
-      <c r="N247" s="31">
-        <f t="shared" si="3"/>
+      <c r="M247" s="33"/>
+      <c r="N247" s="29">
         <v>4026</v>
       </c>
     </row>
@@ -10331,9 +10184,8 @@
       <c r="J248" s="17"/>
       <c r="K248" s="10"/>
       <c r="L248" s="21"/>
-      <c r="M248" s="34"/>
-      <c r="N248" s="31">
-        <f t="shared" si="3"/>
+      <c r="M248" s="33"/>
+      <c r="N248" s="29">
         <v>3952</v>
       </c>
     </row>
@@ -10368,9 +10220,8 @@
       <c r="J249" s="17"/>
       <c r="K249" s="10"/>
       <c r="L249" s="21"/>
-      <c r="M249" s="34"/>
-      <c r="N249" s="31">
-        <f t="shared" si="3"/>
+      <c r="M249" s="33"/>
+      <c r="N249" s="29">
         <v>3920</v>
       </c>
     </row>
@@ -10405,9 +10256,8 @@
       <c r="J250" s="17"/>
       <c r="K250" s="10"/>
       <c r="L250" s="21"/>
-      <c r="M250" s="34"/>
-      <c r="N250" s="31">
-        <f t="shared" si="3"/>
+      <c r="M250" s="33"/>
+      <c r="N250" s="29">
         <v>2466</v>
       </c>
     </row>
@@ -10442,9 +10292,8 @@
       <c r="J251" s="17"/>
       <c r="K251" s="10"/>
       <c r="L251" s="21"/>
-      <c r="M251" s="34"/>
-      <c r="N251" s="31">
-        <f t="shared" si="3"/>
+      <c r="M251" s="33"/>
+      <c r="N251" s="29">
         <v>3400</v>
       </c>
     </row>
@@ -10479,9 +10328,8 @@
       <c r="J252" s="17"/>
       <c r="K252" s="10"/>
       <c r="L252" s="21"/>
-      <c r="M252" s="34"/>
-      <c r="N252" s="31">
-        <f t="shared" si="3"/>
+      <c r="M252" s="33"/>
+      <c r="N252" s="29">
         <v>4848</v>
       </c>
     </row>
@@ -10516,9 +10364,8 @@
       <c r="J253" s="17"/>
       <c r="K253" s="10"/>
       <c r="L253" s="21"/>
-      <c r="M253" s="34"/>
-      <c r="N253" s="31">
-        <f t="shared" si="3"/>
+      <c r="M253" s="33"/>
+      <c r="N253" s="29">
         <v>4902</v>
       </c>
     </row>
@@ -10553,9 +10400,8 @@
       <c r="J254" s="17"/>
       <c r="K254" s="10"/>
       <c r="L254" s="21"/>
-      <c r="M254" s="34"/>
-      <c r="N254" s="31">
-        <f t="shared" si="3"/>
+      <c r="M254" s="33"/>
+      <c r="N254" s="29">
         <v>5028</v>
       </c>
     </row>
@@ -10590,9 +10436,8 @@
       <c r="J255" s="17"/>
       <c r="K255" s="10"/>
       <c r="L255" s="21"/>
-      <c r="M255" s="34"/>
-      <c r="N255" s="31">
-        <f t="shared" si="3"/>
+      <c r="M255" s="33"/>
+      <c r="N255" s="29">
         <v>4761</v>
       </c>
     </row>
@@ -10627,9 +10472,8 @@
       <c r="J256" s="17"/>
       <c r="K256" s="10"/>
       <c r="L256" s="21"/>
-      <c r="M256" s="34"/>
-      <c r="N256" s="31">
-        <f t="shared" si="3"/>
+      <c r="M256" s="33"/>
+      <c r="N256" s="29">
         <v>3855</v>
       </c>
     </row>
@@ -10664,9 +10508,8 @@
       <c r="J257" s="17"/>
       <c r="K257" s="10"/>
       <c r="L257" s="21"/>
-      <c r="M257" s="34"/>
-      <c r="N257" s="31">
-        <f t="shared" si="3"/>
+      <c r="M257" s="33"/>
+      <c r="N257" s="29">
         <v>2844</v>
       </c>
     </row>
@@ -10701,9 +10544,8 @@
       <c r="J258" s="17"/>
       <c r="K258" s="10"/>
       <c r="L258" s="21"/>
-      <c r="M258" s="34"/>
-      <c r="N258" s="31">
-        <f t="shared" si="3"/>
+      <c r="M258" s="33"/>
+      <c r="N258" s="29">
         <v>4724</v>
       </c>
     </row>
@@ -10738,9 +10580,8 @@
       <c r="J259" s="17"/>
       <c r="K259" s="10"/>
       <c r="L259" s="21"/>
-      <c r="M259" s="34"/>
-      <c r="N259" s="31">
-        <f t="shared" si="3"/>
+      <c r="M259" s="33"/>
+      <c r="N259" s="29">
         <v>5343</v>
       </c>
     </row>
@@ -10775,9 +10616,8 @@
       <c r="J260" s="17"/>
       <c r="K260" s="10"/>
       <c r="L260" s="21"/>
-      <c r="M260" s="34"/>
-      <c r="N260" s="31">
-        <f t="shared" si="3"/>
+      <c r="M260" s="33"/>
+      <c r="N260" s="29">
         <v>6481</v>
       </c>
     </row>
@@ -10812,9 +10652,8 @@
       <c r="J261" s="17"/>
       <c r="K261" s="10"/>
       <c r="L261" s="21"/>
-      <c r="M261" s="34"/>
-      <c r="N261" s="31">
-        <f t="shared" si="3"/>
+      <c r="M261" s="33"/>
+      <c r="N261" s="29">
         <v>6546</v>
       </c>
     </row>
@@ -10849,9 +10688,8 @@
       <c r="J262" s="17"/>
       <c r="K262" s="10"/>
       <c r="L262" s="21"/>
-      <c r="M262" s="34"/>
-      <c r="N262" s="31">
-        <f t="shared" si="3"/>
+      <c r="M262" s="33"/>
+      <c r="N262" s="29">
         <v>5753</v>
       </c>
     </row>
@@ -10886,9 +10724,8 @@
       <c r="J263" s="17"/>
       <c r="K263" s="10"/>
       <c r="L263" s="21"/>
-      <c r="M263" s="34"/>
-      <c r="N263" s="31">
-        <f t="shared" ref="N263:N282" si="4">SUM(C263-C262)</f>
+      <c r="M263" s="33"/>
+      <c r="N263" s="29">
         <v>5324</v>
       </c>
     </row>
@@ -10921,7 +10758,6 @@
         <v>1.6E-2</v>
       </c>
       <c r="N264" s="31">
-        <f t="shared" si="4"/>
         <v>4041</v>
       </c>
     </row>
@@ -10954,7 +10790,6 @@
         <v>0.03</v>
       </c>
       <c r="N265" s="31">
-        <f t="shared" si="4"/>
         <v>7733</v>
       </c>
     </row>
@@ -10987,7 +10822,6 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="N266" s="31">
-        <f t="shared" si="4"/>
         <v>8651</v>
       </c>
     </row>
@@ -11020,7 +10854,6 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="N267" s="31">
-        <f t="shared" si="4"/>
         <v>9714</v>
       </c>
     </row>
@@ -11053,7 +10886,6 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="N268" s="31">
-        <f t="shared" si="4"/>
         <v>10260</v>
       </c>
     </row>
@@ -11086,7 +10918,6 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="N269" s="31">
-        <f t="shared" si="4"/>
         <v>9937</v>
       </c>
     </row>
@@ -11119,7 +10950,6 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="N270" s="31">
-        <f t="shared" si="4"/>
         <v>6752</v>
       </c>
     </row>
@@ -11152,7 +10982,6 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="N271" s="31">
-        <f t="shared" si="4"/>
         <v>3240</v>
       </c>
     </row>
@@ -11185,7 +11014,6 @@
         <v>2.3E-2</v>
       </c>
       <c r="N272" s="31">
-        <f t="shared" si="4"/>
         <v>7304</v>
       </c>
     </row>
@@ -11218,7 +11046,6 @@
         <v>0.03</v>
       </c>
       <c r="N273" s="31">
-        <f t="shared" si="4"/>
         <v>9799</v>
       </c>
     </row>
@@ -11251,7 +11078,6 @@
         <v>0.03</v>
       </c>
       <c r="N274" s="31">
-        <f t="shared" si="4"/>
         <v>10142</v>
       </c>
     </row>
@@ -11284,7 +11110,6 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="N275" s="31">
-        <f t="shared" si="4"/>
         <v>9489</v>
       </c>
     </row>
@@ -11317,7 +11142,6 @@
         <v>2.7E-2</v>
       </c>
       <c r="N276" s="31">
-        <f t="shared" si="4"/>
         <v>9460</v>
       </c>
     </row>
@@ -11350,7 +11174,6 @@
         <v>0.02</v>
       </c>
       <c r="N277" s="31">
-        <f t="shared" si="4"/>
         <v>7096</v>
       </c>
     </row>
@@ -11383,7 +11206,6 @@
         <v>1.4E-2</v>
       </c>
       <c r="N278" s="31">
-        <f t="shared" si="4"/>
         <v>4931</v>
       </c>
     </row>
@@ -11416,7 +11238,6 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="N279" s="31">
-        <f t="shared" si="4"/>
         <v>8262</v>
       </c>
     </row>
@@ -11449,7 +11270,6 @@
         <v>2.7E-2</v>
       </c>
       <c r="N280" s="31">
-        <f t="shared" si="4"/>
         <v>10269</v>
       </c>
     </row>
@@ -11482,7 +11302,6 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="N281" s="31">
-        <f t="shared" si="4"/>
         <v>10108</v>
       </c>
     </row>
@@ -11515,7 +11334,6 @@
         <v>2.3E-2</v>
       </c>
       <c r="N282" s="31">
-        <f t="shared" si="4"/>
         <v>9272</v>
       </c>
     </row>
@@ -11548,7 +11366,6 @@
         <v>2.3E-2</v>
       </c>
       <c r="N283" s="31">
-        <f>SUM(C283-C282)</f>
         <v>9685</v>
       </c>
     </row>
@@ -11581,7 +11398,6 @@
         <v>1.4E-2</v>
       </c>
       <c r="N284" s="31">
-        <f>SUM(C284-C283)</f>
         <v>5837</v>
       </c>
     </row>
@@ -11614,7 +11430,6 @@
         <v>0.01</v>
       </c>
       <c r="N285" s="31">
-        <f>SUM(C285-C284)</f>
         <v>4207</v>
       </c>
     </row>
@@ -11647,7 +11462,6 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="N286" s="31">
-        <f t="shared" ref="N286:N349" si="5">SUM(C286-C285)</f>
         <v>7753</v>
       </c>
     </row>
@@ -11680,7 +11494,6 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="N287" s="31">
-        <f t="shared" si="5"/>
         <v>9739</v>
       </c>
     </row>
@@ -11713,7 +11526,6 @@
         <v>0.02</v>
       </c>
       <c r="N288" s="31">
-        <f t="shared" si="5"/>
         <v>9005</v>
       </c>
     </row>
@@ -11746,7 +11558,6 @@
         <v>1.9E-2</v>
       </c>
       <c r="N289" s="31">
-        <f t="shared" si="5"/>
         <v>8499</v>
       </c>
     </row>
@@ -11779,7 +11590,6 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="N290" s="31">
-        <f t="shared" si="5"/>
         <v>8134</v>
       </c>
     </row>
@@ -11812,7 +11622,6 @@
         <v>1.2E-2</v>
       </c>
       <c r="N291" s="31">
-        <f t="shared" si="5"/>
         <v>5554</v>
       </c>
     </row>
@@ -11845,7 +11654,6 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="N292" s="31">
-        <f t="shared" si="5"/>
         <v>3826</v>
       </c>
     </row>
@@ -11878,7 +11686,6 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="N293" s="31">
-        <f t="shared" si="5"/>
         <v>4272</v>
       </c>
     </row>
@@ -11911,7 +11718,6 @@
         <v>0.01</v>
       </c>
       <c r="N294" s="31">
-        <f t="shared" si="5"/>
         <v>4916</v>
       </c>
     </row>
@@ -11944,7 +11750,6 @@
         <v>1.6E-2</v>
       </c>
       <c r="N295" s="31">
-        <f t="shared" si="5"/>
         <v>7661</v>
       </c>
     </row>
@@ -11977,7 +11782,6 @@
         <v>1.6E-2</v>
       </c>
       <c r="N296" s="31">
-        <f t="shared" si="5"/>
         <v>8062</v>
       </c>
     </row>
@@ -12010,7 +11814,6 @@
         <v>1.6E-2</v>
       </c>
       <c r="N297" s="31">
-        <f t="shared" si="5"/>
         <v>8072</v>
       </c>
     </row>
@@ -12043,7 +11846,6 @@
         <v>0.01</v>
       </c>
       <c r="N298" s="31">
-        <f t="shared" si="5"/>
         <v>5231</v>
       </c>
     </row>
@@ -12076,7 +11878,6 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="N299" s="31">
-        <f t="shared" si="5"/>
         <v>3660</v>
       </c>
     </row>
@@ -12109,7 +11910,6 @@
         <v>1.4E-2</v>
       </c>
       <c r="N300" s="31">
-        <f t="shared" si="5"/>
         <v>7439</v>
       </c>
     </row>
@@ -12142,7 +11942,6 @@
         <v>1.4E-2</v>
       </c>
       <c r="N301" s="31">
-        <f t="shared" si="5"/>
         <v>7365</v>
       </c>
     </row>
@@ -12175,7 +11974,6 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="N302" s="31">
-        <f t="shared" si="5"/>
         <v>7067</v>
       </c>
     </row>
@@ -12208,7 +12006,6 @@
         <v>1.2E-2</v>
       </c>
       <c r="N303" s="31">
-        <f t="shared" si="5"/>
         <v>6460</v>
       </c>
     </row>
@@ -12241,7 +12038,6 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="N304" s="31">
-        <f t="shared" si="5"/>
         <v>6333</v>
       </c>
     </row>
@@ -12274,7 +12070,6 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="N305" s="31">
-        <f t="shared" si="5"/>
         <v>4435</v>
       </c>
     </row>
@@ -12307,7 +12102,6 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="N306" s="31">
-        <f t="shared" si="5"/>
         <v>3252</v>
       </c>
     </row>
@@ -12340,7 +12134,6 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="N307" s="31">
-        <f t="shared" si="5"/>
         <v>6171</v>
       </c>
     </row>
@@ -12373,7 +12166,6 @@
         <v>0.01</v>
       </c>
       <c r="N308" s="31">
-        <f t="shared" si="5"/>
         <v>5991</v>
       </c>
     </row>
@@ -12406,7 +12198,6 @@
         <v>0.01</v>
       </c>
       <c r="N309" s="31">
-        <f t="shared" si="5"/>
         <v>5697</v>
       </c>
     </row>
@@ -12439,7 +12230,6 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="N310" s="31">
-        <f t="shared" si="5"/>
         <v>5340</v>
       </c>
     </row>
@@ -12472,7 +12262,6 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="N311" s="31">
-        <f t="shared" si="5"/>
         <v>5158</v>
       </c>
     </row>
@@ -12505,7 +12294,6 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="N312" s="31">
-        <f t="shared" si="5"/>
         <v>3350</v>
       </c>
     </row>
@@ -12538,7 +12326,6 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N313" s="31">
-        <f t="shared" si="5"/>
         <v>2489</v>
       </c>
     </row>
@@ -12571,7 +12358,6 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="N314" s="31">
-        <f t="shared" si="5"/>
         <v>5009</v>
       </c>
     </row>
@@ -12604,7 +12390,6 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="N315" s="31">
-        <f t="shared" si="5"/>
         <v>5459</v>
       </c>
     </row>
@@ -12637,7 +12422,6 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="N316" s="31">
-        <f t="shared" si="5"/>
         <v>4310</v>
       </c>
     </row>
@@ -12670,7 +12454,6 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="N317" s="31">
-        <f t="shared" si="5"/>
         <v>3812</v>
       </c>
     </row>
@@ -12703,7 +12486,6 @@
         <v>2E-3</v>
       </c>
       <c r="N318" s="31">
-        <f t="shared" si="5"/>
         <v>1387</v>
       </c>
     </row>
@@ -12736,7 +12518,6 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="N319" s="31">
-        <f t="shared" si="5"/>
         <v>2049</v>
       </c>
     </row>
@@ -12769,7 +12550,6 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N320" s="31">
-        <f t="shared" si="5"/>
         <v>2620</v>
       </c>
     </row>
@@ -12802,7 +12582,6 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="N321" s="31">
-        <f t="shared" si="5"/>
         <v>4637</v>
       </c>
     </row>
@@ -12835,7 +12614,6 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="N322" s="31">
-        <f t="shared" si="5"/>
         <v>4875</v>
       </c>
     </row>
@@ -12868,7 +12646,6 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="N323" s="31">
-        <f t="shared" si="5"/>
         <v>4322</v>
       </c>
     </row>
@@ -12901,7 +12678,6 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="N324" s="31">
-        <f t="shared" si="5"/>
         <v>3938</v>
       </c>
     </row>
@@ -12934,7 +12710,6 @@
         <v>2E-3</v>
       </c>
       <c r="N325" s="31">
-        <f t="shared" si="5"/>
         <v>1194</v>
       </c>
     </row>
@@ -12967,7 +12742,6 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N326" s="31">
-        <f t="shared" si="5"/>
         <v>3034</v>
       </c>
     </row>
@@ -13000,7 +12774,6 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N327" s="31">
-        <f t="shared" si="5"/>
         <v>3130</v>
       </c>
     </row>
@@ -13033,7 +12806,6 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="N328" s="31">
-        <f t="shared" si="5"/>
         <v>4729</v>
       </c>
     </row>
@@ -13066,7 +12838,6 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="N329" s="31">
-        <f t="shared" si="5"/>
         <v>5719</v>
       </c>
     </row>
@@ -13099,7 +12870,6 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="N330" s="31">
-        <f t="shared" si="5"/>
         <v>4951</v>
       </c>
     </row>
@@ -13132,7 +12902,6 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="N331" s="31">
-        <f t="shared" si="5"/>
         <v>4841</v>
       </c>
     </row>
@@ -13165,7 +12934,6 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="N332" s="31">
-        <f t="shared" si="5"/>
         <v>4403</v>
       </c>
     </row>
@@ -13198,7 +12966,6 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N333" s="31">
-        <f t="shared" si="5"/>
         <v>3082</v>
       </c>
     </row>
@@ -13231,7 +12998,6 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="N334" s="31">
-        <f t="shared" si="5"/>
         <v>1987</v>
       </c>
     </row>
@@ -13264,7 +13030,6 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N335" s="31">
-        <f t="shared" si="5"/>
         <v>3697</v>
       </c>
     </row>
@@ -13297,7 +13062,6 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="N336" s="31">
-        <f t="shared" si="5"/>
         <v>4424</v>
       </c>
     </row>
@@ -13330,7 +13094,6 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N337" s="31">
-        <f t="shared" si="5"/>
         <v>3525</v>
       </c>
     </row>
@@ -13363,7 +13126,6 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N338" s="31">
-        <f t="shared" si="5"/>
         <v>3353</v>
       </c>
     </row>
@@ -13396,7 +13158,6 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N339" s="31">
-        <f t="shared" si="5"/>
         <v>3218</v>
       </c>
     </row>
@@ -13429,7 +13190,6 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="N340" s="31">
-        <f t="shared" si="5"/>
         <v>2156</v>
       </c>
     </row>
@@ -13462,7 +13222,6 @@
         <v>2E-3</v>
       </c>
       <c r="N341" s="31">
-        <f t="shared" si="5"/>
         <v>1509</v>
       </c>
     </row>
@@ -13495,7 +13254,6 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N342" s="31">
-        <f t="shared" si="5"/>
         <v>2745</v>
       </c>
     </row>
@@ -13528,7 +13286,6 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N343" s="31">
-        <f t="shared" si="5"/>
         <v>3000</v>
       </c>
     </row>
@@ -13561,7 +13318,6 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N344" s="31">
-        <f t="shared" si="5"/>
         <v>2878</v>
       </c>
     </row>
@@ -13594,7 +13350,6 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N345" s="31">
-        <f t="shared" si="5"/>
         <v>2699</v>
       </c>
     </row>
@@ -13627,7 +13382,6 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N346" s="31">
-        <f t="shared" si="5"/>
         <v>2719</v>
       </c>
     </row>
@@ -13660,7 +13414,6 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="N347" s="31">
-        <f t="shared" si="5"/>
         <v>1816</v>
       </c>
     </row>
@@ -13693,7 +13446,6 @@
         <v>2E-3</v>
       </c>
       <c r="N348" s="31">
-        <f t="shared" si="5"/>
         <v>1551</v>
       </c>
     </row>
@@ -13726,7 +13478,6 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N349" s="31">
-        <f t="shared" si="5"/>
         <v>2877</v>
       </c>
     </row>
@@ -13759,7 +13510,6 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N350" s="31">
-        <f t="shared" ref="N350:N413" si="6">SUM(C350-C349)</f>
         <v>3174</v>
       </c>
     </row>
@@ -13792,7 +13542,6 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N351" s="31">
-        <f t="shared" si="6"/>
         <v>2901</v>
       </c>
     </row>
@@ -13825,7 +13574,6 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N352" s="31">
-        <f t="shared" si="6"/>
         <v>2737</v>
       </c>
     </row>
@@ -13858,7 +13606,6 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N353" s="31">
-        <f t="shared" si="6"/>
         <v>2668</v>
       </c>
     </row>
@@ -13891,7 +13638,6 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="N354" s="31">
-        <f t="shared" si="6"/>
         <v>1825</v>
       </c>
     </row>
@@ -13924,7 +13670,6 @@
         <v>2E-3</v>
       </c>
       <c r="N355" s="31">
-        <f t="shared" si="6"/>
         <v>1313</v>
       </c>
     </row>
@@ -13957,7 +13702,6 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N356" s="31">
-        <f t="shared" si="6"/>
         <v>2676</v>
       </c>
     </row>
@@ -13990,7 +13734,6 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N357" s="31">
-        <f t="shared" si="6"/>
         <v>2752</v>
       </c>
     </row>
@@ -14023,7 +13766,6 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N358" s="31">
-        <f t="shared" si="6"/>
         <v>2668</v>
       </c>
     </row>
@@ -14056,7 +13798,6 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="N359" s="31">
-        <f t="shared" si="6"/>
         <v>2580</v>
       </c>
     </row>
@@ -14089,7 +13830,6 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N360" s="31">
-        <f t="shared" si="6"/>
         <v>2611</v>
       </c>
     </row>
@@ -14122,7 +13862,6 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="N361" s="31">
-        <f t="shared" si="6"/>
         <v>1975</v>
       </c>
     </row>
@@ -14155,7 +13894,6 @@
         <v>2E-3</v>
       </c>
       <c r="N362" s="31">
-        <f t="shared" si="6"/>
         <v>1319</v>
       </c>
     </row>
@@ -14188,7 +13926,6 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N363" s="31">
-        <f t="shared" si="6"/>
         <v>2797</v>
       </c>
     </row>
@@ -14221,7 +13958,6 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N364" s="31">
-        <f t="shared" si="6"/>
         <v>3048</v>
       </c>
     </row>
@@ -14254,7 +13990,6 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N365" s="31">
-        <f t="shared" si="6"/>
         <v>2644</v>
       </c>
     </row>
@@ -14287,7 +14022,6 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="N366" s="31">
-        <f t="shared" si="6"/>
         <v>2550</v>
       </c>
     </row>
@@ -14320,7 +14054,6 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="N367" s="31">
-        <f t="shared" si="6"/>
         <v>2415</v>
       </c>
     </row>
@@ -14353,7 +14086,6 @@
         <v>2E-3</v>
       </c>
       <c r="N368" s="31">
-        <f t="shared" si="6"/>
         <v>1872</v>
       </c>
     </row>
@@ -14386,7 +14118,6 @@
         <v>2E-3</v>
       </c>
       <c r="N369" s="31">
-        <f t="shared" si="6"/>
         <v>1331</v>
       </c>
     </row>
@@ -14419,7 +14150,6 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="N370" s="31">
-        <f t="shared" si="6"/>
         <v>2676</v>
       </c>
     </row>
@@ -14452,7 +14182,6 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N371" s="31">
-        <f t="shared" si="6"/>
         <v>2815</v>
       </c>
     </row>
@@ -14485,7 +14214,6 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N372" s="31">
-        <f t="shared" si="6"/>
         <v>3058</v>
       </c>
     </row>
@@ -14518,7 +14246,6 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N373" s="31">
-        <f t="shared" si="6"/>
         <v>2712</v>
       </c>
     </row>
@@ -14551,7 +14278,6 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N374" s="31">
-        <f t="shared" si="6"/>
         <v>2721</v>
       </c>
     </row>
@@ -14584,7 +14310,6 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="N375" s="31">
-        <f t="shared" si="6"/>
         <v>2419</v>
       </c>
     </row>
@@ -14617,7 +14342,6 @@
         <v>2E-3</v>
       </c>
       <c r="N376" s="31">
-        <f t="shared" si="6"/>
         <v>1634</v>
       </c>
     </row>
@@ -14650,7 +14374,6 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N377" s="31">
-        <f t="shared" si="6"/>
         <v>3382</v>
       </c>
     </row>
@@ -14683,7 +14406,6 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N378" s="31">
-        <f t="shared" si="6"/>
         <v>3337</v>
       </c>
     </row>
@@ -14716,7 +14438,6 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N379" s="31">
-        <f t="shared" si="6"/>
         <v>3923</v>
       </c>
     </row>
@@ -14749,7 +14470,6 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N380" s="31">
-        <f t="shared" si="6"/>
         <v>3761</v>
       </c>
     </row>
@@ -14782,7 +14502,6 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N381" s="31">
-        <f t="shared" si="6"/>
         <v>3432</v>
       </c>
     </row>
@@ -14815,7 +14534,6 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N382" s="31">
-        <f t="shared" si="6"/>
         <v>2830</v>
       </c>
     </row>
@@ -14848,7 +14566,6 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="N383" s="31">
-        <f t="shared" si="6"/>
         <v>2096</v>
       </c>
     </row>
@@ -14881,7 +14598,6 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N384" s="31">
-        <f t="shared" si="6"/>
         <v>3950</v>
       </c>
     </row>
@@ -14914,7 +14630,6 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N385" s="31">
-        <f t="shared" si="6"/>
         <v>4278</v>
       </c>
     </row>
@@ -14947,7 +14662,6 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N386" s="31">
-        <f t="shared" si="6"/>
         <v>4271</v>
       </c>
     </row>
@@ -14980,7 +14694,6 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N387" s="31">
-        <f t="shared" si="6"/>
         <v>4342</v>
       </c>
     </row>
@@ -15013,7 +14726,6 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N388" s="31">
-        <f t="shared" si="6"/>
         <v>4064</v>
       </c>
     </row>
@@ -15046,7 +14758,6 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N389" s="31">
-        <f t="shared" si="6"/>
         <v>3288</v>
       </c>
     </row>
@@ -15079,7 +14790,6 @@
         <v>0.9</v>
       </c>
       <c r="N390" s="31">
-        <f t="shared" si="6"/>
         <v>2280</v>
       </c>
     </row>
@@ -15112,7 +14822,6 @@
         <v>0.99</v>
       </c>
       <c r="N391" s="31">
-        <f t="shared" si="6"/>
         <v>4989</v>
       </c>
     </row>
@@ -15145,7 +14854,6 @@
         <v>1.02</v>
       </c>
       <c r="N392" s="31">
-        <f t="shared" si="6"/>
         <v>4564</v>
       </c>
     </row>
@@ -15178,7 +14886,6 @@
         <v>1.04</v>
       </c>
       <c r="N393" s="31">
-        <f t="shared" si="6"/>
         <v>5236</v>
       </c>
     </row>
@@ -15211,7 +14918,6 @@
         <v>1.03</v>
       </c>
       <c r="N394" s="31">
-        <f t="shared" si="6"/>
         <v>5010</v>
       </c>
     </row>
@@ -15244,7 +14950,6 @@
         <v>1.03</v>
       </c>
       <c r="N395" s="31">
-        <f t="shared" si="6"/>
         <v>4964</v>
       </c>
     </row>
@@ -15277,7 +14982,6 @@
         <v>1.04</v>
       </c>
       <c r="N396" s="31">
-        <f t="shared" si="6"/>
         <v>4383</v>
       </c>
     </row>
@@ -15310,7 +15014,6 @@
         <v>0.98</v>
       </c>
       <c r="N397" s="31">
-        <f t="shared" si="6"/>
         <v>2972</v>
       </c>
     </row>
@@ -15343,7 +15046,6 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="N398" s="31">
-        <f t="shared" si="6"/>
         <v>6118</v>
       </c>
     </row>
@@ -15376,7 +15078,6 @@
         <v>1.04</v>
       </c>
       <c r="N399" s="31">
-        <f t="shared" si="6"/>
         <v>6186</v>
       </c>
     </row>
@@ -15409,7 +15110,6 @@
         <v>1.03</v>
       </c>
       <c r="N400" s="31">
-        <f t="shared" si="6"/>
         <v>6174</v>
       </c>
     </row>
@@ -15442,7 +15142,6 @@
         <v>1.02</v>
       </c>
       <c r="N401" s="31">
-        <f t="shared" si="6"/>
         <v>5593</v>
       </c>
     </row>
@@ -15475,7 +15174,6 @@
         <v>1.03</v>
       </c>
       <c r="N402" s="31">
-        <f t="shared" si="6"/>
         <v>6096</v>
       </c>
     </row>
@@ -15508,7 +15206,6 @@
         <v>1.02</v>
       </c>
       <c r="N403" s="31">
-        <f t="shared" si="6"/>
         <v>4267</v>
       </c>
     </row>
@@ -15541,7 +15238,6 @@
         <v>1.02</v>
       </c>
       <c r="N404" s="31">
-        <f t="shared" si="6"/>
         <v>3743</v>
       </c>
     </row>
@@ -15574,7 +15270,6 @@
         <v>1.01</v>
       </c>
       <c r="N405" s="31">
-        <f t="shared" si="6"/>
         <v>6149</v>
       </c>
     </row>
@@ -15607,7 +15302,6 @@
         <v>1.01</v>
       </c>
       <c r="N406" s="31">
-        <f t="shared" si="6"/>
         <v>6136</v>
       </c>
     </row>
@@ -15640,7 +15334,6 @@
         <v>1.02</v>
       </c>
       <c r="N407" s="31">
-        <f t="shared" si="6"/>
         <v>6651</v>
       </c>
     </row>
@@ -15673,7 +15366,6 @@
         <v>1.02</v>
       </c>
       <c r="N408" s="31">
-        <f t="shared" si="6"/>
         <v>6516</v>
       </c>
     </row>
@@ -15706,7 +15398,6 @@
         <v>1.02</v>
       </c>
       <c r="N409" s="31">
-        <f t="shared" si="6"/>
         <v>5869</v>
       </c>
     </row>
@@ -15739,7 +15430,6 @@
         <v>1.02</v>
       </c>
       <c r="N410" s="31">
-        <f t="shared" si="6"/>
         <v>4439</v>
       </c>
     </row>
@@ -15772,7 +15462,6 @@
         <v>1.01</v>
       </c>
       <c r="N411" s="31">
-        <f t="shared" si="6"/>
         <v>3825</v>
       </c>
     </row>
@@ -15805,7 +15494,6 @@
         <v>1.01</v>
       </c>
       <c r="N412" s="31">
-        <f t="shared" si="6"/>
         <v>6204</v>
       </c>
     </row>
@@ -15838,7 +15526,6 @@
         <v>1.01</v>
       </c>
       <c r="N413" s="31">
-        <f t="shared" si="6"/>
         <v>6156</v>
       </c>
     </row>
@@ -15871,7 +15558,6 @@
         <v>1</v>
       </c>
       <c r="N414" s="31">
-        <f t="shared" ref="N414:N446" si="7">SUM(C414-C413)</f>
         <v>6115</v>
       </c>
     </row>
@@ -15904,7 +15590,6 @@
         <v>1</v>
       </c>
       <c r="N415" s="31">
-        <f t="shared" si="7"/>
         <v>5808</v>
       </c>
     </row>
@@ -15937,7 +15622,6 @@
         <v>1</v>
       </c>
       <c r="N416" s="31">
-        <f t="shared" si="7"/>
         <v>5498</v>
       </c>
     </row>
@@ -15970,7 +15654,6 @@
         <v>1</v>
       </c>
       <c r="N417" s="31">
-        <f t="shared" si="7"/>
         <v>4151</v>
       </c>
     </row>
@@ -16003,7 +15686,6 @@
         <v>1</v>
       </c>
       <c r="N418" s="31">
-        <f t="shared" si="7"/>
         <v>3611</v>
       </c>
     </row>
@@ -16036,7 +15718,6 @@
         <v>1</v>
       </c>
       <c r="N419" s="31">
-        <f t="shared" si="7"/>
         <v>5231</v>
       </c>
     </row>
@@ -16069,7 +15750,6 @@
         <v>1</v>
       </c>
       <c r="N420" s="31">
-        <f t="shared" si="7"/>
         <v>5407</v>
       </c>
     </row>
@@ -16102,7 +15782,6 @@
         <v>1</v>
       </c>
       <c r="N421" s="31">
-        <f t="shared" si="7"/>
         <v>4989</v>
       </c>
     </row>
@@ -16135,7 +15814,6 @@
         <v>0.98</v>
       </c>
       <c r="N422" s="31">
-        <f t="shared" si="7"/>
         <v>4942</v>
       </c>
     </row>
@@ -16168,7 +15846,6 @@
         <v>0.98</v>
       </c>
       <c r="N423" s="31">
-        <f t="shared" si="7"/>
         <v>4310</v>
       </c>
     </row>
@@ -16201,7 +15878,6 @@
         <v>0.98</v>
       </c>
       <c r="N424" s="31">
-        <f t="shared" si="7"/>
         <v>3302</v>
       </c>
     </row>
@@ -16234,7 +15910,6 @@
         <v>0.98</v>
       </c>
       <c r="N425" s="31">
-        <f t="shared" si="7"/>
         <v>2323</v>
       </c>
     </row>
@@ -16267,7 +15942,6 @@
         <v>0.98</v>
       </c>
       <c r="N426" s="31">
-        <f t="shared" si="7"/>
         <v>3883</v>
       </c>
     </row>
@@ -16299,8 +15973,7 @@
       <c r="I427" s="10">
         <v>0.98</v>
       </c>
-      <c r="N427" s="31">
-        <f t="shared" si="7"/>
+      <c r="N427" s="32">
         <v>4076</v>
       </c>
     </row>
@@ -16332,8 +16005,7 @@
       <c r="I428" s="10">
         <v>0.98</v>
       </c>
-      <c r="N428" s="31">
-        <f t="shared" si="7"/>
+      <c r="N428" s="32">
         <v>3852</v>
       </c>
     </row>
@@ -16365,8 +16037,7 @@
       <c r="I429" s="10">
         <v>0.96</v>
       </c>
-      <c r="N429" s="31">
-        <f t="shared" si="7"/>
+      <c r="N429" s="32">
         <v>3264</v>
       </c>
     </row>
@@ -16398,8 +16069,7 @@
       <c r="I430" s="10">
         <v>0.97</v>
       </c>
-      <c r="N430" s="31">
-        <f t="shared" si="7"/>
+      <c r="N430" s="32">
         <v>3474</v>
       </c>
     </row>
@@ -16431,8 +16101,7 @@
       <c r="I431" s="10">
         <v>0.97</v>
       </c>
-      <c r="N431" s="31">
-        <f t="shared" si="7"/>
+      <c r="N431" s="32">
         <v>2265</v>
       </c>
     </row>
@@ -16464,8 +16133,7 @@
       <c r="I432" s="10">
         <v>0.96</v>
       </c>
-      <c r="N432" s="31">
-        <f t="shared" si="7"/>
+      <c r="N432" s="32">
         <v>1768</v>
       </c>
     </row>
@@ -16497,8 +16165,7 @@
       <c r="I433" s="10">
         <v>0.95</v>
       </c>
-      <c r="N433" s="31">
-        <f t="shared" si="7"/>
+      <c r="N433" s="32">
         <v>2931</v>
       </c>
     </row>
@@ -16530,8 +16197,7 @@
       <c r="I434" s="10">
         <v>0.97</v>
       </c>
-      <c r="N434" s="31">
-        <f t="shared" si="7"/>
+      <c r="N434" s="32">
         <v>3006</v>
       </c>
     </row>
@@ -16563,8 +16229,7 @@
       <c r="I435" s="10">
         <v>0.97</v>
       </c>
-      <c r="N435" s="31">
-        <f t="shared" si="7"/>
+      <c r="N435" s="32">
         <v>2989</v>
       </c>
     </row>
@@ -16596,8 +16261,7 @@
       <c r="I436" s="10">
         <v>0.96</v>
       </c>
-      <c r="N436" s="31">
-        <f t="shared" si="7"/>
+      <c r="N436" s="32">
         <v>2523</v>
       </c>
     </row>
@@ -16629,8 +16293,7 @@
       <c r="I437" s="10">
         <v>0.94</v>
       </c>
-      <c r="N437" s="31">
-        <f t="shared" si="7"/>
+      <c r="N437" s="32">
         <v>2201</v>
       </c>
     </row>
@@ -16662,8 +16325,7 @@
       <c r="I438" s="10">
         <v>0.95</v>
       </c>
-      <c r="N438" s="31">
-        <f t="shared" si="7"/>
+      <c r="N438" s="32">
         <v>1542</v>
       </c>
     </row>
@@ -16695,8 +16357,7 @@
       <c r="I439" s="10">
         <v>0.95</v>
       </c>
-      <c r="N439" s="31">
-        <f t="shared" si="7"/>
+      <c r="N439" s="32">
         <v>1256</v>
       </c>
     </row>
@@ -16728,8 +16389,7 @@
       <c r="I440" s="10">
         <v>0.96</v>
       </c>
-      <c r="N440" s="31">
-        <f t="shared" si="7"/>
+      <c r="N440" s="32">
         <v>2019</v>
       </c>
     </row>
@@ -16761,8 +16421,7 @@
       <c r="I441" s="10">
         <v>0.96</v>
       </c>
-      <c r="N441" s="31">
-        <f t="shared" si="7"/>
+      <c r="N441" s="32">
         <v>2240</v>
       </c>
     </row>
@@ -16794,8 +16453,7 @@
       <c r="I442" s="10">
         <v>0.97</v>
       </c>
-      <c r="N442" s="31">
-        <f t="shared" si="7"/>
+      <c r="N442" s="32">
         <v>1850</v>
       </c>
     </row>
@@ -16827,8 +16485,7 @@
       <c r="I443" s="10">
         <v>0.95</v>
       </c>
-      <c r="N443" s="31">
-        <f t="shared" si="7"/>
+      <c r="N443" s="32">
         <v>1636</v>
       </c>
     </row>
@@ -16860,8 +16517,7 @@
       <c r="I444" s="10">
         <v>0.95</v>
       </c>
-      <c r="N444" s="31">
-        <f t="shared" si="7"/>
+      <c r="N444" s="32">
         <v>1307</v>
       </c>
     </row>
@@ -16893,8 +16549,7 @@
       <c r="I445" s="10">
         <v>0.95</v>
       </c>
-      <c r="N445" s="31">
-        <f t="shared" si="7"/>
+      <c r="N445" s="32">
         <v>1083</v>
       </c>
     </row>
@@ -16920,11 +16575,15 @@
       <c r="G446" s="10">
         <v>5992</v>
       </c>
+      <c r="H446" s="37">
+        <f>SUM(C446-C445)</f>
+        <v>682</v>
+      </c>
       <c r="I446" s="10">
         <v>0.95</v>
       </c>
-      <c r="N446" s="31">
-        <f t="shared" si="7"/>
+      <c r="N446" s="37">
+        <f>SUM(C446-C445)</f>
         <v>682</v>
       </c>
     </row>
@@ -16947,11 +16606,19 @@
       <c r="F447" s="6">
         <v>1000451</v>
       </c>
-      <c r="G447" s="10">
+      <c r="G447" s="27">
         <v>14061</v>
+      </c>
+      <c r="H447" s="38">
+        <f>SUM(C447-C446)</f>
+        <v>994</v>
       </c>
       <c r="I447" s="2">
         <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="N447" s="38">
+        <f>SUM(C447-C446)</f>
+        <v>994</v>
       </c>
     </row>
     <row r="448" spans="1:14" x14ac:dyDescent="0.25">
@@ -16973,14 +16640,22 @@
       <c r="F448" s="6">
         <v>1002985</v>
       </c>
-      <c r="G448" s="10">
+      <c r="G448" s="27">
         <v>36982</v>
+      </c>
+      <c r="H448" s="38">
+        <f t="shared" ref="H448:H473" si="0">SUM(C448-C447)</f>
+        <v>1564</v>
       </c>
       <c r="I448" s="2">
         <v>1.4E-3</v>
       </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N448" s="37">
+        <f t="shared" ref="N448:N473" si="1">SUM(C448-C447)</f>
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A449" s="8">
         <v>44322</v>
       </c>
@@ -16999,14 +16674,22 @@
       <c r="F449" s="6">
         <v>1005623</v>
       </c>
-      <c r="G449" s="10">
+      <c r="G449" s="27">
         <v>38477</v>
+      </c>
+      <c r="H449" s="38">
+        <f t="shared" si="0"/>
+        <v>1632</v>
       </c>
       <c r="I449" s="2">
         <v>1.5E-3</v>
       </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N449" s="38">
+        <f t="shared" si="1"/>
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A450" s="8">
         <v>44323</v>
       </c>
@@ -17025,14 +16708,22 @@
       <c r="F450" s="6">
         <v>1009237</v>
       </c>
-      <c r="G450" s="10">
+      <c r="G450" s="27">
         <v>38489</v>
+      </c>
+      <c r="H450" s="38">
+        <f t="shared" si="0"/>
+        <v>1422</v>
       </c>
       <c r="I450" s="2">
         <v>1.2999999999999999E-3</v>
       </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N450" s="37">
+        <f t="shared" si="1"/>
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A451" s="8">
         <v>44324</v>
       </c>
@@ -17051,14 +16742,22 @@
       <c r="F451" s="6">
         <v>1011694</v>
       </c>
-      <c r="G451" s="10">
+      <c r="G451" s="27">
         <v>37457</v>
+      </c>
+      <c r="H451" s="38">
+        <f t="shared" si="0"/>
+        <v>1305</v>
       </c>
       <c r="I451" s="2">
         <v>1.1999999999999999E-3</v>
       </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N451" s="38">
+        <f t="shared" si="1"/>
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A452" s="8">
         <v>44325</v>
       </c>
@@ -17077,14 +16776,22 @@
       <c r="F452" s="6">
         <v>1013666</v>
       </c>
-      <c r="G452" s="10">
+      <c r="G452" s="27">
         <v>20463</v>
+      </c>
+      <c r="H452" s="38">
+        <f t="shared" si="0"/>
+        <v>857</v>
       </c>
       <c r="I452" s="2">
         <v>8.0000000000000004E-4</v>
       </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N452" s="37">
+        <f t="shared" si="1"/>
+        <v>857</v>
+      </c>
+    </row>
+    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A453" s="8">
         <v>44326</v>
       </c>
@@ -17103,14 +16810,22 @@
       <c r="F453" s="6">
         <v>1015092</v>
       </c>
-      <c r="G453" s="10">
+      <c r="G453" s="27">
         <v>10743</v>
+      </c>
+      <c r="H453" s="38">
+        <f t="shared" si="0"/>
+        <v>620</v>
       </c>
       <c r="I453" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N453" s="38">
+        <f t="shared" si="1"/>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A454" s="8">
         <v>44327</v>
       </c>
@@ -17129,14 +16844,22 @@
       <c r="F454" s="6">
         <v>1017047</v>
       </c>
-      <c r="G454" s="10">
+      <c r="G454" s="27">
         <v>36195</v>
+      </c>
+      <c r="H454" s="38">
+        <f t="shared" si="0"/>
+        <v>1156</v>
       </c>
       <c r="I454" s="2">
         <v>1.8E-3</v>
       </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N454" s="37">
+        <f t="shared" si="1"/>
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A455" s="8">
         <v>44328</v>
       </c>
@@ -17155,14 +16878,22 @@
       <c r="F455" s="6">
         <v>1017047</v>
       </c>
-      <c r="G455" s="10">
+      <c r="G455" s="27">
         <v>34543</v>
+      </c>
+      <c r="H455" s="38">
+        <f t="shared" si="0"/>
+        <v>930</v>
       </c>
       <c r="I455" s="2">
         <v>8.0000000000000004E-4</v>
       </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N455" s="38">
+        <f t="shared" si="1"/>
+        <v>930</v>
+      </c>
+    </row>
+    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A456" s="8">
         <v>44329</v>
       </c>
@@ -17181,14 +16912,22 @@
       <c r="F456" s="6">
         <v>1020194</v>
       </c>
-      <c r="G456" s="10">
+      <c r="G456" s="27">
         <v>33222</v>
+      </c>
+      <c r="H456" s="38">
+        <f t="shared" si="0"/>
+        <v>953</v>
       </c>
       <c r="I456" s="2">
         <v>8.0000000000000004E-4</v>
       </c>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N456" s="37">
+        <f t="shared" si="1"/>
+        <v>953</v>
+      </c>
+    </row>
+    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A457" s="8">
         <v>44330</v>
       </c>
@@ -17207,14 +16946,22 @@
       <c r="F457" s="6">
         <v>1022029</v>
       </c>
-      <c r="G457" s="10">
+      <c r="G457" s="27">
         <v>34616</v>
+      </c>
+      <c r="H457" s="38">
+        <f t="shared" si="0"/>
+        <v>835</v>
       </c>
       <c r="I457" s="2">
         <v>7.6999999999999996E-4</v>
       </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N457" s="38">
+        <f t="shared" si="1"/>
+        <v>835</v>
+      </c>
+    </row>
+    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A458" s="8">
         <v>44331</v>
       </c>
@@ -17233,14 +16980,22 @@
       <c r="F458" s="6">
         <v>1023822</v>
       </c>
-      <c r="G458" s="10">
+      <c r="G458" s="27">
         <v>32709</v>
+      </c>
+      <c r="H458" s="38">
+        <f t="shared" si="0"/>
+        <v>729</v>
       </c>
       <c r="I458" s="2">
         <v>5.9999999999999995E-4</v>
       </c>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N458" s="37">
+        <f t="shared" si="1"/>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A459" s="8">
         <v>44332</v>
       </c>
@@ -17259,14 +17014,22 @@
       <c r="F459" s="6">
         <v>1025145</v>
       </c>
-      <c r="G459" s="10">
+      <c r="G459" s="27">
         <v>18749</v>
+      </c>
+      <c r="H459" s="38">
+        <f t="shared" si="0"/>
+        <v>565</v>
       </c>
       <c r="I459" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N459" s="38">
+        <f t="shared" si="1"/>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A460" s="8">
         <v>44333</v>
       </c>
@@ -17285,14 +17048,22 @@
       <c r="F460" s="6">
         <v>1026299</v>
       </c>
-      <c r="G460" s="10">
+      <c r="G460" s="27">
         <v>11365</v>
+      </c>
+      <c r="H460" s="38">
+        <f t="shared" si="0"/>
+        <v>392</v>
       </c>
       <c r="I460" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N460" s="37">
+        <f t="shared" si="1"/>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A461" s="8">
         <v>44334</v>
       </c>
@@ -17311,14 +17082,22 @@
       <c r="F461" s="6">
         <v>1027412</v>
       </c>
-      <c r="G461" s="10">
+      <c r="G461" s="27">
         <v>32151</v>
+      </c>
+      <c r="H461" s="38">
+        <f t="shared" si="0"/>
+        <v>681</v>
       </c>
       <c r="I461" s="2">
         <v>5.9999999999999995E-4</v>
       </c>
-    </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N461" s="38">
+        <f t="shared" si="1"/>
+        <v>681</v>
+      </c>
+    </row>
+    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A462" s="8">
         <v>44335</v>
       </c>
@@ -17337,14 +17116,22 @@
       <c r="F462" s="6">
         <v>1028554</v>
       </c>
-      <c r="G462" s="10">
+      <c r="G462" s="27">
         <v>31574</v>
+      </c>
+      <c r="H462" s="38">
+        <f t="shared" si="0"/>
+        <v>707</v>
       </c>
       <c r="I462" s="2">
         <v>5.9999999999999995E-4</v>
       </c>
-    </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N462" s="37">
+        <f t="shared" si="1"/>
+        <v>707</v>
+      </c>
+    </row>
+    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A463" s="8">
         <v>44336</v>
       </c>
@@ -17363,14 +17150,22 @@
       <c r="F463" s="6">
         <v>1029375</v>
       </c>
-      <c r="G463" s="10">
+      <c r="G463" s="27">
         <v>31252</v>
+      </c>
+      <c r="H463" s="38">
+        <f t="shared" si="0"/>
+        <v>618</v>
       </c>
       <c r="I463" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N463" s="38">
+        <f t="shared" si="1"/>
+        <v>618</v>
+      </c>
+    </row>
+    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A464" s="8">
         <v>44337</v>
       </c>
@@ -17389,14 +17184,22 @@
       <c r="F464" s="6">
         <v>1030137</v>
       </c>
-      <c r="G464" s="10">
+      <c r="G464" s="27">
         <v>34213</v>
+      </c>
+      <c r="H464" s="38">
+        <f t="shared" si="0"/>
+        <v>484</v>
       </c>
       <c r="I464" s="2">
         <v>4.0000000000000002E-4</v>
       </c>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N464" s="37">
+        <f t="shared" si="1"/>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A465" s="8">
         <v>44338</v>
       </c>
@@ -17415,14 +17218,22 @@
       <c r="F465" s="6">
         <v>1031605</v>
       </c>
-      <c r="G465" s="10">
+      <c r="G465" s="27">
         <v>28724</v>
+      </c>
+      <c r="H465" s="38">
+        <f t="shared" si="0"/>
+        <v>455</v>
       </c>
       <c r="I465" s="2">
         <v>4.0000000000000002E-4</v>
       </c>
-    </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N465" s="38">
+        <f t="shared" si="1"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A466" s="8">
         <v>44339</v>
       </c>
@@ -17441,14 +17252,22 @@
       <c r="F466" s="6">
         <v>1032888</v>
       </c>
-      <c r="G466" s="10">
+      <c r="G466" s="27">
         <v>18478</v>
+      </c>
+      <c r="H466" s="38">
+        <f t="shared" si="0"/>
+        <v>307</v>
       </c>
       <c r="I466" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N466" s="37">
+        <f t="shared" si="1"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A467" s="8">
         <v>44340</v>
       </c>
@@ -17467,14 +17286,22 @@
       <c r="F467" s="6">
         <v>1033984</v>
       </c>
-      <c r="G467" s="10">
+      <c r="G467" s="27">
         <v>10487</v>
+      </c>
+      <c r="H467" s="38">
+        <f t="shared" si="0"/>
+        <v>230</v>
       </c>
       <c r="I467" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N467" s="38">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A468" s="8">
         <v>44341</v>
       </c>
@@ -17493,14 +17320,22 @@
       <c r="F468" s="6">
         <v>1035115</v>
       </c>
-      <c r="G468" s="10">
+      <c r="G468" s="27">
         <v>31807</v>
+      </c>
+      <c r="H468" s="38">
+        <f t="shared" si="0"/>
+        <v>381</v>
       </c>
       <c r="I468" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
-    </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N468" s="37">
+        <f t="shared" si="1"/>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A469" s="8">
         <v>44342</v>
       </c>
@@ -17519,14 +17354,22 @@
       <c r="F469" s="6">
         <v>1035902</v>
       </c>
-      <c r="G469" s="10">
+      <c r="G469" s="27">
         <v>33057</v>
+      </c>
+      <c r="H469" s="38">
+        <f t="shared" si="0"/>
+        <v>379</v>
       </c>
       <c r="I469" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
-    </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N469" s="38">
+        <f t="shared" si="1"/>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A470" s="8">
         <v>44343</v>
       </c>
@@ -17545,14 +17388,22 @@
       <c r="F470" s="6">
         <v>1036646</v>
       </c>
-      <c r="G470" s="10">
+      <c r="G470" s="27">
         <v>31150</v>
+      </c>
+      <c r="H470" s="38">
+        <f t="shared" si="0"/>
+        <v>307</v>
       </c>
       <c r="I470" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N470" s="37">
+        <f t="shared" si="1"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A471" s="8">
         <v>44344</v>
       </c>
@@ -17571,14 +17422,22 @@
       <c r="F471" s="6">
         <v>1037729</v>
       </c>
-      <c r="G471" s="10">
+      <c r="G471" s="27">
         <v>32868</v>
+      </c>
+      <c r="H471" s="38">
+        <f t="shared" si="0"/>
+        <v>321</v>
       </c>
       <c r="I471" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N471" s="38">
+        <f t="shared" si="1"/>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A472" s="8">
         <v>44345</v>
       </c>
@@ -17597,14 +17456,22 @@
       <c r="F472" s="6">
         <v>1038539</v>
       </c>
-      <c r="G472" s="10">
+      <c r="G472" s="27">
         <v>28992</v>
+      </c>
+      <c r="H472" s="38">
+        <f t="shared" si="0"/>
+        <v>265</v>
       </c>
       <c r="I472" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N472" s="37">
+        <f t="shared" si="1"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A473" s="8">
         <v>44346</v>
       </c>
@@ -17623,11 +17490,19 @@
       <c r="F473" s="6">
         <v>1039173</v>
       </c>
-      <c r="G473" s="10">
+      <c r="G473" s="27">
         <v>16973</v>
+      </c>
+      <c r="H473" s="38">
+        <f t="shared" si="0"/>
+        <v>158</v>
       </c>
       <c r="I473" s="2">
         <v>1E-4</v>
+      </c>
+      <c r="N473" s="38">
+        <f t="shared" si="1"/>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
